--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43428</v>
+        <v>43436</v>
       </c>
     </row>
   </sheetData>
@@ -1789,10 +1789,10 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="3" topLeftCell="L35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="3" topLeftCell="L43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J56" sqref="J56"/>
+      <selection pane="bottomRight" activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>634.93000000000006</v>
+        <v>643.23</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>1.0207877813504824</v>
+        <v>1.0341318327974276</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3907,10 +3907,13 @@
         <f t="shared" si="61"/>
         <v>43436</v>
       </c>
-      <c r="J56" s="24"/>
+      <c r="J56" s="24">
+        <f xml:space="preserve"> 8.3</f>
+        <v>8.3000000000000007</v>
+      </c>
       <c r="K56" s="24">
         <f>SUM(J53:J56)</f>
-        <v>6.73</v>
+        <v>15.030000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -3,14 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <workbookProtection workbookPassword="CF7C" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19440" windowHeight="8520" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19440" windowHeight="8520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2017 automn &amp; winter" sheetId="1" r:id="rId1"/>
     <sheet name="2018" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="2019" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Lundi</t>
   </si>
@@ -255,235 +254,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="53">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF1EB99"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="6" tint="0.79998168889431442"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="6" tint="0.79998168889431442"/>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="81">
     <dxf>
       <font>
         <b val="0"/>
@@ -544,6 +315,520 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF1EB99"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF1EB99"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDotDot">
+          <color theme="8"/>
+        </left>
+        <right style="dashDotDot">
+          <color theme="8"/>
+        </right>
+        <top style="dashDotDot">
+          <color theme="8"/>
+        </top>
+        <bottom style="dashDotDot">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color theme="9"/>
+        </left>
+        <right style="dotted">
+          <color theme="9"/>
+        </right>
+        <top style="dotted">
+          <color theme="9"/>
+        </top>
+        <bottom style="dotted">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -737,46 +1022,76 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A2:G13" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A2:G13" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
   <autoFilter ref="A2:G13"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Lundi" dataDxfId="34">
+    <tableColumn id="1" name="Lundi" dataDxfId="62">
       <calculatedColumnFormula xml:space="preserve"> 1 + G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Mardi" dataDxfId="33"/>
-    <tableColumn id="3" name="Mercredi" dataDxfId="32"/>
-    <tableColumn id="4" name="Jeudi" dataDxfId="31"/>
-    <tableColumn id="5" name="Vendredi" dataDxfId="30"/>
-    <tableColumn id="6" name="Samedi" dataDxfId="29"/>
-    <tableColumn id="7" name="Dimanche" dataDxfId="28"/>
+    <tableColumn id="2" name="Mardi" dataDxfId="61"/>
+    <tableColumn id="3" name="Mercredi" dataDxfId="60"/>
+    <tableColumn id="4" name="Jeudi" dataDxfId="59"/>
+    <tableColumn id="5" name="Vendredi" dataDxfId="58"/>
+    <tableColumn id="6" name="Samedi" dataDxfId="57"/>
+    <tableColumn id="7" name="Dimanche" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B3:H61" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B3:H61" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35">
   <autoFilter ref="B3:H61"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Lundi" dataDxfId="6">
+    <tableColumn id="1" name="Lundi" dataDxfId="34">
       <calculatedColumnFormula xml:space="preserve"> 1 + $H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Mardi" dataDxfId="5">
+    <tableColumn id="2" name="Mardi" dataDxfId="33">
       <calculatedColumnFormula xml:space="preserve"> 1 + B4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Mercredi" dataDxfId="4">
+    <tableColumn id="3" name="Mercredi" dataDxfId="32">
       <calculatedColumnFormula xml:space="preserve"> 1 + C4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Jeudi" dataDxfId="3">
+    <tableColumn id="4" name="Jeudi" dataDxfId="31">
       <calculatedColumnFormula xml:space="preserve"> 1 + D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Vendredi" dataDxfId="2">
+    <tableColumn id="5" name="Vendredi" dataDxfId="30">
       <calculatedColumnFormula xml:space="preserve"> 1 + E4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Samedi" dataDxfId="1">
+    <tableColumn id="6" name="Samedi" dataDxfId="29">
       <calculatedColumnFormula xml:space="preserve"> 1 + F4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Dimanche" dataDxfId="0">
+    <tableColumn id="7" name="Dimanche" dataDxfId="28">
+      <calculatedColumnFormula xml:space="preserve"> 1 + G4</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau14" displayName="Tableau14" ref="B3:H61" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="B3:H61"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Lundi" dataDxfId="8">
+      <calculatedColumnFormula xml:space="preserve"> 1 + $H3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Mardi" dataDxfId="7">
+      <calculatedColumnFormula xml:space="preserve"> 1 + B4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Mercredi" dataDxfId="6">
+      <calculatedColumnFormula xml:space="preserve"> 1 + C4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Jeudi" dataDxfId="5">
+      <calculatedColumnFormula xml:space="preserve"> 1 + D4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Vendredi" dataDxfId="4">
+      <calculatedColumnFormula xml:space="preserve"> 1 + E4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Samedi" dataDxfId="3">
+      <calculatedColumnFormula xml:space="preserve"> 1 + F4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="Dimanche" dataDxfId="2">
       <calculatedColumnFormula xml:space="preserve"> 1 + G4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1665,60 +1980,60 @@
   </sheetData>
   <sheetProtection password="CF7C" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="52" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="17" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="51" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="16" operator="lessThan">
       <formula>$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="50" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="15" operator="lessThan">
       <formula>$H$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="49" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="14" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="48" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="13" operator="lessThan">
       <formula>$H$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="47" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="12" operator="lessThan">
       <formula>$H$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="46" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="11" operator="lessThan">
       <formula>$H$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="45" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="10" operator="lessThan">
       <formula>$H$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="44" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="9" operator="lessThan">
       <formula>$H$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="43" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="8" operator="lessThan">
       <formula>$H$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G13">
-    <cfRule type="timePeriod" dxfId="42" priority="6" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="70" priority="6" timePeriod="today">
       <formula>FLOOR(A3,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="41" priority="7" timePeriod="thisMonth">
+    <cfRule type="timePeriod" dxfId="69" priority="7" timePeriod="thisMonth">
       <formula>AND(MONTH(A3)=MONTH(TODAY()),YEAR(A3)=YEAR(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1737,18 +2052,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="68" priority="1" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="67" priority="2" operator="between">
       <formula>0.2</formula>
       <formula>0.6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="3" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="4" operator="lessThan">
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1788,11 +2103,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="3" topLeftCell="L43" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="11" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J57" sqref="J57"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4101,63 +4416,63 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:H61">
-    <cfRule type="timePeriod" dxfId="27" priority="18" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="55" priority="18" timePeriod="today">
       <formula>FLOOR(B4,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="26" priority="19" timePeriod="thisMonth">
+    <cfRule type="timePeriod" dxfId="54" priority="19" timePeriod="thisMonth">
       <formula>AND(MONTH(B4)=MONTH(TODAY()),YEAR(B4)=YEAR(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:K61">
-    <cfRule type="cellIs" dxfId="25" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="13" operator="greaterThan">
       <formula>24.8800001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="52" priority="14" operator="between">
       <formula>18.66000001</formula>
       <formula>24.88</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="51" priority="15" operator="between">
       <formula>12.4400001</formula>
       <formula>18.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="50" priority="16" operator="between">
       <formula>6.220001</formula>
       <formula>12.44</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="49" priority="17" operator="between">
       <formula>0</formula>
       <formula>6.22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:K3">
-    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="1" stopIfTrue="1">
       <formula>"$k$3 &gt;= 0,9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="2" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="3" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="4" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="5" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="6" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="7" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="8" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="9" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="10" stopIfTrue="1">
       <formula>$L$3 &lt; 0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4174,12 +4489,2267 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:N61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="11" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" style="23" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J2" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="26"/>
+      <c r="L2" s="28">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="25">
+        <f>SUM($J$4:$J$61)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="27">
+        <f xml:space="preserve"> J3 / 622</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <f t="shared" ref="A4:A8" si="0" xml:space="preserve"> IF(OR( 1 = DAY($B4), 1 = DAY($C4), 1 = DAY($D4), 1 = DAY($E4), 1 = DAY($F4),  1 = DAY($G4),  1 = DAY($H4),   ), $H4, "")</f>
+        <v>43436</v>
+      </c>
+      <c r="B4" s="18">
+        <f t="shared" ref="B4:G8" si="1" xml:space="preserve"> -1 + C4</f>
+        <v>43430</v>
+      </c>
+      <c r="C4" s="18">
+        <f t="shared" si="1"/>
+        <v>43431</v>
+      </c>
+      <c r="D4" s="18">
+        <f t="shared" si="1"/>
+        <v>43432</v>
+      </c>
+      <c r="E4" s="18">
+        <f t="shared" si="1"/>
+        <v>43433</v>
+      </c>
+      <c r="F4" s="18">
+        <f t="shared" si="1"/>
+        <v>43434</v>
+      </c>
+      <c r="G4" s="18">
+        <f t="shared" si="1"/>
+        <v>43435</v>
+      </c>
+      <c r="H4" s="18">
+        <f t="shared" ref="H4:H7" si="2" xml:space="preserve"> -1 + $B5</f>
+        <v>43436</v>
+      </c>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B5" s="18">
+        <f t="shared" si="1"/>
+        <v>43437</v>
+      </c>
+      <c r="C5" s="18">
+        <f t="shared" si="1"/>
+        <v>43438</v>
+      </c>
+      <c r="D5" s="18">
+        <f t="shared" si="1"/>
+        <v>43439</v>
+      </c>
+      <c r="E5" s="18">
+        <f t="shared" si="1"/>
+        <v>43440</v>
+      </c>
+      <c r="F5" s="18">
+        <f t="shared" si="1"/>
+        <v>43441</v>
+      </c>
+      <c r="G5" s="18">
+        <f t="shared" si="1"/>
+        <v>43442</v>
+      </c>
+      <c r="H5" s="18">
+        <f t="shared" si="2"/>
+        <v>43443</v>
+      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B6" s="18">
+        <f t="shared" si="1"/>
+        <v>43444</v>
+      </c>
+      <c r="C6" s="18">
+        <f t="shared" si="1"/>
+        <v>43445</v>
+      </c>
+      <c r="D6" s="18">
+        <f t="shared" si="1"/>
+        <v>43446</v>
+      </c>
+      <c r="E6" s="18">
+        <f t="shared" si="1"/>
+        <v>43447</v>
+      </c>
+      <c r="F6" s="18">
+        <f t="shared" si="1"/>
+        <v>43448</v>
+      </c>
+      <c r="G6" s="18">
+        <f t="shared" si="1"/>
+        <v>43449</v>
+      </c>
+      <c r="H6" s="18">
+        <f t="shared" si="2"/>
+        <v>43450</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B7" s="18">
+        <f t="shared" si="1"/>
+        <v>43451</v>
+      </c>
+      <c r="C7" s="18">
+        <f t="shared" si="1"/>
+        <v>43452</v>
+      </c>
+      <c r="D7" s="18">
+        <f t="shared" si="1"/>
+        <v>43453</v>
+      </c>
+      <c r="E7" s="18">
+        <f t="shared" si="1"/>
+        <v>43454</v>
+      </c>
+      <c r="F7" s="18">
+        <f t="shared" si="1"/>
+        <v>43455</v>
+      </c>
+      <c r="G7" s="18">
+        <f t="shared" si="1"/>
+        <v>43456</v>
+      </c>
+      <c r="H7" s="18">
+        <f t="shared" si="2"/>
+        <v>43457</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B8" s="18">
+        <f t="shared" si="1"/>
+        <v>43458</v>
+      </c>
+      <c r="C8" s="18">
+        <f t="shared" si="1"/>
+        <v>43459</v>
+      </c>
+      <c r="D8" s="18">
+        <f t="shared" si="1"/>
+        <v>43460</v>
+      </c>
+      <c r="E8" s="18">
+        <f t="shared" si="1"/>
+        <v>43461</v>
+      </c>
+      <c r="F8" s="18">
+        <f t="shared" si="1"/>
+        <v>43462</v>
+      </c>
+      <c r="G8" s="18">
+        <f xml:space="preserve"> -1 + H8</f>
+        <v>43463</v>
+      </c>
+      <c r="H8" s="18">
+        <f xml:space="preserve"> -1 + $B9</f>
+        <v>43464</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24">
+        <f>SUM(J4:J8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <f xml:space="preserve"> IF(OR( 1 = DAY($B9), 1 = DAY($C9), 1 = DAY($D9), 1 = DAY($E9), 1 = DAY($F9),  1 = DAY($G9),  1 = DAY($H9),   ), $H9, "")</f>
+        <v>43471</v>
+      </c>
+      <c r="B9" s="17">
+        <v>43465</v>
+      </c>
+      <c r="C9" s="17">
+        <f>Tableau14[[#This Row],[Lundi]] + 1</f>
+        <v>43466</v>
+      </c>
+      <c r="D9" s="17">
+        <f xml:space="preserve"> Tableau14[[#This Row],[Mardi]] + 1</f>
+        <v>43467</v>
+      </c>
+      <c r="E9" s="17">
+        <f xml:space="preserve"> Tableau14[[#This Row],[Mercredi]] + 1</f>
+        <v>43468</v>
+      </c>
+      <c r="F9" s="17">
+        <f xml:space="preserve"> Tableau14[[#This Row],[Jeudi]] + 1</f>
+        <v>43469</v>
+      </c>
+      <c r="G9" s="17">
+        <f xml:space="preserve"> Tableau14[[#This Row],[Vendredi]] + 1</f>
+        <v>43470</v>
+      </c>
+      <c r="H9" s="17">
+        <f xml:space="preserve"> Tableau14[[#This Row],[Samedi]] + 1</f>
+        <v>43471</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="N9" s="20"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="str">
+        <f t="shared" ref="A10:A61" si="3" xml:space="preserve"> IF(OR( 1 = DAY($B10), 1 = DAY($C10), 1 = DAY($D10), 1 = DAY($E10), 1 = DAY($F10),  1 = DAY($G10),  1 = DAY($H10),   ), $H10, "")</f>
+        <v/>
+      </c>
+      <c r="B10" s="17">
+        <f xml:space="preserve"> 1 + $H9</f>
+        <v>43472</v>
+      </c>
+      <c r="C10" s="17">
+        <f xml:space="preserve"> 1 + B10</f>
+        <v>43473</v>
+      </c>
+      <c r="D10" s="17">
+        <f t="shared" ref="D10:H10" si="4" xml:space="preserve"> 1 + C10</f>
+        <v>43474</v>
+      </c>
+      <c r="E10" s="17">
+        <f t="shared" si="4"/>
+        <v>43475</v>
+      </c>
+      <c r="F10" s="17">
+        <f t="shared" si="4"/>
+        <v>43476</v>
+      </c>
+      <c r="G10" s="17">
+        <f t="shared" si="4"/>
+        <v>43477</v>
+      </c>
+      <c r="H10" s="17">
+        <f t="shared" si="4"/>
+        <v>43478</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="22"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B11" s="17">
+        <f t="shared" ref="B11:B18" si="5" xml:space="preserve"> 1 + $H10</f>
+        <v>43479</v>
+      </c>
+      <c r="C11" s="17">
+        <f t="shared" ref="C11:H19" si="6" xml:space="preserve"> 1 + B11</f>
+        <v>43480</v>
+      </c>
+      <c r="D11" s="17">
+        <f t="shared" si="6"/>
+        <v>43481</v>
+      </c>
+      <c r="E11" s="17">
+        <f t="shared" si="6"/>
+        <v>43482</v>
+      </c>
+      <c r="F11" s="17">
+        <f t="shared" si="6"/>
+        <v>43483</v>
+      </c>
+      <c r="G11" s="17">
+        <f t="shared" si="6"/>
+        <v>43484</v>
+      </c>
+      <c r="H11" s="17">
+        <f t="shared" si="6"/>
+        <v>43485</v>
+      </c>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B12" s="17">
+        <f t="shared" si="5"/>
+        <v>43486</v>
+      </c>
+      <c r="C12" s="17">
+        <f t="shared" si="6"/>
+        <v>43487</v>
+      </c>
+      <c r="D12" s="17">
+        <f t="shared" si="6"/>
+        <v>43488</v>
+      </c>
+      <c r="E12" s="17">
+        <f t="shared" si="6"/>
+        <v>43489</v>
+      </c>
+      <c r="F12" s="17">
+        <f t="shared" si="6"/>
+        <v>43490</v>
+      </c>
+      <c r="G12" s="17">
+        <f t="shared" si="6"/>
+        <v>43491</v>
+      </c>
+      <c r="H12" s="17">
+        <f t="shared" si="6"/>
+        <v>43492</v>
+      </c>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <f t="shared" si="3"/>
+        <v>43499</v>
+      </c>
+      <c r="B13" s="17">
+        <f t="shared" si="5"/>
+        <v>43493</v>
+      </c>
+      <c r="C13" s="17">
+        <f t="shared" si="6"/>
+        <v>43494</v>
+      </c>
+      <c r="D13" s="17">
+        <f t="shared" si="6"/>
+        <v>43495</v>
+      </c>
+      <c r="E13" s="17">
+        <f t="shared" si="6"/>
+        <v>43496</v>
+      </c>
+      <c r="F13" s="17">
+        <f t="shared" si="6"/>
+        <v>43497</v>
+      </c>
+      <c r="G13" s="17">
+        <f t="shared" si="6"/>
+        <v>43498</v>
+      </c>
+      <c r="H13" s="17">
+        <f t="shared" si="6"/>
+        <v>43499</v>
+      </c>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24">
+        <f>SUM(J9:J13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B14" s="17">
+        <f t="shared" si="5"/>
+        <v>43500</v>
+      </c>
+      <c r="C14" s="17">
+        <f t="shared" si="6"/>
+        <v>43501</v>
+      </c>
+      <c r="D14" s="17">
+        <f t="shared" si="6"/>
+        <v>43502</v>
+      </c>
+      <c r="E14" s="17">
+        <f t="shared" si="6"/>
+        <v>43503</v>
+      </c>
+      <c r="F14" s="17">
+        <f t="shared" si="6"/>
+        <v>43504</v>
+      </c>
+      <c r="G14" s="17">
+        <f t="shared" si="6"/>
+        <v>43505</v>
+      </c>
+      <c r="H14" s="17">
+        <f t="shared" si="6"/>
+        <v>43506</v>
+      </c>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B15" s="17">
+        <f t="shared" si="5"/>
+        <v>43507</v>
+      </c>
+      <c r="C15" s="17">
+        <f t="shared" si="6"/>
+        <v>43508</v>
+      </c>
+      <c r="D15" s="17">
+        <f t="shared" si="6"/>
+        <v>43509</v>
+      </c>
+      <c r="E15" s="17">
+        <f t="shared" si="6"/>
+        <v>43510</v>
+      </c>
+      <c r="F15" s="17">
+        <f t="shared" si="6"/>
+        <v>43511</v>
+      </c>
+      <c r="G15" s="17">
+        <f t="shared" si="6"/>
+        <v>43512</v>
+      </c>
+      <c r="H15" s="17">
+        <f t="shared" si="6"/>
+        <v>43513</v>
+      </c>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B16" s="17">
+        <f t="shared" si="5"/>
+        <v>43514</v>
+      </c>
+      <c r="C16" s="17">
+        <f t="shared" si="6"/>
+        <v>43515</v>
+      </c>
+      <c r="D16" s="17">
+        <f t="shared" si="6"/>
+        <v>43516</v>
+      </c>
+      <c r="E16" s="17">
+        <f t="shared" si="6"/>
+        <v>43517</v>
+      </c>
+      <c r="F16" s="17">
+        <f t="shared" si="6"/>
+        <v>43518</v>
+      </c>
+      <c r="G16" s="17">
+        <f t="shared" si="6"/>
+        <v>43519</v>
+      </c>
+      <c r="H16" s="17">
+        <f t="shared" si="6"/>
+        <v>43520</v>
+      </c>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <f t="shared" si="3"/>
+        <v>43527</v>
+      </c>
+      <c r="B17" s="17">
+        <f t="shared" si="5"/>
+        <v>43521</v>
+      </c>
+      <c r="C17" s="17">
+        <f t="shared" si="6"/>
+        <v>43522</v>
+      </c>
+      <c r="D17" s="17">
+        <f t="shared" si="6"/>
+        <v>43523</v>
+      </c>
+      <c r="E17" s="17">
+        <f t="shared" si="6"/>
+        <v>43524</v>
+      </c>
+      <c r="F17" s="17">
+        <f t="shared" si="6"/>
+        <v>43525</v>
+      </c>
+      <c r="G17" s="17">
+        <f t="shared" si="6"/>
+        <v>43526</v>
+      </c>
+      <c r="H17" s="17">
+        <f t="shared" si="6"/>
+        <v>43527</v>
+      </c>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24">
+        <f>SUM(J14:J17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B18" s="17">
+        <f t="shared" si="5"/>
+        <v>43528</v>
+      </c>
+      <c r="C18" s="17">
+        <f t="shared" si="6"/>
+        <v>43529</v>
+      </c>
+      <c r="D18" s="17">
+        <f t="shared" si="6"/>
+        <v>43530</v>
+      </c>
+      <c r="E18" s="17">
+        <f t="shared" si="6"/>
+        <v>43531</v>
+      </c>
+      <c r="F18" s="17">
+        <f t="shared" si="6"/>
+        <v>43532</v>
+      </c>
+      <c r="G18" s="17">
+        <f t="shared" si="6"/>
+        <v>43533</v>
+      </c>
+      <c r="H18" s="17">
+        <f t="shared" si="6"/>
+        <v>43534</v>
+      </c>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B19" s="17">
+        <f xml:space="preserve"> 1 + $H18</f>
+        <v>43535</v>
+      </c>
+      <c r="C19" s="17">
+        <f xml:space="preserve"> 1 + B19</f>
+        <v>43536</v>
+      </c>
+      <c r="D19" s="17">
+        <f t="shared" si="6"/>
+        <v>43537</v>
+      </c>
+      <c r="E19" s="17">
+        <f t="shared" si="6"/>
+        <v>43538</v>
+      </c>
+      <c r="F19" s="17">
+        <f t="shared" si="6"/>
+        <v>43539</v>
+      </c>
+      <c r="G19" s="17">
+        <f t="shared" si="6"/>
+        <v>43540</v>
+      </c>
+      <c r="H19" s="17">
+        <f t="shared" si="6"/>
+        <v>43541</v>
+      </c>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B20" s="17">
+        <f t="shared" ref="B20:B27" si="7" xml:space="preserve"> 1 + $H19</f>
+        <v>43542</v>
+      </c>
+      <c r="C20" s="17">
+        <f t="shared" ref="C20:H28" si="8" xml:space="preserve"> 1 + B20</f>
+        <v>43543</v>
+      </c>
+      <c r="D20" s="17">
+        <f t="shared" si="8"/>
+        <v>43544</v>
+      </c>
+      <c r="E20" s="17">
+        <f t="shared" si="8"/>
+        <v>43545</v>
+      </c>
+      <c r="F20" s="17">
+        <f t="shared" si="8"/>
+        <v>43546</v>
+      </c>
+      <c r="G20" s="17">
+        <f t="shared" si="8"/>
+        <v>43547</v>
+      </c>
+      <c r="H20" s="17">
+        <f t="shared" si="8"/>
+        <v>43548</v>
+      </c>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B21" s="17">
+        <f t="shared" si="7"/>
+        <v>43549</v>
+      </c>
+      <c r="C21" s="17">
+        <f t="shared" si="8"/>
+        <v>43550</v>
+      </c>
+      <c r="D21" s="17">
+        <f t="shared" si="8"/>
+        <v>43551</v>
+      </c>
+      <c r="E21" s="17">
+        <f t="shared" si="8"/>
+        <v>43552</v>
+      </c>
+      <c r="F21" s="17">
+        <f t="shared" si="8"/>
+        <v>43553</v>
+      </c>
+      <c r="G21" s="17">
+        <f t="shared" si="8"/>
+        <v>43554</v>
+      </c>
+      <c r="H21" s="17">
+        <f t="shared" si="8"/>
+        <v>43555</v>
+      </c>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24">
+        <f>SUM(J18:J21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <f t="shared" si="3"/>
+        <v>43562</v>
+      </c>
+      <c r="B22" s="17">
+        <f t="shared" si="7"/>
+        <v>43556</v>
+      </c>
+      <c r="C22" s="17">
+        <f t="shared" si="8"/>
+        <v>43557</v>
+      </c>
+      <c r="D22" s="17">
+        <f t="shared" si="8"/>
+        <v>43558</v>
+      </c>
+      <c r="E22" s="17">
+        <f t="shared" si="8"/>
+        <v>43559</v>
+      </c>
+      <c r="F22" s="17">
+        <f t="shared" si="8"/>
+        <v>43560</v>
+      </c>
+      <c r="G22" s="17">
+        <f t="shared" si="8"/>
+        <v>43561</v>
+      </c>
+      <c r="H22" s="17">
+        <f t="shared" si="8"/>
+        <v>43562</v>
+      </c>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B23" s="17">
+        <f t="shared" si="7"/>
+        <v>43563</v>
+      </c>
+      <c r="C23" s="17">
+        <f t="shared" si="8"/>
+        <v>43564</v>
+      </c>
+      <c r="D23" s="17">
+        <f t="shared" si="8"/>
+        <v>43565</v>
+      </c>
+      <c r="E23" s="17">
+        <f t="shared" si="8"/>
+        <v>43566</v>
+      </c>
+      <c r="F23" s="17">
+        <f t="shared" si="8"/>
+        <v>43567</v>
+      </c>
+      <c r="G23" s="17">
+        <f t="shared" si="8"/>
+        <v>43568</v>
+      </c>
+      <c r="H23" s="17">
+        <f t="shared" si="8"/>
+        <v>43569</v>
+      </c>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B24" s="17">
+        <f t="shared" si="7"/>
+        <v>43570</v>
+      </c>
+      <c r="C24" s="17">
+        <f t="shared" si="8"/>
+        <v>43571</v>
+      </c>
+      <c r="D24" s="17">
+        <f t="shared" si="8"/>
+        <v>43572</v>
+      </c>
+      <c r="E24" s="17">
+        <f t="shared" si="8"/>
+        <v>43573</v>
+      </c>
+      <c r="F24" s="17">
+        <f t="shared" si="8"/>
+        <v>43574</v>
+      </c>
+      <c r="G24" s="17">
+        <f t="shared" si="8"/>
+        <v>43575</v>
+      </c>
+      <c r="H24" s="17">
+        <f t="shared" si="8"/>
+        <v>43576</v>
+      </c>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B25" s="17">
+        <f t="shared" si="7"/>
+        <v>43577</v>
+      </c>
+      <c r="C25" s="17">
+        <f t="shared" si="8"/>
+        <v>43578</v>
+      </c>
+      <c r="D25" s="17">
+        <f t="shared" si="8"/>
+        <v>43579</v>
+      </c>
+      <c r="E25" s="17">
+        <f t="shared" si="8"/>
+        <v>43580</v>
+      </c>
+      <c r="F25" s="17">
+        <f t="shared" si="8"/>
+        <v>43581</v>
+      </c>
+      <c r="G25" s="17">
+        <f t="shared" si="8"/>
+        <v>43582</v>
+      </c>
+      <c r="H25" s="17">
+        <f t="shared" si="8"/>
+        <v>43583</v>
+      </c>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <f t="shared" si="3"/>
+        <v>43590</v>
+      </c>
+      <c r="B26" s="17">
+        <f t="shared" si="7"/>
+        <v>43584</v>
+      </c>
+      <c r="C26" s="17">
+        <f t="shared" si="8"/>
+        <v>43585</v>
+      </c>
+      <c r="D26" s="17">
+        <f t="shared" si="8"/>
+        <v>43586</v>
+      </c>
+      <c r="E26" s="17">
+        <f t="shared" si="8"/>
+        <v>43587</v>
+      </c>
+      <c r="F26" s="17">
+        <f t="shared" si="8"/>
+        <v>43588</v>
+      </c>
+      <c r="G26" s="17">
+        <f t="shared" si="8"/>
+        <v>43589</v>
+      </c>
+      <c r="H26" s="17">
+        <f t="shared" si="8"/>
+        <v>43590</v>
+      </c>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24">
+        <f>SUM(J22:J26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B27" s="17">
+        <f t="shared" si="7"/>
+        <v>43591</v>
+      </c>
+      <c r="C27" s="17">
+        <f t="shared" si="8"/>
+        <v>43592</v>
+      </c>
+      <c r="D27" s="17">
+        <f t="shared" si="8"/>
+        <v>43593</v>
+      </c>
+      <c r="E27" s="17">
+        <f t="shared" si="8"/>
+        <v>43594</v>
+      </c>
+      <c r="F27" s="17">
+        <f t="shared" si="8"/>
+        <v>43595</v>
+      </c>
+      <c r="G27" s="17">
+        <f t="shared" si="8"/>
+        <v>43596</v>
+      </c>
+      <c r="H27" s="17">
+        <f t="shared" si="8"/>
+        <v>43597</v>
+      </c>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B28" s="17">
+        <f xml:space="preserve"> 1 + $H27</f>
+        <v>43598</v>
+      </c>
+      <c r="C28" s="17">
+        <f xml:space="preserve"> 1 + B28</f>
+        <v>43599</v>
+      </c>
+      <c r="D28" s="17">
+        <f t="shared" si="8"/>
+        <v>43600</v>
+      </c>
+      <c r="E28" s="17">
+        <f t="shared" si="8"/>
+        <v>43601</v>
+      </c>
+      <c r="F28" s="17">
+        <f t="shared" si="8"/>
+        <v>43602</v>
+      </c>
+      <c r="G28" s="17">
+        <f t="shared" si="8"/>
+        <v>43603</v>
+      </c>
+      <c r="H28" s="17">
+        <f t="shared" si="8"/>
+        <v>43604</v>
+      </c>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B29" s="17">
+        <f t="shared" ref="B29:B36" si="9" xml:space="preserve"> 1 + $H28</f>
+        <v>43605</v>
+      </c>
+      <c r="C29" s="17">
+        <f t="shared" ref="C29:H37" si="10" xml:space="preserve"> 1 + B29</f>
+        <v>43606</v>
+      </c>
+      <c r="D29" s="17">
+        <f t="shared" si="10"/>
+        <v>43607</v>
+      </c>
+      <c r="E29" s="17">
+        <f t="shared" si="10"/>
+        <v>43608</v>
+      </c>
+      <c r="F29" s="17">
+        <f t="shared" si="10"/>
+        <v>43609</v>
+      </c>
+      <c r="G29" s="17">
+        <f t="shared" si="10"/>
+        <v>43610</v>
+      </c>
+      <c r="H29" s="17">
+        <f t="shared" si="10"/>
+        <v>43611</v>
+      </c>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
+        <f xml:space="preserve"> IF(OR( 1 = DAY($B30), 1 = DAY($C30), 1 = DAY($D30), 1 = DAY($E30), 1 = DAY($F30),  1 = DAY($G30),  1 = DAY($H30),   ), $H30, "")</f>
+        <v>43618</v>
+      </c>
+      <c r="B30" s="17">
+        <f t="shared" si="9"/>
+        <v>43612</v>
+      </c>
+      <c r="C30" s="17">
+        <f t="shared" si="10"/>
+        <v>43613</v>
+      </c>
+      <c r="D30" s="17">
+        <f t="shared" si="10"/>
+        <v>43614</v>
+      </c>
+      <c r="E30" s="17">
+        <f t="shared" si="10"/>
+        <v>43615</v>
+      </c>
+      <c r="F30" s="17">
+        <f t="shared" si="10"/>
+        <v>43616</v>
+      </c>
+      <c r="G30" s="17">
+        <f t="shared" si="10"/>
+        <v>43617</v>
+      </c>
+      <c r="H30" s="17">
+        <f t="shared" si="10"/>
+        <v>43618</v>
+      </c>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24">
+        <f>SUM(J27:J30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B31" s="17">
+        <f t="shared" si="9"/>
+        <v>43619</v>
+      </c>
+      <c r="C31" s="17">
+        <f t="shared" si="10"/>
+        <v>43620</v>
+      </c>
+      <c r="D31" s="17">
+        <f t="shared" si="10"/>
+        <v>43621</v>
+      </c>
+      <c r="E31" s="17">
+        <f t="shared" si="10"/>
+        <v>43622</v>
+      </c>
+      <c r="F31" s="17">
+        <f t="shared" si="10"/>
+        <v>43623</v>
+      </c>
+      <c r="G31" s="17">
+        <f t="shared" si="10"/>
+        <v>43624</v>
+      </c>
+      <c r="H31" s="17">
+        <f t="shared" si="10"/>
+        <v>43625</v>
+      </c>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B32" s="17">
+        <f t="shared" si="9"/>
+        <v>43626</v>
+      </c>
+      <c r="C32" s="17">
+        <f t="shared" si="10"/>
+        <v>43627</v>
+      </c>
+      <c r="D32" s="17">
+        <f t="shared" si="10"/>
+        <v>43628</v>
+      </c>
+      <c r="E32" s="17">
+        <f t="shared" si="10"/>
+        <v>43629</v>
+      </c>
+      <c r="F32" s="17">
+        <f t="shared" si="10"/>
+        <v>43630</v>
+      </c>
+      <c r="G32" s="17">
+        <f t="shared" si="10"/>
+        <v>43631</v>
+      </c>
+      <c r="H32" s="17">
+        <f t="shared" si="10"/>
+        <v>43632</v>
+      </c>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B33" s="17">
+        <f t="shared" si="9"/>
+        <v>43633</v>
+      </c>
+      <c r="C33" s="17">
+        <f t="shared" si="10"/>
+        <v>43634</v>
+      </c>
+      <c r="D33" s="17">
+        <f t="shared" si="10"/>
+        <v>43635</v>
+      </c>
+      <c r="E33" s="17">
+        <f t="shared" si="10"/>
+        <v>43636</v>
+      </c>
+      <c r="F33" s="17">
+        <f t="shared" si="10"/>
+        <v>43637</v>
+      </c>
+      <c r="G33" s="17">
+        <f t="shared" si="10"/>
+        <v>43638</v>
+      </c>
+      <c r="H33" s="17">
+        <f t="shared" si="10"/>
+        <v>43639</v>
+      </c>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B34" s="17">
+        <f t="shared" si="9"/>
+        <v>43640</v>
+      </c>
+      <c r="C34" s="17">
+        <f t="shared" si="10"/>
+        <v>43641</v>
+      </c>
+      <c r="D34" s="17">
+        <f t="shared" si="10"/>
+        <v>43642</v>
+      </c>
+      <c r="E34" s="17">
+        <f t="shared" si="10"/>
+        <v>43643</v>
+      </c>
+      <c r="F34" s="17">
+        <f t="shared" si="10"/>
+        <v>43644</v>
+      </c>
+      <c r="G34" s="17">
+        <f t="shared" si="10"/>
+        <v>43645</v>
+      </c>
+      <c r="H34" s="17">
+        <f t="shared" si="10"/>
+        <v>43646</v>
+      </c>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24">
+        <f>SUM(J31:J34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
+        <f t="shared" si="3"/>
+        <v>43653</v>
+      </c>
+      <c r="B35" s="17">
+        <f t="shared" si="9"/>
+        <v>43647</v>
+      </c>
+      <c r="C35" s="17">
+        <f t="shared" si="10"/>
+        <v>43648</v>
+      </c>
+      <c r="D35" s="17">
+        <f t="shared" si="10"/>
+        <v>43649</v>
+      </c>
+      <c r="E35" s="17">
+        <f t="shared" si="10"/>
+        <v>43650</v>
+      </c>
+      <c r="F35" s="17">
+        <f t="shared" si="10"/>
+        <v>43651</v>
+      </c>
+      <c r="G35" s="17">
+        <f t="shared" si="10"/>
+        <v>43652</v>
+      </c>
+      <c r="H35" s="17">
+        <f t="shared" si="10"/>
+        <v>43653</v>
+      </c>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B36" s="17">
+        <f t="shared" si="9"/>
+        <v>43654</v>
+      </c>
+      <c r="C36" s="17">
+        <f t="shared" si="10"/>
+        <v>43655</v>
+      </c>
+      <c r="D36" s="17">
+        <f t="shared" si="10"/>
+        <v>43656</v>
+      </c>
+      <c r="E36" s="17">
+        <f t="shared" si="10"/>
+        <v>43657</v>
+      </c>
+      <c r="F36" s="17">
+        <f t="shared" si="10"/>
+        <v>43658</v>
+      </c>
+      <c r="G36" s="17">
+        <f t="shared" si="10"/>
+        <v>43659</v>
+      </c>
+      <c r="H36" s="17">
+        <f t="shared" si="10"/>
+        <v>43660</v>
+      </c>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B37" s="17">
+        <f xml:space="preserve"> 1 + $H36</f>
+        <v>43661</v>
+      </c>
+      <c r="C37" s="17">
+        <f xml:space="preserve"> 1 + B37</f>
+        <v>43662</v>
+      </c>
+      <c r="D37" s="17">
+        <f t="shared" si="10"/>
+        <v>43663</v>
+      </c>
+      <c r="E37" s="17">
+        <f t="shared" si="10"/>
+        <v>43664</v>
+      </c>
+      <c r="F37" s="17">
+        <f t="shared" si="10"/>
+        <v>43665</v>
+      </c>
+      <c r="G37" s="17">
+        <f t="shared" si="10"/>
+        <v>43666</v>
+      </c>
+      <c r="H37" s="17">
+        <f t="shared" si="10"/>
+        <v>43667</v>
+      </c>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B38" s="17">
+        <f t="shared" ref="B38:B39" si="11" xml:space="preserve"> 1 + $H37</f>
+        <v>43668</v>
+      </c>
+      <c r="C38" s="17">
+        <f t="shared" ref="C38:H40" si="12" xml:space="preserve"> 1 + B38</f>
+        <v>43669</v>
+      </c>
+      <c r="D38" s="17">
+        <f t="shared" si="12"/>
+        <v>43670</v>
+      </c>
+      <c r="E38" s="17">
+        <f t="shared" si="12"/>
+        <v>43671</v>
+      </c>
+      <c r="F38" s="17">
+        <f t="shared" si="12"/>
+        <v>43672</v>
+      </c>
+      <c r="G38" s="17">
+        <f t="shared" si="12"/>
+        <v>43673</v>
+      </c>
+      <c r="H38" s="17">
+        <f t="shared" si="12"/>
+        <v>43674</v>
+      </c>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
+        <f t="shared" si="3"/>
+        <v>43681</v>
+      </c>
+      <c r="B39" s="17">
+        <f t="shared" si="11"/>
+        <v>43675</v>
+      </c>
+      <c r="C39" s="17">
+        <f t="shared" si="12"/>
+        <v>43676</v>
+      </c>
+      <c r="D39" s="17">
+        <f t="shared" si="12"/>
+        <v>43677</v>
+      </c>
+      <c r="E39" s="17">
+        <f t="shared" si="12"/>
+        <v>43678</v>
+      </c>
+      <c r="F39" s="17">
+        <f t="shared" si="12"/>
+        <v>43679</v>
+      </c>
+      <c r="G39" s="17">
+        <f t="shared" si="12"/>
+        <v>43680</v>
+      </c>
+      <c r="H39" s="17">
+        <f t="shared" si="12"/>
+        <v>43681</v>
+      </c>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24">
+        <f>SUM(J35:J39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B40" s="17">
+        <f xml:space="preserve"> 1 + $H39</f>
+        <v>43682</v>
+      </c>
+      <c r="C40" s="17">
+        <f xml:space="preserve"> 1 + B40</f>
+        <v>43683</v>
+      </c>
+      <c r="D40" s="17">
+        <f t="shared" si="12"/>
+        <v>43684</v>
+      </c>
+      <c r="E40" s="17">
+        <f t="shared" si="12"/>
+        <v>43685</v>
+      </c>
+      <c r="F40" s="17">
+        <f t="shared" si="12"/>
+        <v>43686</v>
+      </c>
+      <c r="G40" s="17">
+        <f t="shared" si="12"/>
+        <v>43687</v>
+      </c>
+      <c r="H40" s="17">
+        <f t="shared" si="12"/>
+        <v>43688</v>
+      </c>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B41" s="17">
+        <f t="shared" ref="B41:B48" si="13" xml:space="preserve"> 1 + $H40</f>
+        <v>43689</v>
+      </c>
+      <c r="C41" s="17">
+        <f t="shared" ref="C41:H49" si="14" xml:space="preserve"> 1 + B41</f>
+        <v>43690</v>
+      </c>
+      <c r="D41" s="17">
+        <f t="shared" si="14"/>
+        <v>43691</v>
+      </c>
+      <c r="E41" s="17">
+        <f t="shared" si="14"/>
+        <v>43692</v>
+      </c>
+      <c r="F41" s="17">
+        <f t="shared" si="14"/>
+        <v>43693</v>
+      </c>
+      <c r="G41" s="17">
+        <f t="shared" si="14"/>
+        <v>43694</v>
+      </c>
+      <c r="H41" s="17">
+        <f t="shared" si="14"/>
+        <v>43695</v>
+      </c>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B42" s="17">
+        <f t="shared" si="13"/>
+        <v>43696</v>
+      </c>
+      <c r="C42" s="17">
+        <f t="shared" si="14"/>
+        <v>43697</v>
+      </c>
+      <c r="D42" s="17">
+        <f t="shared" si="14"/>
+        <v>43698</v>
+      </c>
+      <c r="E42" s="17">
+        <f t="shared" si="14"/>
+        <v>43699</v>
+      </c>
+      <c r="F42" s="17">
+        <f t="shared" si="14"/>
+        <v>43700</v>
+      </c>
+      <c r="G42" s="17">
+        <f t="shared" si="14"/>
+        <v>43701</v>
+      </c>
+      <c r="H42" s="17">
+        <f t="shared" si="14"/>
+        <v>43702</v>
+      </c>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="15">
+        <f t="shared" si="3"/>
+        <v>43709</v>
+      </c>
+      <c r="B43" s="17">
+        <f t="shared" si="13"/>
+        <v>43703</v>
+      </c>
+      <c r="C43" s="17">
+        <f t="shared" si="14"/>
+        <v>43704</v>
+      </c>
+      <c r="D43" s="17">
+        <f t="shared" si="14"/>
+        <v>43705</v>
+      </c>
+      <c r="E43" s="17">
+        <f t="shared" si="14"/>
+        <v>43706</v>
+      </c>
+      <c r="F43" s="17">
+        <f t="shared" si="14"/>
+        <v>43707</v>
+      </c>
+      <c r="G43" s="17">
+        <f t="shared" si="14"/>
+        <v>43708</v>
+      </c>
+      <c r="H43" s="17">
+        <f t="shared" si="14"/>
+        <v>43709</v>
+      </c>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24">
+        <f>SUM(J40:J43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B44" s="17">
+        <f t="shared" si="13"/>
+        <v>43710</v>
+      </c>
+      <c r="C44" s="17">
+        <f t="shared" si="14"/>
+        <v>43711</v>
+      </c>
+      <c r="D44" s="17">
+        <f t="shared" si="14"/>
+        <v>43712</v>
+      </c>
+      <c r="E44" s="17">
+        <f t="shared" si="14"/>
+        <v>43713</v>
+      </c>
+      <c r="F44" s="17">
+        <f t="shared" si="14"/>
+        <v>43714</v>
+      </c>
+      <c r="G44" s="17">
+        <f t="shared" si="14"/>
+        <v>43715</v>
+      </c>
+      <c r="H44" s="17">
+        <f t="shared" si="14"/>
+        <v>43716</v>
+      </c>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="str">
+        <f xml:space="preserve"> IF(OR( 1 = DAY($B45), 1 = DAY($C45), 1 = DAY($D45), 1 = DAY($E45), 1 = DAY($F45),  1 = DAY($G45),  1 = DAY($H45),   ), $H45, "")</f>
+        <v/>
+      </c>
+      <c r="B45" s="17">
+        <f t="shared" si="13"/>
+        <v>43717</v>
+      </c>
+      <c r="C45" s="17">
+        <f t="shared" si="14"/>
+        <v>43718</v>
+      </c>
+      <c r="D45" s="17">
+        <f t="shared" si="14"/>
+        <v>43719</v>
+      </c>
+      <c r="E45" s="17">
+        <f t="shared" si="14"/>
+        <v>43720</v>
+      </c>
+      <c r="F45" s="17">
+        <f t="shared" si="14"/>
+        <v>43721</v>
+      </c>
+      <c r="G45" s="17">
+        <f t="shared" si="14"/>
+        <v>43722</v>
+      </c>
+      <c r="H45" s="17">
+        <f t="shared" si="14"/>
+        <v>43723</v>
+      </c>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B46" s="17">
+        <f t="shared" si="13"/>
+        <v>43724</v>
+      </c>
+      <c r="C46" s="17">
+        <f t="shared" si="14"/>
+        <v>43725</v>
+      </c>
+      <c r="D46" s="17">
+        <f t="shared" si="14"/>
+        <v>43726</v>
+      </c>
+      <c r="E46" s="17">
+        <f t="shared" si="14"/>
+        <v>43727</v>
+      </c>
+      <c r="F46" s="17">
+        <f t="shared" si="14"/>
+        <v>43728</v>
+      </c>
+      <c r="G46" s="17">
+        <f t="shared" si="14"/>
+        <v>43729</v>
+      </c>
+      <c r="H46" s="17">
+        <f t="shared" si="14"/>
+        <v>43730</v>
+      </c>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B47" s="17">
+        <f t="shared" si="13"/>
+        <v>43731</v>
+      </c>
+      <c r="C47" s="17">
+        <f t="shared" si="14"/>
+        <v>43732</v>
+      </c>
+      <c r="D47" s="17">
+        <f t="shared" si="14"/>
+        <v>43733</v>
+      </c>
+      <c r="E47" s="17">
+        <f t="shared" si="14"/>
+        <v>43734</v>
+      </c>
+      <c r="F47" s="17">
+        <f t="shared" si="14"/>
+        <v>43735</v>
+      </c>
+      <c r="G47" s="17">
+        <f t="shared" si="14"/>
+        <v>43736</v>
+      </c>
+      <c r="H47" s="17">
+        <f t="shared" si="14"/>
+        <v>43737</v>
+      </c>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24">
+        <f>SUM(J44:J47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="15">
+        <f t="shared" si="3"/>
+        <v>43744</v>
+      </c>
+      <c r="B48" s="17">
+        <f t="shared" si="13"/>
+        <v>43738</v>
+      </c>
+      <c r="C48" s="17">
+        <f t="shared" si="14"/>
+        <v>43739</v>
+      </c>
+      <c r="D48" s="17">
+        <f t="shared" si="14"/>
+        <v>43740</v>
+      </c>
+      <c r="E48" s="17">
+        <f t="shared" si="14"/>
+        <v>43741</v>
+      </c>
+      <c r="F48" s="17">
+        <f t="shared" si="14"/>
+        <v>43742</v>
+      </c>
+      <c r="G48" s="17">
+        <f t="shared" si="14"/>
+        <v>43743</v>
+      </c>
+      <c r="H48" s="17">
+        <f t="shared" si="14"/>
+        <v>43744</v>
+      </c>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B49" s="17">
+        <f xml:space="preserve"> 1 + $H48</f>
+        <v>43745</v>
+      </c>
+      <c r="C49" s="17">
+        <f xml:space="preserve"> 1 + B49</f>
+        <v>43746</v>
+      </c>
+      <c r="D49" s="17">
+        <f t="shared" si="14"/>
+        <v>43747</v>
+      </c>
+      <c r="E49" s="17">
+        <f t="shared" si="14"/>
+        <v>43748</v>
+      </c>
+      <c r="F49" s="17">
+        <f t="shared" si="14"/>
+        <v>43749</v>
+      </c>
+      <c r="G49" s="17">
+        <f t="shared" si="14"/>
+        <v>43750</v>
+      </c>
+      <c r="H49" s="17">
+        <f t="shared" si="14"/>
+        <v>43751</v>
+      </c>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B50" s="17">
+        <f t="shared" ref="B50:B53" si="15" xml:space="preserve"> 1 + $H49</f>
+        <v>43752</v>
+      </c>
+      <c r="C50" s="17">
+        <f t="shared" ref="C50:H54" si="16" xml:space="preserve"> 1 + B50</f>
+        <v>43753</v>
+      </c>
+      <c r="D50" s="17">
+        <f t="shared" si="16"/>
+        <v>43754</v>
+      </c>
+      <c r="E50" s="17">
+        <f t="shared" si="16"/>
+        <v>43755</v>
+      </c>
+      <c r="F50" s="17">
+        <f t="shared" si="16"/>
+        <v>43756</v>
+      </c>
+      <c r="G50" s="17">
+        <f t="shared" si="16"/>
+        <v>43757</v>
+      </c>
+      <c r="H50" s="17">
+        <f t="shared" si="16"/>
+        <v>43758</v>
+      </c>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B51" s="17">
+        <f t="shared" si="15"/>
+        <v>43759</v>
+      </c>
+      <c r="C51" s="17">
+        <f t="shared" si="16"/>
+        <v>43760</v>
+      </c>
+      <c r="D51" s="17">
+        <f t="shared" si="16"/>
+        <v>43761</v>
+      </c>
+      <c r="E51" s="17">
+        <f t="shared" si="16"/>
+        <v>43762</v>
+      </c>
+      <c r="F51" s="17">
+        <f t="shared" si="16"/>
+        <v>43763</v>
+      </c>
+      <c r="G51" s="17">
+        <f t="shared" si="16"/>
+        <v>43764</v>
+      </c>
+      <c r="H51" s="17">
+        <f t="shared" si="16"/>
+        <v>43765</v>
+      </c>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="15">
+        <f t="shared" si="3"/>
+        <v>43772</v>
+      </c>
+      <c r="B52" s="17">
+        <f t="shared" si="15"/>
+        <v>43766</v>
+      </c>
+      <c r="C52" s="17">
+        <f t="shared" si="16"/>
+        <v>43767</v>
+      </c>
+      <c r="D52" s="17">
+        <f t="shared" si="16"/>
+        <v>43768</v>
+      </c>
+      <c r="E52" s="17">
+        <f t="shared" si="16"/>
+        <v>43769</v>
+      </c>
+      <c r="F52" s="17">
+        <f t="shared" si="16"/>
+        <v>43770</v>
+      </c>
+      <c r="G52" s="17">
+        <f t="shared" si="16"/>
+        <v>43771</v>
+      </c>
+      <c r="H52" s="17">
+        <f t="shared" si="16"/>
+        <v>43772</v>
+      </c>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24">
+        <f>SUM(J48:J52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B53" s="17">
+        <f t="shared" si="15"/>
+        <v>43773</v>
+      </c>
+      <c r="C53" s="17">
+        <f t="shared" si="16"/>
+        <v>43774</v>
+      </c>
+      <c r="D53" s="17">
+        <f t="shared" si="16"/>
+        <v>43775</v>
+      </c>
+      <c r="E53" s="17">
+        <f t="shared" si="16"/>
+        <v>43776</v>
+      </c>
+      <c r="F53" s="17">
+        <f t="shared" si="16"/>
+        <v>43777</v>
+      </c>
+      <c r="G53" s="17">
+        <f t="shared" si="16"/>
+        <v>43778</v>
+      </c>
+      <c r="H53" s="17">
+        <f t="shared" si="16"/>
+        <v>43779</v>
+      </c>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B54" s="17">
+        <f xml:space="preserve"> 1 + $H53</f>
+        <v>43780</v>
+      </c>
+      <c r="C54" s="17">
+        <f xml:space="preserve"> 1 + B54</f>
+        <v>43781</v>
+      </c>
+      <c r="D54" s="17">
+        <f t="shared" si="16"/>
+        <v>43782</v>
+      </c>
+      <c r="E54" s="17">
+        <f t="shared" si="16"/>
+        <v>43783</v>
+      </c>
+      <c r="F54" s="17">
+        <f t="shared" si="16"/>
+        <v>43784</v>
+      </c>
+      <c r="G54" s="17">
+        <f t="shared" si="16"/>
+        <v>43785</v>
+      </c>
+      <c r="H54" s="17">
+        <f t="shared" si="16"/>
+        <v>43786</v>
+      </c>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B55" s="17">
+        <f t="shared" ref="B55:B57" si="17" xml:space="preserve"> 1 + $H54</f>
+        <v>43787</v>
+      </c>
+      <c r="C55" s="17">
+        <f t="shared" ref="C55:H58" si="18" xml:space="preserve"> 1 + B55</f>
+        <v>43788</v>
+      </c>
+      <c r="D55" s="17">
+        <f t="shared" si="18"/>
+        <v>43789</v>
+      </c>
+      <c r="E55" s="17">
+        <f t="shared" si="18"/>
+        <v>43790</v>
+      </c>
+      <c r="F55" s="17">
+        <f t="shared" si="18"/>
+        <v>43791</v>
+      </c>
+      <c r="G55" s="17">
+        <f t="shared" si="18"/>
+        <v>43792</v>
+      </c>
+      <c r="H55" s="17">
+        <f t="shared" si="18"/>
+        <v>43793</v>
+      </c>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="15">
+        <f t="shared" si="3"/>
+        <v>43800</v>
+      </c>
+      <c r="B56" s="17">
+        <f t="shared" si="17"/>
+        <v>43794</v>
+      </c>
+      <c r="C56" s="17">
+        <f t="shared" si="18"/>
+        <v>43795</v>
+      </c>
+      <c r="D56" s="17">
+        <f t="shared" si="18"/>
+        <v>43796</v>
+      </c>
+      <c r="E56" s="17">
+        <f t="shared" si="18"/>
+        <v>43797</v>
+      </c>
+      <c r="F56" s="17">
+        <f t="shared" si="18"/>
+        <v>43798</v>
+      </c>
+      <c r="G56" s="17">
+        <f t="shared" si="18"/>
+        <v>43799</v>
+      </c>
+      <c r="H56" s="17">
+        <f t="shared" si="18"/>
+        <v>43800</v>
+      </c>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24">
+        <f>SUM(J53:J56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B57" s="17">
+        <f t="shared" si="17"/>
+        <v>43801</v>
+      </c>
+      <c r="C57" s="17">
+        <f t="shared" si="18"/>
+        <v>43802</v>
+      </c>
+      <c r="D57" s="17">
+        <f t="shared" si="18"/>
+        <v>43803</v>
+      </c>
+      <c r="E57" s="17">
+        <f t="shared" si="18"/>
+        <v>43804</v>
+      </c>
+      <c r="F57" s="17">
+        <f t="shared" si="18"/>
+        <v>43805</v>
+      </c>
+      <c r="G57" s="17">
+        <f t="shared" si="18"/>
+        <v>43806</v>
+      </c>
+      <c r="H57" s="17">
+        <f t="shared" si="18"/>
+        <v>43807</v>
+      </c>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B58" s="17">
+        <f xml:space="preserve"> 1 + $H57</f>
+        <v>43808</v>
+      </c>
+      <c r="C58" s="17">
+        <f xml:space="preserve"> 1 + B58</f>
+        <v>43809</v>
+      </c>
+      <c r="D58" s="17">
+        <f t="shared" si="18"/>
+        <v>43810</v>
+      </c>
+      <c r="E58" s="17">
+        <f t="shared" si="18"/>
+        <v>43811</v>
+      </c>
+      <c r="F58" s="17">
+        <f t="shared" si="18"/>
+        <v>43812</v>
+      </c>
+      <c r="G58" s="17">
+        <f t="shared" si="18"/>
+        <v>43813</v>
+      </c>
+      <c r="H58" s="17">
+        <f t="shared" si="18"/>
+        <v>43814</v>
+      </c>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B59" s="17">
+        <f t="shared" ref="B59:B60" si="19" xml:space="preserve"> 1 + $H58</f>
+        <v>43815</v>
+      </c>
+      <c r="C59" s="17">
+        <f t="shared" ref="C59:H61" si="20" xml:space="preserve"> 1 + B59</f>
+        <v>43816</v>
+      </c>
+      <c r="D59" s="17">
+        <f t="shared" si="20"/>
+        <v>43817</v>
+      </c>
+      <c r="E59" s="17">
+        <f t="shared" si="20"/>
+        <v>43818</v>
+      </c>
+      <c r="F59" s="17">
+        <f t="shared" si="20"/>
+        <v>43819</v>
+      </c>
+      <c r="G59" s="17">
+        <f t="shared" si="20"/>
+        <v>43820</v>
+      </c>
+      <c r="H59" s="17">
+        <f t="shared" si="20"/>
+        <v>43821</v>
+      </c>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B60" s="17">
+        <f t="shared" si="19"/>
+        <v>43822</v>
+      </c>
+      <c r="C60" s="17">
+        <f t="shared" si="20"/>
+        <v>43823</v>
+      </c>
+      <c r="D60" s="17">
+        <f t="shared" si="20"/>
+        <v>43824</v>
+      </c>
+      <c r="E60" s="17">
+        <f t="shared" si="20"/>
+        <v>43825</v>
+      </c>
+      <c r="F60" s="17">
+        <f t="shared" si="20"/>
+        <v>43826</v>
+      </c>
+      <c r="G60" s="17">
+        <f t="shared" si="20"/>
+        <v>43827</v>
+      </c>
+      <c r="H60" s="17">
+        <f t="shared" si="20"/>
+        <v>43828</v>
+      </c>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="15">
+        <f t="shared" si="3"/>
+        <v>43835</v>
+      </c>
+      <c r="B61" s="19">
+        <f xml:space="preserve"> 1 + $H60</f>
+        <v>43829</v>
+      </c>
+      <c r="C61" s="19">
+        <f xml:space="preserve"> 1 + B61</f>
+        <v>43830</v>
+      </c>
+      <c r="D61" s="19">
+        <f t="shared" si="20"/>
+        <v>43831</v>
+      </c>
+      <c r="E61" s="19">
+        <f t="shared" si="20"/>
+        <v>43832</v>
+      </c>
+      <c r="F61" s="19">
+        <f t="shared" si="20"/>
+        <v>43833</v>
+      </c>
+      <c r="G61" s="19">
+        <f t="shared" si="20"/>
+        <v>43834</v>
+      </c>
+      <c r="H61" s="19">
+        <f t="shared" si="20"/>
+        <v>43835</v>
+      </c>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24">
+        <f>SUM(J57:J61)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B4:H61">
+    <cfRule type="timePeriod" dxfId="1" priority="16" timePeriod="today">
+      <formula>FLOOR(B4,1)=TODAY()</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="0" priority="17" timePeriod="thisMonth">
+      <formula>AND(MONTH(B4)=MONTH(TODAY()),YEAR(B4)=YEAR(TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:K61">
+    <cfRule type="cellIs" dxfId="27" priority="11" operator="greaterThan">
+      <formula>24.8800001</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="12" operator="between">
+      <formula>18.66000001</formula>
+      <formula>24.88</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="between">
+      <formula>12.4400001</formula>
+      <formula>18.66</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="14" operator="between">
+      <formula>6.220001</formula>
+      <formula>12.44</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="15" operator="between">
+      <formula>0</formula>
+      <formula>6.22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:K3">
+    <cfRule type="expression" dxfId="22" priority="1" stopIfTrue="1">
+      <formula>"$k$3 &gt;= 0,9"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="2" stopIfTrue="1">
+      <formula>"$k$3 &lt; 0,9"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="3" stopIfTrue="1">
+      <formula>"$k$3 &lt; 0,8"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="4" stopIfTrue="1">
+      <formula>"$k$3 &lt; 0,7"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="5" stopIfTrue="1">
+      <formula>"$k$3 &lt; 0,6"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="6" stopIfTrue="1">
+      <formula>"$k$3 &lt; 0,5"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="7" stopIfTrue="1">
+      <formula>"$k$3 &lt; 0,4"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="8" stopIfTrue="1">
+      <formula>"$k$3 &lt; 0,3"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="9" stopIfTrue="1">
+      <formula>"$k$3 &lt; 0,2"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="10" stopIfTrue="1">
+      <formula>$L$3 &lt; 0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B9" calculatedColumn="1"/>
+  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19440" windowHeight="8520" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19440" windowHeight="8520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2017 automn &amp; winter" sheetId="1" r:id="rId1"/>
@@ -256,6 +256,234 @@
   </cellStyles>
   <dxfs count="81">
     <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF1EB99"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i/>
@@ -312,234 +540,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF1EB99"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="6" tint="0.79998168889431442"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="6" tint="0.79998168889431442"/>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="d"/>
@@ -1070,28 +1070,28 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau14" displayName="Tableau14" ref="B3:H61" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau14" displayName="Tableau14" ref="B3:H61" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
   <autoFilter ref="B3:H61"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Lundi" dataDxfId="8">
+    <tableColumn id="1" name="Lundi" dataDxfId="6">
       <calculatedColumnFormula xml:space="preserve"> 1 + $H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Mardi" dataDxfId="7">
+    <tableColumn id="2" name="Mardi" dataDxfId="5">
       <calculatedColumnFormula xml:space="preserve"> 1 + B4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Mercredi" dataDxfId="6">
+    <tableColumn id="3" name="Mercredi" dataDxfId="4">
       <calculatedColumnFormula xml:space="preserve"> 1 + C4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Jeudi" dataDxfId="5">
+    <tableColumn id="4" name="Jeudi" dataDxfId="3">
       <calculatedColumnFormula xml:space="preserve"> 1 + D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Vendredi" dataDxfId="4">
+    <tableColumn id="5" name="Vendredi" dataDxfId="2">
       <calculatedColumnFormula xml:space="preserve"> 1 + E4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Samedi" dataDxfId="3">
+    <tableColumn id="6" name="Samedi" dataDxfId="1">
       <calculatedColumnFormula xml:space="preserve"> 1 + F4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Dimanche" dataDxfId="2">
+    <tableColumn id="7" name="Dimanche" dataDxfId="0">
       <calculatedColumnFormula xml:space="preserve"> 1 + G4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43436</v>
+        <v>43463</v>
       </c>
     </row>
   </sheetData>
@@ -2103,11 +2103,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="11" ySplit="3" topLeftCell="L46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2158,12 +2158,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>643.23</v>
+        <v>650.53</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>1.0341318327974276</v>
+        <v>1.0458681672025723</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -4372,7 +4372,10 @@
         <f t="shared" si="66"/>
         <v>43464</v>
       </c>
-      <c r="J60" s="24"/>
+      <c r="J60" s="24">
+        <f xml:space="preserve"> 7.3</f>
+        <v>7.3</v>
+      </c>
       <c r="K60" s="24"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4411,7 +4414,7 @@
       <c r="J61" s="24"/>
       <c r="K61" s="24">
         <f>SUM(J57:J61)</f>
-        <v>0</v>
+        <v>7.3</v>
       </c>
     </row>
   </sheetData>
@@ -4491,11 +4494,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="11" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6684,63 +6687,63 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:H61">
-    <cfRule type="timePeriod" dxfId="1" priority="16" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="27" priority="16" timePeriod="today">
       <formula>FLOOR(B4,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="0" priority="17" timePeriod="thisMonth">
+    <cfRule type="timePeriod" dxfId="26" priority="17" timePeriod="thisMonth">
       <formula>AND(MONTH(B4)=MONTH(TODAY()),YEAR(B4)=YEAR(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:K61">
-    <cfRule type="cellIs" dxfId="27" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="greaterThan">
       <formula>24.8800001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="between">
       <formula>18.66000001</formula>
       <formula>24.88</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="between">
       <formula>12.4400001</formula>
       <formula>18.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="between">
       <formula>6.220001</formula>
       <formula>12.44</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="between">
       <formula>0</formula>
       <formula>6.22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:K3">
-    <cfRule type="expression" dxfId="22" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
       <formula>"$k$3 &gt;= 0,9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="5" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="9" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
       <formula>$L$3 &lt; 0.1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43463</v>
+        <v>43465</v>
       </c>
     </row>
   </sheetData>
@@ -2158,12 +2158,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>650.53</v>
+        <v>658.36</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>1.0458681672025723</v>
+        <v>1.0584565916398714</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -4373,8 +4373,8 @@
         <v>43464</v>
       </c>
       <c r="J60" s="24">
-        <f xml:space="preserve"> 7.3</f>
-        <v>7.3</v>
+        <f xml:space="preserve"> 7.3 + 7.83</f>
+        <v>15.129999999999999</v>
       </c>
       <c r="K60" s="24"/>
     </row>
@@ -4414,7 +4414,7 @@
       <c r="J61" s="24"/>
       <c r="K61" s="24">
         <f>SUM(J57:J61)</f>
-        <v>7.3</v>
+        <v>15.129999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19440" windowHeight="8520" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19440" windowHeight="8520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2017 automn &amp; winter" sheetId="1" r:id="rId1"/>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43465</v>
+        <v>43466</v>
       </c>
     </row>
   </sheetData>
@@ -2103,7 +2103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="11" ySplit="3" topLeftCell="L46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -4494,11 +4494,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="11" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0</v>
+        <v>1.382636655948553E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -4771,7 +4771,10 @@
         <f xml:space="preserve"> Tableau14[[#This Row],[Samedi]] + 1</f>
         <v>43471</v>
       </c>
-      <c r="J9" s="24"/>
+      <c r="J9" s="24">
+        <f xml:space="preserve"> 8.6</f>
+        <v>8.6</v>
+      </c>
       <c r="K9" s="24"/>
       <c r="N9" s="20"/>
     </row>
@@ -4921,7 +4924,7 @@
       <c r="J13" s="24"/>
       <c r="K13" s="24">
         <f>SUM(J9:J13)</f>
-        <v>0</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43466</v>
+        <v>43469</v>
       </c>
     </row>
   </sheetData>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>8.6</v>
+        <v>15.85</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>1.382636655948553E-2</v>
+        <v>2.5482315112540191E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -4772,8 +4772,8 @@
         <v>43471</v>
       </c>
       <c r="J9" s="24">
-        <f xml:space="preserve"> 8.6</f>
-        <v>8.6</v>
+        <f xml:space="preserve"> 8.6 + 7.25</f>
+        <v>15.85</v>
       </c>
       <c r="K9" s="24"/>
       <c r="N9" s="20"/>
@@ -4924,7 +4924,7 @@
       <c r="J13" s="24"/>
       <c r="K13" s="24">
         <f>SUM(J9:J13)</f>
-        <v>8.6</v>
+        <v>15.85</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43469</v>
+        <v>43477</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4498,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>15.85</v>
+        <v>22.59</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>2.5482315112540191E-2</v>
+        <v>3.6318327974276525E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -4811,7 +4811,10 @@
         <f t="shared" si="4"/>
         <v>43478</v>
       </c>
-      <c r="J10" s="24"/>
+      <c r="J10" s="24">
+        <f xml:space="preserve"> 6.74</f>
+        <v>6.74</v>
+      </c>
       <c r="K10" s="24"/>
       <c r="L10" s="21"/>
       <c r="M10" s="22"/>
@@ -4924,7 +4927,7 @@
       <c r="J13" s="24"/>
       <c r="K13" s="24">
         <f>SUM(J9:J13)</f>
-        <v>15.85</v>
+        <v>22.59</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43477</v>
+        <v>43505</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4498,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>22.59</v>
+        <v>30.41</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>3.6318327974276525E-2</v>
+        <v>4.8890675241157554E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -4963,7 +4963,9 @@
         <f t="shared" si="6"/>
         <v>43506</v>
       </c>
-      <c r="J14" s="24"/>
+      <c r="J14" s="24">
+        <v>7.82</v>
+      </c>
       <c r="K14" s="24"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -5074,7 +5076,7 @@
       <c r="J17" s="24"/>
       <c r="K17" s="24">
         <f>SUM(J14:J17)</f>
-        <v>0</v>
+        <v>7.82</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43505</v>
+        <v>43519</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4498,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>30.41</v>
+        <v>44.94</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>4.8890675241157554E-2</v>
+        <v>7.2250803858520896E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5001,7 +5001,10 @@
         <f t="shared" si="6"/>
         <v>43513</v>
       </c>
-      <c r="J15" s="24"/>
+      <c r="J15" s="24">
+        <f xml:space="preserve"> 7.87</f>
+        <v>7.87</v>
+      </c>
       <c r="K15" s="24"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -5037,7 +5040,10 @@
         <f t="shared" si="6"/>
         <v>43520</v>
       </c>
-      <c r="J16" s="24"/>
+      <c r="J16" s="24">
+        <f xml:space="preserve"> 4.52 + 2.14</f>
+        <v>6.66</v>
+      </c>
       <c r="K16" s="24"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -5076,7 +5082,7 @@
       <c r="J17" s="24"/>
       <c r="K17" s="24">
         <f>SUM(J14:J17)</f>
-        <v>7.82</v>
+        <v>22.35</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43519</v>
+        <v>43520</v>
       </c>
     </row>
   </sheetData>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>44.94</v>
+        <v>50.18</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>7.2250803858520896E-2</v>
+        <v>8.0675241157556268E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5041,8 +5041,8 @@
         <v>43520</v>
       </c>
       <c r="J16" s="24">
-        <f xml:space="preserve"> 4.52 + 2.14</f>
-        <v>6.66</v>
+        <f xml:space="preserve"> 4.52 + 2.14 + 5.24</f>
+        <v>11.9</v>
       </c>
       <c r="K16" s="24"/>
     </row>
@@ -5082,7 +5082,7 @@
       <c r="J17" s="24"/>
       <c r="K17" s="24">
         <f>SUM(J14:J17)</f>
-        <v>22.35</v>
+        <v>27.590000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43520</v>
+        <v>43525</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4498,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>50.18</v>
+        <v>54.49</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>8.0675241157556268E-2</v>
+        <v>8.7604501607717045E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5079,10 +5079,13 @@
         <f t="shared" si="6"/>
         <v>43527</v>
       </c>
-      <c r="J17" s="24"/>
+      <c r="J17" s="24">
+        <f xml:space="preserve"> 4.31</f>
+        <v>4.3099999999999996</v>
+      </c>
       <c r="K17" s="24">
         <f>SUM(J14:J17)</f>
-        <v>27.590000000000003</v>
+        <v>31.900000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43525</v>
+        <v>43526</v>
       </c>
     </row>
   </sheetData>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>54.49</v>
+        <v>62.17</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>8.7604501607717045E-2</v>
+        <v>9.9951768488745985E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5080,12 +5080,12 @@
         <v>43527</v>
       </c>
       <c r="J17" s="24">
-        <f xml:space="preserve"> 4.31</f>
-        <v>4.3099999999999996</v>
+        <f xml:space="preserve"> 4.31 + 7.68</f>
+        <v>11.989999999999998</v>
       </c>
       <c r="K17" s="24">
         <f>SUM(J14:J17)</f>
-        <v>31.900000000000002</v>
+        <v>39.58</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43526</v>
+        <v>43541</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4498,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>62.17</v>
+        <v>78.819999999999993</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>9.9951768488745985E-2</v>
+        <v>0.12672025723472669</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5121,7 +5121,10 @@
         <f t="shared" si="6"/>
         <v>43534</v>
       </c>
-      <c r="J18" s="24"/>
+      <c r="J18" s="24">
+        <f xml:space="preserve"> 8.93</f>
+        <v>8.93</v>
+      </c>
       <c r="K18" s="24"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -5157,7 +5160,10 @@
         <f t="shared" si="6"/>
         <v>43541</v>
       </c>
-      <c r="J19" s="24"/>
+      <c r="J19" s="24">
+        <f xml:space="preserve"> 7.72</f>
+        <v>7.72</v>
+      </c>
       <c r="K19" s="24"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -5232,7 +5238,7 @@
       <c r="J21" s="24"/>
       <c r="K21" s="24">
         <f>SUM(J18:J21)</f>
-        <v>0</v>
+        <v>16.649999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43526</v>
+        <v>43532</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4498,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>62.17</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>9.9951768488745985E-2</v>
+        <v>0.11430868167202571</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5121,7 +5121,10 @@
         <f t="shared" si="6"/>
         <v>43534</v>
       </c>
-      <c r="J18" s="24"/>
+      <c r="J18" s="24">
+        <f xml:space="preserve"> 8.93</f>
+        <v>8.93</v>
+      </c>
       <c r="K18" s="24"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -5232,7 +5235,7 @@
       <c r="J21" s="24"/>
       <c r="K21" s="24">
         <f>SUM(J18:J21)</f>
-        <v>0</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43532</v>
+        <v>43545</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4498,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>71.099999999999994</v>
+        <v>82.949999999999989</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.11430868167202571</v>
+        <v>0.13336012861736332</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5160,7 +5160,10 @@
         <f t="shared" si="6"/>
         <v>43541</v>
       </c>
-      <c r="J19" s="24"/>
+      <c r="J19" s="24">
+        <f xml:space="preserve"> 7.72</f>
+        <v>7.72</v>
+      </c>
       <c r="K19" s="24"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -5196,7 +5199,10 @@
         <f t="shared" si="8"/>
         <v>43548</v>
       </c>
-      <c r="J20" s="24"/>
+      <c r="J20" s="24">
+        <f xml:space="preserve"> 4.13</f>
+        <v>4.13</v>
+      </c>
       <c r="K20" s="24"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -5235,7 +5241,7 @@
       <c r="J21" s="24"/>
       <c r="K21" s="24">
         <f>SUM(J18:J21)</f>
-        <v>8.93</v>
+        <v>20.779999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43545</v>
+        <v>43547</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4498,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>82.949999999999989</v>
+        <v>89.169999999999987</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.13336012861736332</v>
+        <v>0.14336012861736333</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5200,8 +5200,8 @@
         <v>43548</v>
       </c>
       <c r="J20" s="24">
-        <f xml:space="preserve"> 4.13</f>
-        <v>4.13</v>
+        <f xml:space="preserve"> 4.13 + 6.22</f>
+        <v>10.35</v>
       </c>
       <c r="K20" s="24"/>
     </row>
@@ -5241,7 +5241,7 @@
       <c r="J21" s="24"/>
       <c r="K21" s="24">
         <f>SUM(J18:J21)</f>
-        <v>20.779999999999998</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>89.169999999999987</v>
+        <v>96.259999999999991</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.14336012861736333</v>
+        <v>0.15475884244372989</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5200,8 +5200,8 @@
         <v>43548</v>
       </c>
       <c r="J20" s="24">
-        <f xml:space="preserve"> 4.13 + 6.22</f>
-        <v>10.35</v>
+        <f xml:space="preserve"> 4.13 + 6.22 + 7.09</f>
+        <v>17.439999999999998</v>
       </c>
       <c r="K20" s="24"/>
     </row>
@@ -5241,7 +5241,7 @@
       <c r="J21" s="24"/>
       <c r="K21" s="24">
         <f>SUM(J18:J21)</f>
-        <v>27</v>
+        <v>34.089999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43547</v>
+        <v>43554</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4498,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>96.259999999999991</v>
+        <v>108.69999999999999</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.15475884244372989</v>
+        <v>0.17475884244372988</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5238,10 +5238,13 @@
         <f t="shared" si="8"/>
         <v>43555</v>
       </c>
-      <c r="J21" s="24"/>
+      <c r="J21" s="24">
+        <f xml:space="preserve"> 6.26 + 6.18</f>
+        <v>12.44</v>
+      </c>
       <c r="K21" s="24">
         <f>SUM(J18:J21)</f>
-        <v>34.089999999999996</v>
+        <v>46.529999999999994</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43554</v>
+        <v>43555</v>
       </c>
     </row>
   </sheetData>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>108.69999999999999</v>
+        <v>115.32999999999998</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.17475884244372988</v>
+        <v>0.18541800643086814</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5239,12 +5239,12 @@
         <v>43555</v>
       </c>
       <c r="J21" s="24">
-        <f xml:space="preserve"> 6.26 + 6.18</f>
-        <v>12.44</v>
+        <f xml:space="preserve"> 6.26 + 6.18 + 6.63</f>
+        <v>19.07</v>
       </c>
       <c r="K21" s="24">
         <f>SUM(J18:J21)</f>
-        <v>46.529999999999994</v>
+        <v>53.16</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43555</v>
+        <v>43560</v>
       </c>
     </row>
   </sheetData>
@@ -4495,10 +4495,10 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="3" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>115.32999999999998</v>
+        <v>121.56999999999998</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.18541800643086814</v>
+        <v>0.19545016077170416</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5280,7 +5280,10 @@
         <f t="shared" si="8"/>
         <v>43562</v>
       </c>
-      <c r="J22" s="24"/>
+      <c r="J22" s="24">
+        <f xml:space="preserve"> 6.24</f>
+        <v>6.24</v>
+      </c>
       <c r="K22" s="24"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -5427,7 +5430,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24">
         <f>SUM(J22:J26)</f>
-        <v>0</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43560</v>
+        <v>43562</v>
       </c>
     </row>
   </sheetData>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>121.56999999999998</v>
+        <v>126.59999999999998</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.19545016077170416</v>
+        <v>0.2035369774919614</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5281,8 +5281,8 @@
         <v>43562</v>
       </c>
       <c r="J22" s="24">
-        <f xml:space="preserve"> 6.24</f>
-        <v>6.24</v>
+        <f xml:space="preserve"> 6.24 + 5.03</f>
+        <v>11.27</v>
       </c>
       <c r="K22" s="24"/>
     </row>
@@ -5430,7 +5430,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24">
         <f>SUM(J22:J26)</f>
-        <v>6.24</v>
+        <v>11.27</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43562</v>
+        <v>43568</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4498,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>126.59999999999998</v>
+        <v>134.14999999999998</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.2035369774919614</v>
+        <v>0.21567524115755624</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5319,7 +5319,10 @@
         <f t="shared" si="8"/>
         <v>43569</v>
       </c>
-      <c r="J23" s="24"/>
+      <c r="J23" s="24">
+        <f xml:space="preserve"> 7.55</f>
+        <v>7.55</v>
+      </c>
       <c r="K23" s="24"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -5430,7 +5433,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24">
         <f>SUM(J22:J26)</f>
-        <v>11.27</v>
+        <v>18.82</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -4495,7 +4495,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11" ySplit="3" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="3" topLeftCell="L15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>134.14999999999998</v>
+        <v>142.29999999999998</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.21567524115755624</v>
+        <v>0.2287781350482315</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5320,8 +5320,8 @@
         <v>43569</v>
       </c>
       <c r="J23" s="24">
-        <f xml:space="preserve"> 7.55</f>
-        <v>7.55</v>
+        <f xml:space="preserve"> 7.55 + 8.15</f>
+        <v>15.7</v>
       </c>
       <c r="K23" s="24"/>
     </row>
@@ -5433,7 +5433,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24">
         <f>SUM(J22:J26)</f>
-        <v>18.82</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43568</v>
+        <v>43576</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4498,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomRight" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>142.29999999999998</v>
+        <v>156.33999999999997</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.2287781350482315</v>
+        <v>0.25135048231511248</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5320,8 +5320,8 @@
         <v>43569</v>
       </c>
       <c r="J23" s="24">
-        <f xml:space="preserve"> 7.55 + 8.15</f>
-        <v>15.7</v>
+        <f xml:space="preserve"> 7.55 + 8.18</f>
+        <v>15.73</v>
       </c>
       <c r="K23" s="24"/>
     </row>
@@ -5358,7 +5358,10 @@
         <f t="shared" si="8"/>
         <v>43576</v>
       </c>
-      <c r="J24" s="24"/>
+      <c r="J24" s="24">
+        <f xml:space="preserve"> 6.91 + 7.1</f>
+        <v>14.01</v>
+      </c>
       <c r="K24" s="24"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -5433,7 +5436,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24">
         <f>SUM(J22:J26)</f>
-        <v>26.97</v>
+        <v>41.01</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>156.33999999999997</v>
+        <v>160.1</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.25135048231511248</v>
+        <v>0.25739549839228293</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5359,8 +5359,8 @@
         <v>43576</v>
       </c>
       <c r="J24" s="24">
-        <f xml:space="preserve"> 6.91 + 7.1</f>
-        <v>14.01</v>
+        <f xml:space="preserve"> 6.91 + 7.1+ 3.76</f>
+        <v>17.77</v>
       </c>
       <c r="K24" s="24"/>
     </row>
@@ -5436,7 +5436,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24">
         <f>SUM(J22:J26)</f>
-        <v>41.01</v>
+        <v>44.769999999999996</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43576</v>
+        <v>43582</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4498,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J24" sqref="J24"/>
+      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>160.1</v>
+        <v>168.74</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.25739549839228293</v>
+        <v>0.27128617363344054</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5397,7 +5397,10 @@
         <f t="shared" si="8"/>
         <v>43583</v>
       </c>
-      <c r="J25" s="24"/>
+      <c r="J25" s="24">
+        <f xml:space="preserve"> 8.64</f>
+        <v>8.64</v>
+      </c>
       <c r="K25" s="24"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -5436,7 +5439,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24">
         <f>SUM(J22:J26)</f>
-        <v>44.769999999999996</v>
+        <v>53.41</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43582</v>
+        <v>43584</v>
       </c>
     </row>
   </sheetData>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>168.74</v>
+        <v>175.91</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.27128617363344054</v>
+        <v>0.2828135048231511</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5398,8 +5398,8 @@
         <v>43583</v>
       </c>
       <c r="J25" s="24">
-        <f xml:space="preserve"> 8.64</f>
-        <v>8.64</v>
+        <f xml:space="preserve"> 8.64 + 7.17</f>
+        <v>15.81</v>
       </c>
       <c r="K25" s="24"/>
     </row>
@@ -5439,7 +5439,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24">
         <f>SUM(J22:J26)</f>
-        <v>53.41</v>
+        <v>60.58</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43584</v>
+        <v>43589</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4498,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>175.91</v>
+        <v>190.49</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.2828135048231511</v>
+        <v>0.30625401929260454</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5436,10 +5436,13 @@
         <f t="shared" si="8"/>
         <v>43590</v>
       </c>
-      <c r="J26" s="24"/>
+      <c r="J26" s="24">
+        <f>+ 7.23 + 7.35</f>
+        <v>14.58</v>
+      </c>
       <c r="K26" s="24">
         <f>SUM(J22:J26)</f>
-        <v>60.58</v>
+        <v>75.16</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43589</v>
+        <v>43590</v>
       </c>
     </row>
   </sheetData>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>190.49</v>
+        <v>197.75</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.30625401929260454</v>
+        <v>0.31792604501607719</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5437,12 +5437,12 @@
         <v>43590</v>
       </c>
       <c r="J26" s="24">
-        <f>+ 7.23 + 7.35</f>
-        <v>14.58</v>
+        <f>+ 7.23 + 7.35 + 7.26</f>
+        <v>21.84</v>
       </c>
       <c r="K26" s="24">
         <f>SUM(J22:J26)</f>
-        <v>75.16</v>
+        <v>82.42</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43590</v>
+        <v>43593</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4498,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>197.75</v>
+        <v>205.07</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.31792604501607719</v>
+        <v>0.32969453376205787</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5478,7 +5478,10 @@
         <f t="shared" si="8"/>
         <v>43597</v>
       </c>
-      <c r="J27" s="24"/>
+      <c r="J27" s="24">
+        <f xml:space="preserve"> 7.32</f>
+        <v>7.32</v>
+      </c>
       <c r="K27" s="24"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -5589,7 +5592,7 @@
       <c r="J30" s="24"/>
       <c r="K30" s="24">
         <f>SUM(J27:J30)</f>
-        <v>0</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43593</v>
+        <v>43596</v>
       </c>
     </row>
   </sheetData>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>205.07</v>
+        <v>212.4</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.32969453376205787</v>
+        <v>0.34147909967845658</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5479,8 +5479,8 @@
         <v>43597</v>
       </c>
       <c r="J27" s="24">
-        <f xml:space="preserve"> 7.32</f>
-        <v>7.32</v>
+        <f xml:space="preserve"> 7.32 + 7.33</f>
+        <v>14.65</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -5592,7 +5592,7 @@
       <c r="J30" s="24"/>
       <c r="K30" s="24">
         <f>SUM(J27:J30)</f>
-        <v>7.32</v>
+        <v>14.65</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43596</v>
+        <v>43615</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4498,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>212.4</v>
+        <v>243.83</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.34147909967845658</v>
+        <v>0.39200964630225082</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5479,8 +5479,8 @@
         <v>43597</v>
       </c>
       <c r="J27" s="24">
-        <f xml:space="preserve"> 7.32 + 7.33</f>
-        <v>14.65</v>
+        <f xml:space="preserve"> 7.32 + 7.33 + 7.72</f>
+        <v>22.37</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -5517,7 +5517,10 @@
         <f t="shared" si="8"/>
         <v>43604</v>
       </c>
-      <c r="J28" s="24"/>
+      <c r="J28" s="24">
+        <f xml:space="preserve"> 7.81</f>
+        <v>7.81</v>
+      </c>
       <c r="K28" s="24"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -5553,7 +5556,10 @@
         <f t="shared" si="10"/>
         <v>43611</v>
       </c>
-      <c r="J29" s="24"/>
+      <c r="J29" s="24">
+        <f xml:space="preserve"> 8.19</f>
+        <v>8.19</v>
+      </c>
       <c r="K29" s="24"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -5589,10 +5595,13 @@
         <f t="shared" si="10"/>
         <v>43618</v>
       </c>
-      <c r="J30" s="24"/>
+      <c r="J30" s="24">
+        <f xml:space="preserve"> 7.71</f>
+        <v>7.71</v>
+      </c>
       <c r="K30" s="24">
         <f>SUM(J27:J30)</f>
-        <v>14.65</v>
+        <v>46.08</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43615</v>
+        <v>43618</v>
       </c>
     </row>
   </sheetData>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>243.83</v>
+        <v>252.21</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.39200964630225082</v>
+        <v>0.40548231511254018</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5596,12 +5596,12 @@
         <v>43618</v>
       </c>
       <c r="J30" s="24">
-        <f xml:space="preserve"> 7.71</f>
-        <v>7.71</v>
+        <f xml:space="preserve"> 7.71 + 8.38</f>
+        <v>16.09</v>
       </c>
       <c r="K30" s="24">
         <f>SUM(J27:J30)</f>
-        <v>46.08</v>
+        <v>54.459999999999994</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43618</v>
+        <v>43621</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4498,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
+      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>252.21</v>
+        <v>259.57</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.40548231511254018</v>
+        <v>0.41731511254019293</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5637,7 +5637,10 @@
         <f t="shared" si="10"/>
         <v>43625</v>
       </c>
-      <c r="J31" s="24"/>
+      <c r="J31" s="24">
+        <f xml:space="preserve"> 7.36</f>
+        <v>7.36</v>
+      </c>
       <c r="K31" s="24"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -5748,7 +5751,7 @@
       <c r="J34" s="24"/>
       <c r="K34" s="24">
         <f>SUM(J31:J34)</f>
-        <v>0</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43621</v>
+        <v>43624</v>
       </c>
     </row>
   </sheetData>
@@ -4495,7 +4495,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11" ySplit="3" topLeftCell="L15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="3" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>259.57</v>
+        <v>266.89</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.41731511254019293</v>
+        <v>0.42908360128617362</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5638,8 +5638,8 @@
         <v>43625</v>
       </c>
       <c r="J31" s="24">
-        <f xml:space="preserve"> 7.36</f>
-        <v>7.36</v>
+        <f xml:space="preserve"> 7.36 + 7.32</f>
+        <v>14.68</v>
       </c>
       <c r="K31" s="24"/>
     </row>
@@ -5751,7 +5751,7 @@
       <c r="J34" s="24"/>
       <c r="K34" s="24">
         <f>SUM(J31:J34)</f>
-        <v>7.36</v>
+        <v>14.68</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43624</v>
+        <v>43632</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4498,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
+      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>266.89</v>
+        <v>274.43</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.42908360128617362</v>
+        <v>0.4412057877813505</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5676,7 +5676,10 @@
         <f t="shared" si="10"/>
         <v>43632</v>
       </c>
-      <c r="J32" s="24"/>
+      <c r="J32" s="24">
+        <f xml:space="preserve"> 7.54</f>
+        <v>7.54</v>
+      </c>
       <c r="K32" s="24"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -5751,7 +5754,7 @@
       <c r="J34" s="24"/>
       <c r="K34" s="24">
         <f>SUM(J31:J34)</f>
-        <v>14.68</v>
+        <v>22.22</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43632</v>
+        <v>43639</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4498,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
+      <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>274.43</v>
+        <v>287.3</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.4412057877813505</v>
+        <v>0.46189710610932477</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5715,7 +5715,10 @@
         <f t="shared" si="10"/>
         <v>43639</v>
       </c>
-      <c r="J33" s="24"/>
+      <c r="J33" s="24">
+        <f xml:space="preserve"> 7.27 + 5.6</f>
+        <v>12.87</v>
+      </c>
       <c r="K33" s="24"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -5754,7 +5757,7 @@
       <c r="J34" s="24"/>
       <c r="K34" s="24">
         <f>SUM(J31:J34)</f>
-        <v>22.22</v>
+        <v>35.089999999999996</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43639</v>
+        <v>43646</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4498,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
+      <selection pane="bottomRight" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>287.3</v>
+        <v>295.35000000000002</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.46189710610932477</v>
+        <v>0.47483922829581998</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5754,10 +5754,13 @@
         <f t="shared" si="10"/>
         <v>43646</v>
       </c>
-      <c r="J34" s="24"/>
+      <c r="J34" s="24">
+        <f xml:space="preserve"> 8.05</f>
+        <v>8.0500000000000007</v>
+      </c>
       <c r="K34" s="24">
         <f>SUM(J31:J34)</f>
-        <v>35.089999999999996</v>
+        <v>43.14</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43646</v>
+        <v>43652</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4498,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J34" sqref="J34"/>
+      <selection pane="bottomRight" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>295.35000000000002</v>
+        <v>303.43</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.47483922829581998</v>
+        <v>0.48782958199356913</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5796,7 +5796,10 @@
         <f t="shared" si="10"/>
         <v>43653</v>
       </c>
-      <c r="J35" s="24"/>
+      <c r="J35" s="24">
+        <f xml:space="preserve"> 8.08</f>
+        <v>8.08</v>
+      </c>
       <c r="K35" s="24"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -5943,7 +5946,7 @@
       <c r="J39" s="24"/>
       <c r="K39" s="24">
         <f>SUM(J35:J39)</f>
-        <v>0</v>
+        <v>8.08</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43652</v>
+        <v>43659</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4498,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J35" sqref="J35"/>
+      <selection pane="bottomRight" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>303.43</v>
+        <v>311.20999999999998</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.48782958199356913</v>
+        <v>0.50033762057877806</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5835,7 +5835,10 @@
         <f t="shared" si="10"/>
         <v>43660</v>
       </c>
-      <c r="J36" s="24"/>
+      <c r="J36" s="24">
+        <f xml:space="preserve"> 4.56 + 3.22</f>
+        <v>7.7799999999999994</v>
+      </c>
       <c r="K36" s="24"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -5946,7 +5949,7 @@
       <c r="J39" s="24"/>
       <c r="K39" s="24">
         <f>SUM(J35:J39)</f>
-        <v>8.08</v>
+        <v>15.86</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43659</v>
+        <v>43660</v>
       </c>
     </row>
   </sheetData>
@@ -4495,7 +4495,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11" ySplit="3" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="3" topLeftCell="L19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="J36" sqref="J36"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>311.20999999999998</v>
+        <v>319.82</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.50033762057877806</v>
+        <v>0.51418006430868168</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5836,8 +5836,8 @@
         <v>43660</v>
       </c>
       <c r="J36" s="24">
-        <f xml:space="preserve"> 4.56 + 3.22</f>
-        <v>7.7799999999999994</v>
+        <f xml:space="preserve"> 4.56 + 3.22 + 8.61</f>
+        <v>16.39</v>
       </c>
       <c r="K36" s="24"/>
     </row>
@@ -5949,7 +5949,7 @@
       <c r="J39" s="24"/>
       <c r="K39" s="24">
         <f>SUM(J35:J39)</f>
-        <v>15.86</v>
+        <v>24.47</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43660</v>
+        <v>43661</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4498,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J36" sqref="J36"/>
+      <selection pane="bottomRight" activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>319.82</v>
+        <v>326.08</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.51418006430868168</v>
+        <v>0.52424437299035365</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5874,7 +5874,10 @@
         <f t="shared" si="10"/>
         <v>43667</v>
       </c>
-      <c r="J37" s="24"/>
+      <c r="J37" s="24">
+        <f xml:space="preserve"> 6.26</f>
+        <v>6.26</v>
+      </c>
       <c r="K37" s="24"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -5949,7 +5952,7 @@
       <c r="J39" s="24"/>
       <c r="K39" s="24">
         <f>SUM(J35:J39)</f>
-        <v>24.47</v>
+        <v>30.729999999999997</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43661</v>
+        <v>43662</v>
       </c>
     </row>
   </sheetData>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>326.08</v>
+        <v>332.55</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.52424437299035365</v>
+        <v>0.5346463022508039</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5875,8 +5875,8 @@
         <v>43667</v>
       </c>
       <c r="J37" s="24">
-        <f xml:space="preserve"> 6.26</f>
-        <v>6.26</v>
+        <f xml:space="preserve"> 6.26 + 6.47</f>
+        <v>12.73</v>
       </c>
       <c r="K37" s="24"/>
     </row>
@@ -5952,7 +5952,7 @@
       <c r="J39" s="24"/>
       <c r="K39" s="24">
         <f>SUM(J35:J39)</f>
-        <v>30.729999999999997</v>
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43662</v>
+        <v>43666</v>
       </c>
     </row>
   </sheetData>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>332.55</v>
+        <v>341.19</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.5346463022508039</v>
+        <v>0.5485369774919614</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5875,8 +5875,8 @@
         <v>43667</v>
       </c>
       <c r="J37" s="24">
-        <f xml:space="preserve"> 6.26 + 6.47</f>
-        <v>12.73</v>
+        <f xml:space="preserve"> 6.26 + 6.47 + 8.64</f>
+        <v>21.37</v>
       </c>
       <c r="K37" s="24"/>
     </row>
@@ -5952,7 +5952,7 @@
       <c r="J39" s="24"/>
       <c r="K39" s="24">
         <f>SUM(J35:J39)</f>
-        <v>37.200000000000003</v>
+        <v>45.84</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43666</v>
+        <v>43674</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4498,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J37" sqref="J37"/>
+      <selection pane="bottomRight" activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>341.19</v>
+        <v>372.05999999999995</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.5485369774919614</v>
+        <v>0.59816720257234723</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5875,8 +5875,8 @@
         <v>43667</v>
       </c>
       <c r="J37" s="24">
-        <f xml:space="preserve"> 6.26 + 6.47 + 8.64</f>
-        <v>21.37</v>
+        <f xml:space="preserve"> 6.26 + 6.47 + 8.64 + 7.78</f>
+        <v>29.150000000000002</v>
       </c>
       <c r="K37" s="24"/>
     </row>
@@ -5913,7 +5913,10 @@
         <f t="shared" si="12"/>
         <v>43674</v>
       </c>
-      <c r="J38" s="24"/>
+      <c r="J38" s="24">
+        <f xml:space="preserve"> 5.66 + 8.24 + 9.19</f>
+        <v>23.09</v>
+      </c>
       <c r="K38" s="24"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -5952,7 +5955,7 @@
       <c r="J39" s="24"/>
       <c r="K39" s="24">
         <f>SUM(J35:J39)</f>
-        <v>45.84</v>
+        <v>76.710000000000008</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43674</v>
+        <v>43681</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4498,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J38" sqref="J38"/>
+      <selection pane="bottomRight" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>372.05999999999995</v>
+        <v>379.38999999999993</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.59816720257234723</v>
+        <v>0.60995176848874588</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5952,10 +5952,13 @@
         <f t="shared" si="12"/>
         <v>43681</v>
       </c>
-      <c r="J39" s="24"/>
+      <c r="J39" s="24">
+        <f xml:space="preserve"> 7.33</f>
+        <v>7.33</v>
+      </c>
       <c r="K39" s="24">
         <f>SUM(J35:J39)</f>
-        <v>76.710000000000008</v>
+        <v>84.04</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43681</v>
+        <v>43685</v>
       </c>
     </row>
   </sheetData>
@@ -4495,10 +4495,10 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11" ySplit="3" topLeftCell="L19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="3" topLeftCell="L28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J39" sqref="J39"/>
+      <selection pane="bottomRight" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>379.38999999999993</v>
+        <v>393.89999999999992</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.60995176848874588</v>
+        <v>0.63327974276527321</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5994,7 +5994,10 @@
         <f t="shared" si="12"/>
         <v>43688</v>
       </c>
-      <c r="J40" s="24"/>
+      <c r="J40" s="24">
+        <f xml:space="preserve"> 7.26 + 7.25</f>
+        <v>14.51</v>
+      </c>
       <c r="K40" s="24"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -6105,7 +6108,7 @@
       <c r="J43" s="24"/>
       <c r="K43" s="24">
         <f>SUM(J40:J43)</f>
-        <v>0</v>
+        <v>14.51</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43685</v>
+        <v>43688</v>
       </c>
     </row>
   </sheetData>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>393.89999999999992</v>
+        <v>403.38999999999993</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.63327974276527321</v>
+        <v>0.64853697749196126</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5995,8 +5995,8 @@
         <v>43688</v>
       </c>
       <c r="J40" s="24">
-        <f xml:space="preserve"> 7.26 + 7.25</f>
-        <v>14.51</v>
+        <f xml:space="preserve"> 7.26 + 7.25 + 9.49</f>
+        <v>24</v>
       </c>
       <c r="K40" s="24"/>
     </row>
@@ -6108,7 +6108,7 @@
       <c r="J43" s="24"/>
       <c r="K43" s="24">
         <f>SUM(J40:J43)</f>
-        <v>14.51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43688</v>
+        <v>43692</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4498,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J40" sqref="J40"/>
+      <selection pane="bottomRight" activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>403.38999999999993</v>
+        <v>410.95999999999992</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.64853697749196126</v>
+        <v>0.66070739549839219</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -6033,7 +6033,10 @@
         <f t="shared" si="14"/>
         <v>43695</v>
       </c>
-      <c r="J41" s="24"/>
+      <c r="J41" s="24">
+        <f xml:space="preserve"> 7.57</f>
+        <v>7.57</v>
+      </c>
       <c r="K41" s="24"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -6108,7 +6111,7 @@
       <c r="J43" s="24"/>
       <c r="K43" s="24">
         <f>SUM(J40:J43)</f>
-        <v>24</v>
+        <v>31.57</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43692</v>
+        <v>43694</v>
       </c>
     </row>
   </sheetData>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>410.95999999999992</v>
+        <v>418.98999999999995</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.66070739549839219</v>
+        <v>0.67361736334405142</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -6034,8 +6034,8 @@
         <v>43695</v>
       </c>
       <c r="J41" s="24">
-        <f xml:space="preserve"> 7.57</f>
-        <v>7.57</v>
+        <f xml:space="preserve"> 7.57 + 8.03</f>
+        <v>15.6</v>
       </c>
       <c r="K41" s="24"/>
     </row>
@@ -6111,7 +6111,7 @@
       <c r="J43" s="24"/>
       <c r="K43" s="24">
         <f>SUM(J40:J43)</f>
-        <v>31.57</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43694</v>
+        <v>43697</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4498,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J41" sqref="J41"/>
+      <selection pane="bottomRight" activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>418.98999999999995</v>
+        <v>429.04999999999995</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.67361736334405142</v>
+        <v>0.68979099678456579</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -6034,8 +6034,8 @@
         <v>43695</v>
       </c>
       <c r="J41" s="24">
-        <f xml:space="preserve"> 7.57 + 8.03</f>
-        <v>15.6</v>
+        <f xml:space="preserve"> 7.57 + 8.03 + 10.06</f>
+        <v>25.66</v>
       </c>
       <c r="K41" s="24"/>
     </row>
@@ -6111,7 +6111,7 @@
       <c r="J43" s="24"/>
       <c r="K43" s="24">
         <f>SUM(J40:J43)</f>
-        <v>39.6</v>
+        <v>49.66</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43697</v>
+        <v>43701</v>
       </c>
     </row>
   </sheetData>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>429.04999999999995</v>
+        <v>439.24999999999994</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.68979099678456579</v>
+        <v>0.70618971061093239</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -6072,7 +6072,10 @@
         <f t="shared" si="14"/>
         <v>43702</v>
       </c>
-      <c r="J42" s="24"/>
+      <c r="J42" s="24">
+        <f xml:space="preserve"> 10.2</f>
+        <v>10.199999999999999</v>
+      </c>
       <c r="K42" s="24"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -6111,7 +6114,7 @@
       <c r="J43" s="24"/>
       <c r="K43" s="24">
         <f>SUM(J40:J43)</f>
-        <v>49.66</v>
+        <v>59.86</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43701</v>
+        <v>43702</v>
       </c>
     </row>
   </sheetData>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>439.24999999999994</v>
+        <v>447.55999999999995</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.70618971061093239</v>
+        <v>0.71954983922829574</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -6073,8 +6073,8 @@
         <v>43702</v>
       </c>
       <c r="J42" s="24">
-        <f xml:space="preserve"> 10.2</f>
-        <v>10.199999999999999</v>
+        <f xml:space="preserve"> 10.2 + 8.31</f>
+        <v>18.509999999999998</v>
       </c>
       <c r="K42" s="24"/>
     </row>
@@ -6114,7 +6114,7 @@
       <c r="J43" s="24"/>
       <c r="K43" s="24">
         <f>SUM(J40:J43)</f>
-        <v>59.86</v>
+        <v>68.169999999999987</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43702</v>
+        <v>43722</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4498,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J42" sqref="J42"/>
+      <selection pane="bottomRight" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>447.55999999999995</v>
+        <v>449.03</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.71954983922829574</v>
+        <v>0.72191318327974274</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -6186,7 +6186,10 @@
         <f t="shared" si="14"/>
         <v>43723</v>
       </c>
-      <c r="J45" s="24"/>
+      <c r="J45" s="24">
+        <f xml:space="preserve"> 1.47</f>
+        <v>1.47</v>
+      </c>
       <c r="K45" s="24"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -6261,7 +6264,7 @@
       <c r="J47" s="24"/>
       <c r="K47" s="24">
         <f>SUM(J44:J47)</f>
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43722</v>
+        <v>43724</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4498,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J45" sqref="J45"/>
+      <selection pane="bottomRight" activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>449.03</v>
+        <v>457.06999999999994</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.72191318327974274</v>
+        <v>0.73483922829581982</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -6187,8 +6187,8 @@
         <v>43723</v>
       </c>
       <c r="J45" s="24">
-        <f xml:space="preserve"> 1.47</f>
-        <v>1.47</v>
+        <f xml:space="preserve"> 1.47 + 8.04</f>
+        <v>9.51</v>
       </c>
       <c r="K45" s="24"/>
     </row>
@@ -6264,7 +6264,7 @@
       <c r="J47" s="24"/>
       <c r="K47" s="24">
         <f>SUM(J44:J47)</f>
-        <v>1.47</v>
+        <v>9.51</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43724</v>
+        <v>43727</v>
       </c>
     </row>
   </sheetData>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>457.06999999999994</v>
+        <v>464.50999999999993</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.73483922829581982</v>
+        <v>0.7468006430868166</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -6225,7 +6225,10 @@
         <f t="shared" si="14"/>
         <v>43730</v>
       </c>
-      <c r="J46" s="24"/>
+      <c r="J46" s="24">
+        <f xml:space="preserve"> 7.44</f>
+        <v>7.44</v>
+      </c>
       <c r="K46" s="24"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -6264,7 +6267,7 @@
       <c r="J47" s="24"/>
       <c r="K47" s="24">
         <f>SUM(J44:J47)</f>
-        <v>9.51</v>
+        <v>16.95</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43727</v>
+        <v>43737</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4498,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J46" sqref="J46"/>
+      <selection pane="bottomRight" activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>464.50999999999993</v>
+        <v>472.06999999999994</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.7468006430868166</v>
+        <v>0.75895498392282945</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -6264,10 +6264,13 @@
         <f t="shared" si="14"/>
         <v>43737</v>
       </c>
-      <c r="J47" s="24"/>
+      <c r="J47" s="24">
+        <f xml:space="preserve"> 7.56</f>
+        <v>7.56</v>
+      </c>
       <c r="K47" s="24">
         <f>SUM(J44:J47)</f>
-        <v>16.95</v>
+        <v>24.509999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43737</v>
+        <v>43746</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4498,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J48" sqref="J48"/>
+      <selection pane="bottomRight" activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>472.06999999999994</v>
+        <v>478.43999999999994</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.75895498392282945</v>
+        <v>0.76919614147909954</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -6342,7 +6342,10 @@
         <f t="shared" si="14"/>
         <v>43751</v>
       </c>
-      <c r="J49" s="24"/>
+      <c r="J49" s="24">
+        <f xml:space="preserve"> 6.37</f>
+        <v>6.37</v>
+      </c>
       <c r="K49" s="24"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -6453,7 +6456,7 @@
       <c r="J52" s="24"/>
       <c r="K52" s="24">
         <f>SUM(J48:J52)</f>
-        <v>0</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43746</v>
+        <v>43778</v>
       </c>
     </row>
   </sheetData>
@@ -4495,7 +4495,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11" ySplit="3" topLeftCell="L28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="3" topLeftCell="L33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="J49" sqref="J49"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>478.43999999999994</v>
+        <v>493.65999999999997</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.76919614147909954</v>
+        <v>0.79366559485530541</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -6343,8 +6343,8 @@
         <v>43751</v>
       </c>
       <c r="J49" s="24">
-        <f xml:space="preserve"> 6.37</f>
-        <v>6.37</v>
+        <f xml:space="preserve"> 6.37 + 7.56</f>
+        <v>13.93</v>
       </c>
       <c r="K49" s="24"/>
     </row>
@@ -6456,7 +6456,7 @@
       <c r="J52" s="24"/>
       <c r="K52" s="24">
         <f>SUM(J48:J52)</f>
-        <v>6.37</v>
+        <v>13.93</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -6492,7 +6492,10 @@
         <f t="shared" si="16"/>
         <v>43779</v>
       </c>
-      <c r="J53" s="24"/>
+      <c r="J53" s="24">
+        <f xml:space="preserve"> 7.66</f>
+        <v>7.66</v>
+      </c>
       <c r="K53" s="24"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -6603,7 +6606,7 @@
       <c r="J56" s="24"/>
       <c r="K56" s="24">
         <f>SUM(J53:J56)</f>
-        <v>0</v>
+        <v>7.66</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43778</v>
+        <v>43810</v>
       </c>
     </row>
   </sheetData>
@@ -4495,10 +4495,10 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11" ySplit="3" topLeftCell="L33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="3" topLeftCell="L39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J49" sqref="J49"/>
+      <selection pane="bottomRight" activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>493.65999999999997</v>
+        <v>506.74999999999994</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.79366559485530541</v>
+        <v>0.81471061093247577</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -6642,7 +6642,10 @@
         <f t="shared" si="18"/>
         <v>43807</v>
       </c>
-      <c r="J57" s="24"/>
+      <c r="J57" s="24">
+        <f xml:space="preserve"> 8.16 + 4.93</f>
+        <v>13.09</v>
+      </c>
       <c r="K57" s="24"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -6789,7 +6792,7 @@
       <c r="J61" s="24"/>
       <c r="K61" s="24">
         <f>SUM(J57:J61)</f>
-        <v>0</v>
+        <v>13.09</v>
       </c>
     </row>
   </sheetData>

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43810</v>
+        <v>43814</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4498,7 @@
       <pane xSplit="11" ySplit="3" topLeftCell="L39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J57" sqref="J57"/>
+      <selection pane="bottomRight" activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>506.74999999999994</v>
+        <v>514.42999999999995</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.81471061093247577</v>
+        <v>0.8270578778135047</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -6643,8 +6643,8 @@
         <v>43807</v>
       </c>
       <c r="J57" s="24">
-        <f xml:space="preserve"> 8.16 + 4.93</f>
-        <v>13.09</v>
+        <f xml:space="preserve"> 8.16</f>
+        <v>8.16</v>
       </c>
       <c r="K57" s="24"/>
     </row>
@@ -6681,7 +6681,10 @@
         <f t="shared" si="18"/>
         <v>43814</v>
       </c>
-      <c r="J58" s="24"/>
+      <c r="J58" s="24">
+        <f xml:space="preserve"> 4.93 + 7.68</f>
+        <v>12.61</v>
+      </c>
       <c r="K58" s="24"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -6792,7 +6795,7 @@
       <c r="J61" s="24"/>
       <c r="K61" s="24">
         <f>SUM(J57:J61)</f>
-        <v>13.09</v>
+        <v>20.77</v>
       </c>
     </row>
   </sheetData>

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43814</v>
+        <v>43824</v>
       </c>
     </row>
   </sheetData>
@@ -4495,10 +4495,10 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11" ySplit="3" topLeftCell="L39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="3" topLeftCell="L45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J58" sqref="J58"/>
+      <selection pane="bottomRight" activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>514.42999999999995</v>
+        <v>522.07999999999993</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.8270578778135047</v>
+        <v>0.83935691318327965</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -6756,7 +6756,9 @@
         <f t="shared" si="20"/>
         <v>43828</v>
       </c>
-      <c r="J60" s="24"/>
+      <c r="J60" s="24">
+        <v>7.65</v>
+      </c>
       <c r="K60" s="24"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -6795,7 +6797,7 @@
       <c r="J61" s="24"/>
       <c r="K61" s="24">
         <f>SUM(J57:J61)</f>
-        <v>20.77</v>
+        <v>28.42</v>
       </c>
     </row>
   </sheetData>

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>Lundi</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Progression</t>
+  </si>
+  <si>
+    <t>7,65 + 7,12</t>
   </si>
 </sst>
 </file>
@@ -1974,7 +1977,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43824</v>
+        <v>43829</v>
       </c>
     </row>
   </sheetData>
@@ -4495,7 +4498,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11" ySplit="3" topLeftCell="L45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="3" topLeftCell="L49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="J60" sqref="J60"/>
@@ -4548,12 +4551,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>522.07999999999993</v>
+        <v>514.42999999999995</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.83935691318327965</v>
+        <v>0.8270578778135047</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -6756,8 +6759,8 @@
         <f t="shared" si="20"/>
         <v>43828</v>
       </c>
-      <c r="J60" s="24">
-        <v>7.65</v>
+      <c r="J60" s="24" t="s">
+        <v>12</v>
       </c>
       <c r="K60" s="24"/>
     </row>
@@ -6797,7 +6800,7 @@
       <c r="J61" s="24"/>
       <c r="K61" s="24">
         <f>SUM(J57:J61)</f>
-        <v>28.42</v>
+        <v>20.77</v>
       </c>
     </row>
   </sheetData>

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19440" windowHeight="8520" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19440" windowHeight="8520" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2017 automn &amp; winter" sheetId="1" r:id="rId1"/>
     <sheet name="2018" sheetId="2" r:id="rId2"/>
     <sheet name="2019" sheetId="4" r:id="rId3"/>
+    <sheet name="2020" sheetId="5" r:id="rId4"/>
+    <sheet name="Feuil2" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
   <si>
     <t>Lundi</t>
   </si>
@@ -257,235 +259,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="81">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF1EB99"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="6" tint="0.79998168889431442"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="6" tint="0.79998168889431442"/>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="136">
     <dxf>
       <font>
         <b val="0"/>
@@ -545,234 +319,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF1EB99"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="6" tint="0.79998168889431442"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="6" tint="0.79998168889431442"/>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i/>
@@ -831,6 +377,1192 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDotDot">
+          <color theme="8"/>
+        </left>
+        <right style="dashDotDot">
+          <color theme="8"/>
+        </right>
+        <top style="dashDotDot">
+          <color theme="8"/>
+        </top>
+        <bottom style="dashDotDot">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color theme="9"/>
+        </left>
+        <right style="dotted">
+          <color theme="9"/>
+        </right>
+        <top style="dotted">
+          <color theme="9"/>
+        </top>
+        <bottom style="dotted">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDotDot">
+          <color theme="8"/>
+        </left>
+        <right style="dashDotDot">
+          <color theme="8"/>
+        </right>
+        <top style="dashDotDot">
+          <color theme="8"/>
+        </top>
+        <bottom style="dashDotDot">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color theme="9"/>
+        </left>
+        <right style="dotted">
+          <color theme="9"/>
+        </right>
+        <top style="dotted">
+          <color theme="9"/>
+        </top>
+        <bottom style="dotted">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDotDot">
+          <color theme="8"/>
+        </left>
+        <right style="dashDotDot">
+          <color theme="8"/>
+        </right>
+        <top style="dashDotDot">
+          <color theme="8"/>
+        </top>
+        <bottom style="dashDotDot">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color theme="9"/>
+        </left>
+        <right style="dotted">
+          <color theme="9"/>
+        </right>
+        <top style="dotted">
+          <color theme="9"/>
+        </top>
+        <bottom style="dotted">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF1EB99"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF1EB99"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDotDot">
+          <color theme="8"/>
+        </left>
+        <right style="dashDotDot">
+          <color theme="8"/>
+        </right>
+        <top style="dashDotDot">
+          <color theme="8"/>
+        </top>
+        <bottom style="dashDotDot">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color theme="9"/>
+        </left>
+        <right style="dotted">
+          <color theme="9"/>
+        </right>
+        <top style="dotted">
+          <color theme="9"/>
+        </top>
+        <bottom style="dotted">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDotDot">
+          <color theme="8"/>
+        </left>
+        <right style="dashDotDot">
+          <color theme="8"/>
+        </right>
+        <top style="dashDotDot">
+          <color theme="8"/>
+        </top>
+        <bottom style="dashDotDot">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color theme="9"/>
+        </left>
+        <right style="dotted">
+          <color theme="9"/>
+        </right>
+        <top style="dotted">
+          <color theme="9"/>
+        </top>
+        <bottom style="dotted">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF1EB99"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDotDot">
+          <color theme="8"/>
+        </left>
+        <right style="dashDotDot">
+          <color theme="8"/>
+        </right>
+        <top style="dashDotDot">
+          <color theme="8"/>
+        </top>
+        <bottom style="dashDotDot">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color theme="9"/>
+        </left>
+        <right style="dotted">
+          <color theme="9"/>
+        </right>
+        <top style="dotted">
+          <color theme="9"/>
+        </top>
+        <bottom style="dotted">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF1EB99"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDotDot">
+          <color theme="8"/>
+        </left>
+        <right style="dashDotDot">
+          <color theme="8"/>
+        </right>
+        <top style="dashDotDot">
+          <color theme="8"/>
+        </top>
+        <bottom style="dashDotDot">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color theme="9"/>
+        </left>
+        <right style="dotted">
+          <color theme="9"/>
+        </right>
+        <top style="dotted">
+          <color theme="9"/>
+        </top>
+        <bottom style="dotted">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="d"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
@@ -1025,46 +1757,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A2:G13" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A2:G13" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
   <autoFilter ref="A2:G13"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Lundi" dataDxfId="62">
+    <tableColumn id="1" name="Lundi" dataDxfId="117">
       <calculatedColumnFormula xml:space="preserve"> 1 + G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Mardi" dataDxfId="61"/>
-    <tableColumn id="3" name="Mercredi" dataDxfId="60"/>
-    <tableColumn id="4" name="Jeudi" dataDxfId="59"/>
-    <tableColumn id="5" name="Vendredi" dataDxfId="58"/>
-    <tableColumn id="6" name="Samedi" dataDxfId="57"/>
-    <tableColumn id="7" name="Dimanche" dataDxfId="56"/>
+    <tableColumn id="2" name="Mardi" dataDxfId="116"/>
+    <tableColumn id="3" name="Mercredi" dataDxfId="115"/>
+    <tableColumn id="4" name="Jeudi" dataDxfId="114"/>
+    <tableColumn id="5" name="Vendredi" dataDxfId="113"/>
+    <tableColumn id="6" name="Samedi" dataDxfId="112"/>
+    <tableColumn id="7" name="Dimanche" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B3:H61" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B3:H61" totalsRowShown="0" headerRowDxfId="93" dataDxfId="91" headerRowBorderDxfId="92" tableBorderDxfId="90">
   <autoFilter ref="B3:H61"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Lundi" dataDxfId="34">
+    <tableColumn id="1" name="Lundi" dataDxfId="89">
       <calculatedColumnFormula xml:space="preserve"> 1 + $H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Mardi" dataDxfId="33">
+    <tableColumn id="2" name="Mardi" dataDxfId="88">
       <calculatedColumnFormula xml:space="preserve"> 1 + B4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Mercredi" dataDxfId="32">
+    <tableColumn id="3" name="Mercredi" dataDxfId="87">
       <calculatedColumnFormula xml:space="preserve"> 1 + C4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Jeudi" dataDxfId="31">
+    <tableColumn id="4" name="Jeudi" dataDxfId="86">
       <calculatedColumnFormula xml:space="preserve"> 1 + D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Vendredi" dataDxfId="30">
+    <tableColumn id="5" name="Vendredi" dataDxfId="85">
       <calculatedColumnFormula xml:space="preserve"> 1 + E4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Samedi" dataDxfId="29">
+    <tableColumn id="6" name="Samedi" dataDxfId="84">
       <calculatedColumnFormula xml:space="preserve"> 1 + F4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Dimanche" dataDxfId="28">
+    <tableColumn id="7" name="Dimanche" dataDxfId="83">
       <calculatedColumnFormula xml:space="preserve"> 1 + G4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1073,28 +1805,58 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau14" displayName="Tableau14" ref="B3:H61" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau14" displayName="Tableau14" ref="B3:H61" totalsRowShown="0" headerRowDxfId="65" dataDxfId="63" headerRowBorderDxfId="64" tableBorderDxfId="62">
   <autoFilter ref="B3:H61"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Lundi" dataDxfId="6">
+    <tableColumn id="1" name="Lundi" dataDxfId="61">
       <calculatedColumnFormula xml:space="preserve"> 1 + $H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Mardi" dataDxfId="5">
+    <tableColumn id="2" name="Mardi" dataDxfId="60">
       <calculatedColumnFormula xml:space="preserve"> 1 + B4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Mercredi" dataDxfId="4">
+    <tableColumn id="3" name="Mercredi" dataDxfId="59">
       <calculatedColumnFormula xml:space="preserve"> 1 + C4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Jeudi" dataDxfId="3">
+    <tableColumn id="4" name="Jeudi" dataDxfId="58">
       <calculatedColumnFormula xml:space="preserve"> 1 + D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Vendredi" dataDxfId="2">
+    <tableColumn id="5" name="Vendredi" dataDxfId="57">
       <calculatedColumnFormula xml:space="preserve"> 1 + E4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Samedi" dataDxfId="1">
+    <tableColumn id="6" name="Samedi" dataDxfId="56">
       <calculatedColumnFormula xml:space="preserve"> 1 + F4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Dimanche" dataDxfId="0">
+    <tableColumn id="7" name="Dimanche" dataDxfId="55">
+      <calculatedColumnFormula xml:space="preserve"> 1 + G4</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau145" displayName="Tableau145" ref="B3:H61" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" headerRowBorderDxfId="17" tableBorderDxfId="18">
+  <autoFilter ref="B3:H61"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Lundi" dataDxfId="16">
+      <calculatedColumnFormula xml:space="preserve"> 1 + $H3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Mardi" dataDxfId="15">
+      <calculatedColumnFormula xml:space="preserve"> 1 + B4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Mercredi" dataDxfId="14">
+      <calculatedColumnFormula xml:space="preserve"> 1 + C4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Jeudi" dataDxfId="13">
+      <calculatedColumnFormula xml:space="preserve"> 1 + D4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Vendredi" dataDxfId="12">
+      <calculatedColumnFormula xml:space="preserve"> 1 + E4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Samedi" dataDxfId="11">
+      <calculatedColumnFormula xml:space="preserve"> 1 + F4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="Dimanche" dataDxfId="10">
       <calculatedColumnFormula xml:space="preserve"> 1 + G4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1983,60 +2745,60 @@
   </sheetData>
   <sheetProtection password="CF7C" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="80" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="17" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="79" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="16" operator="lessThan">
       <formula>$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="78" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="15" operator="lessThan">
       <formula>$H$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="77" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="14" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="76" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="13" operator="lessThan">
       <formula>$H$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="75" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="12" operator="lessThan">
       <formula>$H$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="74" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="11" operator="lessThan">
       <formula>$H$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="73" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="10" operator="lessThan">
       <formula>$H$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="72" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="9" operator="lessThan">
       <formula>$H$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="71" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="8" operator="lessThan">
       <formula>$H$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G13">
-    <cfRule type="timePeriod" dxfId="70" priority="6" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="125" priority="6" timePeriod="today">
       <formula>FLOOR(A3,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="69" priority="7" timePeriod="thisMonth">
+    <cfRule type="timePeriod" dxfId="124" priority="7" timePeriod="thisMonth">
       <formula>AND(MONTH(A3)=MONTH(TODAY()),YEAR(A3)=YEAR(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2055,18 +2817,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="68" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="123" priority="1" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="122" priority="2" operator="between">
       <formula>0.2</formula>
       <formula>0.6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="121" priority="3" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="4" operator="lessThan">
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4422,63 +5184,63 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:H61">
-    <cfRule type="timePeriod" dxfId="55" priority="18" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="110" priority="18" timePeriod="today">
       <formula>FLOOR(B4,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="54" priority="19" timePeriod="thisMonth">
+    <cfRule type="timePeriod" dxfId="109" priority="19" timePeriod="thisMonth">
       <formula>AND(MONTH(B4)=MONTH(TODAY()),YEAR(B4)=YEAR(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:K61">
-    <cfRule type="cellIs" dxfId="53" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="108" priority="13" operator="greaterThan">
       <formula>24.8800001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="107" priority="14" operator="between">
       <formula>18.66000001</formula>
       <formula>24.88</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="106" priority="15" operator="between">
       <formula>12.4400001</formula>
       <formula>18.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="105" priority="16" operator="between">
       <formula>6.220001</formula>
       <formula>12.44</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="104" priority="17" operator="between">
       <formula>0</formula>
       <formula>6.22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:K3">
-    <cfRule type="expression" dxfId="48" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="1" stopIfTrue="1">
       <formula>"$k$3 &gt;= 0,9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="2" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="3" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="4" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="5" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="6" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="7" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="8" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="9" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="10" stopIfTrue="1">
       <formula>$L$3 &lt; 0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4497,11 +5259,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11" ySplit="3" topLeftCell="L49" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="11" ySplit="3" topLeftCell="L31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J60" sqref="J60"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6805,72 +7567,2348 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:H61">
-    <cfRule type="timePeriod" dxfId="27" priority="16" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="82" priority="16" timePeriod="today">
       <formula>FLOOR(B4,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="26" priority="17" timePeriod="thisMonth">
+    <cfRule type="timePeriod" dxfId="81" priority="17" timePeriod="thisMonth">
       <formula>AND(MONTH(B4)=MONTH(TODAY()),YEAR(B4)=YEAR(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:K61">
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="11" operator="greaterThan">
       <formula>24.8800001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="79" priority="12" operator="between">
       <formula>18.66000001</formula>
       <formula>24.88</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="78" priority="13" operator="between">
       <formula>12.4400001</formula>
       <formula>18.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="77" priority="14" operator="between">
       <formula>6.220001</formula>
       <formula>12.44</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="76" priority="15" operator="between">
       <formula>0</formula>
       <formula>6.22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:K3">
-    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="1" stopIfTrue="1">
       <formula>"$k$3 &gt;= 0,9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="2" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="3" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="4" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="5" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="6" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="7" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="8" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="9" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="10" stopIfTrue="1">
       <formula>$L$3 &lt; 0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B9" calculatedColumn="1"/>
+    <ignoredError sqref="B9:C9" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" style="23" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J2" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="26"/>
+      <c r="L2" s="28">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="25">
+        <f>SUM($J$4:$J$61)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="27">
+        <f xml:space="preserve"> J3 / 622</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <f t="shared" ref="A4:A8" si="0" xml:space="preserve"> IF(OR( 1 = DAY($B4), 1 = DAY($C4), 1 = DAY($D4), 1 = DAY($E4), 1 = DAY($F4),  1 = DAY($G4),  1 = DAY($H4),   ), $H4, "")</f>
+        <v>43800</v>
+      </c>
+      <c r="B4" s="18">
+        <f t="shared" ref="B4:G8" si="1" xml:space="preserve"> -1 + C4</f>
+        <v>43794</v>
+      </c>
+      <c r="C4" s="18">
+        <f t="shared" si="1"/>
+        <v>43795</v>
+      </c>
+      <c r="D4" s="18">
+        <f t="shared" si="1"/>
+        <v>43796</v>
+      </c>
+      <c r="E4" s="18">
+        <f t="shared" si="1"/>
+        <v>43797</v>
+      </c>
+      <c r="F4" s="18">
+        <f t="shared" si="1"/>
+        <v>43798</v>
+      </c>
+      <c r="G4" s="18">
+        <f t="shared" si="1"/>
+        <v>43799</v>
+      </c>
+      <c r="H4" s="18">
+        <f t="shared" ref="H4:H7" si="2" xml:space="preserve"> -1 + $B5</f>
+        <v>43800</v>
+      </c>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B5" s="18">
+        <f t="shared" si="1"/>
+        <v>43801</v>
+      </c>
+      <c r="C5" s="18">
+        <f t="shared" si="1"/>
+        <v>43802</v>
+      </c>
+      <c r="D5" s="18">
+        <f t="shared" si="1"/>
+        <v>43803</v>
+      </c>
+      <c r="E5" s="18">
+        <f t="shared" si="1"/>
+        <v>43804</v>
+      </c>
+      <c r="F5" s="18">
+        <f t="shared" si="1"/>
+        <v>43805</v>
+      </c>
+      <c r="G5" s="18">
+        <f t="shared" si="1"/>
+        <v>43806</v>
+      </c>
+      <c r="H5" s="18">
+        <f t="shared" si="2"/>
+        <v>43807</v>
+      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B6" s="18">
+        <f t="shared" si="1"/>
+        <v>43808</v>
+      </c>
+      <c r="C6" s="18">
+        <f t="shared" si="1"/>
+        <v>43809</v>
+      </c>
+      <c r="D6" s="18">
+        <f t="shared" si="1"/>
+        <v>43810</v>
+      </c>
+      <c r="E6" s="18">
+        <f t="shared" si="1"/>
+        <v>43811</v>
+      </c>
+      <c r="F6" s="18">
+        <f t="shared" si="1"/>
+        <v>43812</v>
+      </c>
+      <c r="G6" s="18">
+        <f t="shared" si="1"/>
+        <v>43813</v>
+      </c>
+      <c r="H6" s="18">
+        <f t="shared" si="2"/>
+        <v>43814</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B7" s="18">
+        <f t="shared" si="1"/>
+        <v>43815</v>
+      </c>
+      <c r="C7" s="18">
+        <f t="shared" si="1"/>
+        <v>43816</v>
+      </c>
+      <c r="D7" s="18">
+        <f t="shared" si="1"/>
+        <v>43817</v>
+      </c>
+      <c r="E7" s="18">
+        <f t="shared" si="1"/>
+        <v>43818</v>
+      </c>
+      <c r="F7" s="18">
+        <f t="shared" si="1"/>
+        <v>43819</v>
+      </c>
+      <c r="G7" s="18">
+        <f t="shared" si="1"/>
+        <v>43820</v>
+      </c>
+      <c r="H7" s="18">
+        <f t="shared" si="2"/>
+        <v>43821</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B8" s="18">
+        <f t="shared" si="1"/>
+        <v>43822</v>
+      </c>
+      <c r="C8" s="18">
+        <f t="shared" si="1"/>
+        <v>43823</v>
+      </c>
+      <c r="D8" s="18">
+        <f t="shared" si="1"/>
+        <v>43824</v>
+      </c>
+      <c r="E8" s="18">
+        <f t="shared" si="1"/>
+        <v>43825</v>
+      </c>
+      <c r="F8" s="18">
+        <f t="shared" si="1"/>
+        <v>43826</v>
+      </c>
+      <c r="G8" s="18">
+        <f xml:space="preserve"> -1 + H8</f>
+        <v>43827</v>
+      </c>
+      <c r="H8" s="18">
+        <f xml:space="preserve"> -1 + $B9</f>
+        <v>43828</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24">
+        <f>SUM(J4:J8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <f xml:space="preserve"> IF(OR( 1 = DAY($B9), 1 = DAY($C9), 1 = DAY($D9), 1 = DAY($E9), 1 = DAY($F9),  1 = DAY($G9),  1 = DAY($H9),   ), $H9, "")</f>
+        <v>43835</v>
+      </c>
+      <c r="B9" s="17">
+        <v>43829</v>
+      </c>
+      <c r="C9" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>43830</v>
+      </c>
+      <c r="D9" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>43831</v>
+      </c>
+      <c r="E9" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>43832</v>
+      </c>
+      <c r="F9" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>43833</v>
+      </c>
+      <c r="G9" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>43834</v>
+      </c>
+      <c r="H9" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>43835</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="N9" s="20"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="str">
+        <f t="shared" ref="A10:A61" si="3" xml:space="preserve"> IF(OR( 1 = DAY($B10), 1 = DAY($C10), 1 = DAY($D10), 1 = DAY($E10), 1 = DAY($F10),  1 = DAY($G10),  1 = DAY($H10),   ), $H10, "")</f>
+        <v/>
+      </c>
+      <c r="B10" s="17">
+        <f xml:space="preserve"> 1 + $H9</f>
+        <v>43836</v>
+      </c>
+      <c r="C10" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>43837</v>
+      </c>
+      <c r="D10" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>43838</v>
+      </c>
+      <c r="E10" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>43839</v>
+      </c>
+      <c r="F10" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>43840</v>
+      </c>
+      <c r="G10" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>43841</v>
+      </c>
+      <c r="H10" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>43842</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="22"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B11" s="17">
+        <f t="shared" ref="B11:B18" si="4" xml:space="preserve"> 1 + $H10</f>
+        <v>43843</v>
+      </c>
+      <c r="C11" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>43844</v>
+      </c>
+      <c r="D11" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>43845</v>
+      </c>
+      <c r="E11" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>43846</v>
+      </c>
+      <c r="F11" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>43847</v>
+      </c>
+      <c r="G11" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>43848</v>
+      </c>
+      <c r="H11" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>43849</v>
+      </c>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B12" s="17">
+        <f t="shared" si="4"/>
+        <v>43850</v>
+      </c>
+      <c r="C12" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>43851</v>
+      </c>
+      <c r="D12" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>43852</v>
+      </c>
+      <c r="E12" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>43853</v>
+      </c>
+      <c r="F12" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>43854</v>
+      </c>
+      <c r="G12" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>43855</v>
+      </c>
+      <c r="H12" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>43856</v>
+      </c>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <f t="shared" si="3"/>
+        <v>43863</v>
+      </c>
+      <c r="B13" s="17">
+        <f t="shared" si="4"/>
+        <v>43857</v>
+      </c>
+      <c r="C13" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>43858</v>
+      </c>
+      <c r="D13" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>43859</v>
+      </c>
+      <c r="E13" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>43860</v>
+      </c>
+      <c r="F13" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>43861</v>
+      </c>
+      <c r="G13" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>43862</v>
+      </c>
+      <c r="H13" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>43863</v>
+      </c>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24">
+        <f>SUM(J9:J13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B14" s="17">
+        <f t="shared" si="4"/>
+        <v>43864</v>
+      </c>
+      <c r="C14" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>43865</v>
+      </c>
+      <c r="D14" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>43866</v>
+      </c>
+      <c r="E14" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>43867</v>
+      </c>
+      <c r="F14" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>43868</v>
+      </c>
+      <c r="G14" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>43869</v>
+      </c>
+      <c r="H14" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>43870</v>
+      </c>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B15" s="17">
+        <f t="shared" si="4"/>
+        <v>43871</v>
+      </c>
+      <c r="C15" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>43872</v>
+      </c>
+      <c r="D15" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>43873</v>
+      </c>
+      <c r="E15" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>43874</v>
+      </c>
+      <c r="F15" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>43875</v>
+      </c>
+      <c r="G15" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>43876</v>
+      </c>
+      <c r="H15" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>43877</v>
+      </c>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B16" s="17">
+        <f t="shared" si="4"/>
+        <v>43878</v>
+      </c>
+      <c r="C16" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>43879</v>
+      </c>
+      <c r="D16" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>43880</v>
+      </c>
+      <c r="E16" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>43881</v>
+      </c>
+      <c r="F16" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>43882</v>
+      </c>
+      <c r="G16" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>43883</v>
+      </c>
+      <c r="H16" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>43884</v>
+      </c>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <f t="shared" si="3"/>
+        <v>43891</v>
+      </c>
+      <c r="B17" s="17">
+        <f t="shared" si="4"/>
+        <v>43885</v>
+      </c>
+      <c r="C17" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>43886</v>
+      </c>
+      <c r="D17" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>43887</v>
+      </c>
+      <c r="E17" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>43888</v>
+      </c>
+      <c r="F17" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>43889</v>
+      </c>
+      <c r="G17" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>43890</v>
+      </c>
+      <c r="H17" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>43891</v>
+      </c>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24">
+        <f>SUM(J14:J17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B18" s="17">
+        <f t="shared" si="4"/>
+        <v>43892</v>
+      </c>
+      <c r="C18" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>43893</v>
+      </c>
+      <c r="D18" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>43894</v>
+      </c>
+      <c r="E18" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>43895</v>
+      </c>
+      <c r="F18" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>43896</v>
+      </c>
+      <c r="G18" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>43897</v>
+      </c>
+      <c r="H18" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>43898</v>
+      </c>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B19" s="17">
+        <f xml:space="preserve"> 1 + $H18</f>
+        <v>43899</v>
+      </c>
+      <c r="C19" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>43900</v>
+      </c>
+      <c r="D19" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>43901</v>
+      </c>
+      <c r="E19" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>43902</v>
+      </c>
+      <c r="F19" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>43903</v>
+      </c>
+      <c r="G19" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>43904</v>
+      </c>
+      <c r="H19" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>43905</v>
+      </c>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B20" s="17">
+        <f t="shared" ref="B20:B27" si="5" xml:space="preserve"> 1 + $H19</f>
+        <v>43906</v>
+      </c>
+      <c r="C20" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>43907</v>
+      </c>
+      <c r="D20" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>43908</v>
+      </c>
+      <c r="E20" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>43909</v>
+      </c>
+      <c r="F20" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>43910</v>
+      </c>
+      <c r="G20" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>43911</v>
+      </c>
+      <c r="H20" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>43912</v>
+      </c>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B21" s="17">
+        <f t="shared" si="5"/>
+        <v>43913</v>
+      </c>
+      <c r="C21" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>43914</v>
+      </c>
+      <c r="D21" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>43915</v>
+      </c>
+      <c r="E21" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>43916</v>
+      </c>
+      <c r="F21" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>43917</v>
+      </c>
+      <c r="G21" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>43918</v>
+      </c>
+      <c r="H21" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>43919</v>
+      </c>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24">
+        <f>SUM(J18:J21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <f t="shared" si="3"/>
+        <v>43926</v>
+      </c>
+      <c r="B22" s="17">
+        <f t="shared" si="5"/>
+        <v>43920</v>
+      </c>
+      <c r="C22" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>43921</v>
+      </c>
+      <c r="D22" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>43922</v>
+      </c>
+      <c r="E22" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>43923</v>
+      </c>
+      <c r="F22" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>43924</v>
+      </c>
+      <c r="G22" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>43925</v>
+      </c>
+      <c r="H22" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>43926</v>
+      </c>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B23" s="17">
+        <f t="shared" si="5"/>
+        <v>43927</v>
+      </c>
+      <c r="C23" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>43928</v>
+      </c>
+      <c r="D23" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>43929</v>
+      </c>
+      <c r="E23" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>43930</v>
+      </c>
+      <c r="F23" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>43931</v>
+      </c>
+      <c r="G23" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>43932</v>
+      </c>
+      <c r="H23" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>43933</v>
+      </c>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B24" s="17">
+        <f t="shared" si="5"/>
+        <v>43934</v>
+      </c>
+      <c r="C24" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>43935</v>
+      </c>
+      <c r="D24" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>43936</v>
+      </c>
+      <c r="E24" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>43937</v>
+      </c>
+      <c r="F24" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>43938</v>
+      </c>
+      <c r="G24" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>43939</v>
+      </c>
+      <c r="H24" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>43940</v>
+      </c>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B25" s="17">
+        <f t="shared" si="5"/>
+        <v>43941</v>
+      </c>
+      <c r="C25" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>43942</v>
+      </c>
+      <c r="D25" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>43943</v>
+      </c>
+      <c r="E25" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>43944</v>
+      </c>
+      <c r="F25" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>43945</v>
+      </c>
+      <c r="G25" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>43946</v>
+      </c>
+      <c r="H25" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>43947</v>
+      </c>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <f t="shared" si="3"/>
+        <v>43954</v>
+      </c>
+      <c r="B26" s="17">
+        <f t="shared" si="5"/>
+        <v>43948</v>
+      </c>
+      <c r="C26" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>43949</v>
+      </c>
+      <c r="D26" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>43950</v>
+      </c>
+      <c r="E26" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>43951</v>
+      </c>
+      <c r="F26" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>43952</v>
+      </c>
+      <c r="G26" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>43953</v>
+      </c>
+      <c r="H26" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>43954</v>
+      </c>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24">
+        <f>SUM(J22:J26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B27" s="17">
+        <f t="shared" si="5"/>
+        <v>43955</v>
+      </c>
+      <c r="C27" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>43956</v>
+      </c>
+      <c r="D27" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>43957</v>
+      </c>
+      <c r="E27" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>43958</v>
+      </c>
+      <c r="F27" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>43959</v>
+      </c>
+      <c r="G27" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>43960</v>
+      </c>
+      <c r="H27" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>43961</v>
+      </c>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B28" s="17">
+        <f xml:space="preserve"> 1 + $H27</f>
+        <v>43962</v>
+      </c>
+      <c r="C28" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>43963</v>
+      </c>
+      <c r="D28" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>43964</v>
+      </c>
+      <c r="E28" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>43965</v>
+      </c>
+      <c r="F28" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>43966</v>
+      </c>
+      <c r="G28" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>43967</v>
+      </c>
+      <c r="H28" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>43968</v>
+      </c>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B29" s="17">
+        <f t="shared" ref="B29:B36" si="6" xml:space="preserve"> 1 + $H28</f>
+        <v>43969</v>
+      </c>
+      <c r="C29" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>43970</v>
+      </c>
+      <c r="D29" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>43971</v>
+      </c>
+      <c r="E29" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>43972</v>
+      </c>
+      <c r="F29" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>43973</v>
+      </c>
+      <c r="G29" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>43974</v>
+      </c>
+      <c r="H29" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>43975</v>
+      </c>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="str">
+        <f xml:space="preserve"> IF(OR( 1 = DAY($B30), 1 = DAY($C30), 1 = DAY($D30), 1 = DAY($E30), 1 = DAY($F30),  1 = DAY($G30),  1 = DAY($H30),   ), $H30, "")</f>
+        <v/>
+      </c>
+      <c r="B30" s="17">
+        <f t="shared" si="6"/>
+        <v>43976</v>
+      </c>
+      <c r="C30" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>43977</v>
+      </c>
+      <c r="D30" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>43978</v>
+      </c>
+      <c r="E30" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>43979</v>
+      </c>
+      <c r="F30" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>43980</v>
+      </c>
+      <c r="G30" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>43981</v>
+      </c>
+      <c r="H30" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>43982</v>
+      </c>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24">
+        <f>SUM(J27:J30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
+        <f t="shared" si="3"/>
+        <v>43989</v>
+      </c>
+      <c r="B31" s="17">
+        <f t="shared" si="6"/>
+        <v>43983</v>
+      </c>
+      <c r="C31" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>43984</v>
+      </c>
+      <c r="D31" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>43985</v>
+      </c>
+      <c r="E31" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>43986</v>
+      </c>
+      <c r="F31" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>43987</v>
+      </c>
+      <c r="G31" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>43988</v>
+      </c>
+      <c r="H31" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>43989</v>
+      </c>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B32" s="17">
+        <f t="shared" si="6"/>
+        <v>43990</v>
+      </c>
+      <c r="C32" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>43991</v>
+      </c>
+      <c r="D32" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>43992</v>
+      </c>
+      <c r="E32" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>43993</v>
+      </c>
+      <c r="F32" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>43994</v>
+      </c>
+      <c r="G32" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>43995</v>
+      </c>
+      <c r="H32" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>43996</v>
+      </c>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B33" s="17">
+        <f t="shared" si="6"/>
+        <v>43997</v>
+      </c>
+      <c r="C33" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>43998</v>
+      </c>
+      <c r="D33" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>43999</v>
+      </c>
+      <c r="E33" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>44000</v>
+      </c>
+      <c r="F33" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>44001</v>
+      </c>
+      <c r="G33" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>44002</v>
+      </c>
+      <c r="H33" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>44003</v>
+      </c>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B34" s="17">
+        <f t="shared" si="6"/>
+        <v>44004</v>
+      </c>
+      <c r="C34" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>44005</v>
+      </c>
+      <c r="D34" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>44006</v>
+      </c>
+      <c r="E34" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>44007</v>
+      </c>
+      <c r="F34" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>44008</v>
+      </c>
+      <c r="G34" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>44009</v>
+      </c>
+      <c r="H34" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>44010</v>
+      </c>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24">
+        <f>SUM(J31:J34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
+        <f t="shared" si="3"/>
+        <v>44017</v>
+      </c>
+      <c r="B35" s="17">
+        <f t="shared" si="6"/>
+        <v>44011</v>
+      </c>
+      <c r="C35" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>44012</v>
+      </c>
+      <c r="D35" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>44013</v>
+      </c>
+      <c r="E35" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>44014</v>
+      </c>
+      <c r="F35" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>44015</v>
+      </c>
+      <c r="G35" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>44016</v>
+      </c>
+      <c r="H35" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>44017</v>
+      </c>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B36" s="17">
+        <f t="shared" si="6"/>
+        <v>44018</v>
+      </c>
+      <c r="C36" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>44019</v>
+      </c>
+      <c r="D36" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>44020</v>
+      </c>
+      <c r="E36" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>44021</v>
+      </c>
+      <c r="F36" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>44022</v>
+      </c>
+      <c r="G36" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>44023</v>
+      </c>
+      <c r="H36" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>44024</v>
+      </c>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B37" s="17">
+        <f xml:space="preserve"> 1 + $H36</f>
+        <v>44025</v>
+      </c>
+      <c r="C37" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>44026</v>
+      </c>
+      <c r="D37" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>44027</v>
+      </c>
+      <c r="E37" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>44028</v>
+      </c>
+      <c r="F37" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>44029</v>
+      </c>
+      <c r="G37" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>44030</v>
+      </c>
+      <c r="H37" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>44031</v>
+      </c>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B38" s="17">
+        <f t="shared" ref="B38:B39" si="7" xml:space="preserve"> 1 + $H37</f>
+        <v>44032</v>
+      </c>
+      <c r="C38" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>44033</v>
+      </c>
+      <c r="D38" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>44034</v>
+      </c>
+      <c r="E38" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>44035</v>
+      </c>
+      <c r="F38" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>44036</v>
+      </c>
+      <c r="G38" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>44037</v>
+      </c>
+      <c r="H38" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>44038</v>
+      </c>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
+        <f t="shared" si="3"/>
+        <v>44045</v>
+      </c>
+      <c r="B39" s="17">
+        <f t="shared" si="7"/>
+        <v>44039</v>
+      </c>
+      <c r="C39" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>44040</v>
+      </c>
+      <c r="D39" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>44041</v>
+      </c>
+      <c r="E39" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>44042</v>
+      </c>
+      <c r="F39" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>44043</v>
+      </c>
+      <c r="G39" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>44044</v>
+      </c>
+      <c r="H39" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>44045</v>
+      </c>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24">
+        <f>SUM(J35:J39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B40" s="17">
+        <f xml:space="preserve"> 1 + $H39</f>
+        <v>44046</v>
+      </c>
+      <c r="C40" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>44047</v>
+      </c>
+      <c r="D40" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>44048</v>
+      </c>
+      <c r="E40" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>44049</v>
+      </c>
+      <c r="F40" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>44050</v>
+      </c>
+      <c r="G40" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>44051</v>
+      </c>
+      <c r="H40" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>44052</v>
+      </c>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B41" s="17">
+        <f t="shared" ref="B41:B48" si="8" xml:space="preserve"> 1 + $H40</f>
+        <v>44053</v>
+      </c>
+      <c r="C41" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>44054</v>
+      </c>
+      <c r="D41" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>44055</v>
+      </c>
+      <c r="E41" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>44056</v>
+      </c>
+      <c r="F41" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>44057</v>
+      </c>
+      <c r="G41" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>44058</v>
+      </c>
+      <c r="H41" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>44059</v>
+      </c>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B42" s="17">
+        <f t="shared" si="8"/>
+        <v>44060</v>
+      </c>
+      <c r="C42" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>44061</v>
+      </c>
+      <c r="D42" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>44062</v>
+      </c>
+      <c r="E42" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>44063</v>
+      </c>
+      <c r="F42" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>44064</v>
+      </c>
+      <c r="G42" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>44065</v>
+      </c>
+      <c r="H42" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>44066</v>
+      </c>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B43" s="17">
+        <f t="shared" si="8"/>
+        <v>44067</v>
+      </c>
+      <c r="C43" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>44068</v>
+      </c>
+      <c r="D43" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>44069</v>
+      </c>
+      <c r="E43" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>44070</v>
+      </c>
+      <c r="F43" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>44071</v>
+      </c>
+      <c r="G43" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>44072</v>
+      </c>
+      <c r="H43" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>44073</v>
+      </c>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24">
+        <f>SUM(J40:J43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="15">
+        <f t="shared" si="3"/>
+        <v>44080</v>
+      </c>
+      <c r="B44" s="17">
+        <f t="shared" si="8"/>
+        <v>44074</v>
+      </c>
+      <c r="C44" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>44075</v>
+      </c>
+      <c r="D44" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>44076</v>
+      </c>
+      <c r="E44" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>44077</v>
+      </c>
+      <c r="F44" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>44078</v>
+      </c>
+      <c r="G44" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>44079</v>
+      </c>
+      <c r="H44" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>44080</v>
+      </c>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="str">
+        <f xml:space="preserve"> IF(OR( 1 = DAY($B45), 1 = DAY($C45), 1 = DAY($D45), 1 = DAY($E45), 1 = DAY($F45),  1 = DAY($G45),  1 = DAY($H45),   ), $H45, "")</f>
+        <v/>
+      </c>
+      <c r="B45" s="17">
+        <f t="shared" si="8"/>
+        <v>44081</v>
+      </c>
+      <c r="C45" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>44082</v>
+      </c>
+      <c r="D45" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>44083</v>
+      </c>
+      <c r="E45" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>44084</v>
+      </c>
+      <c r="F45" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>44085</v>
+      </c>
+      <c r="G45" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>44086</v>
+      </c>
+      <c r="H45" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>44087</v>
+      </c>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B46" s="17">
+        <f t="shared" si="8"/>
+        <v>44088</v>
+      </c>
+      <c r="C46" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>44089</v>
+      </c>
+      <c r="D46" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>44090</v>
+      </c>
+      <c r="E46" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>44091</v>
+      </c>
+      <c r="F46" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>44092</v>
+      </c>
+      <c r="G46" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>44093</v>
+      </c>
+      <c r="H46" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>44094</v>
+      </c>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B47" s="17">
+        <f t="shared" si="8"/>
+        <v>44095</v>
+      </c>
+      <c r="C47" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>44096</v>
+      </c>
+      <c r="D47" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>44097</v>
+      </c>
+      <c r="E47" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>44098</v>
+      </c>
+      <c r="F47" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>44099</v>
+      </c>
+      <c r="G47" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>44100</v>
+      </c>
+      <c r="H47" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>44101</v>
+      </c>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24">
+        <f>SUM(J44:J47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="15">
+        <f t="shared" si="3"/>
+        <v>44108</v>
+      </c>
+      <c r="B48" s="17">
+        <f t="shared" si="8"/>
+        <v>44102</v>
+      </c>
+      <c r="C48" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>44103</v>
+      </c>
+      <c r="D48" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>44104</v>
+      </c>
+      <c r="E48" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>44105</v>
+      </c>
+      <c r="F48" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>44106</v>
+      </c>
+      <c r="G48" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>44107</v>
+      </c>
+      <c r="H48" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>44108</v>
+      </c>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B49" s="17">
+        <f xml:space="preserve"> 1 + $H48</f>
+        <v>44109</v>
+      </c>
+      <c r="C49" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>44110</v>
+      </c>
+      <c r="D49" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>44111</v>
+      </c>
+      <c r="E49" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>44112</v>
+      </c>
+      <c r="F49" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>44113</v>
+      </c>
+      <c r="G49" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>44114</v>
+      </c>
+      <c r="H49" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>44115</v>
+      </c>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B50" s="17">
+        <f t="shared" ref="B50:B53" si="9" xml:space="preserve"> 1 + $H49</f>
+        <v>44116</v>
+      </c>
+      <c r="C50" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>44117</v>
+      </c>
+      <c r="D50" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>44118</v>
+      </c>
+      <c r="E50" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>44119</v>
+      </c>
+      <c r="F50" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>44120</v>
+      </c>
+      <c r="G50" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>44121</v>
+      </c>
+      <c r="H50" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>44122</v>
+      </c>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B51" s="17">
+        <f t="shared" si="9"/>
+        <v>44123</v>
+      </c>
+      <c r="C51" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>44124</v>
+      </c>
+      <c r="D51" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>44125</v>
+      </c>
+      <c r="E51" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>44126</v>
+      </c>
+      <c r="F51" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>44127</v>
+      </c>
+      <c r="G51" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>44128</v>
+      </c>
+      <c r="H51" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>44129</v>
+      </c>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="15">
+        <f t="shared" si="3"/>
+        <v>44136</v>
+      </c>
+      <c r="B52" s="17">
+        <f t="shared" si="9"/>
+        <v>44130</v>
+      </c>
+      <c r="C52" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>44131</v>
+      </c>
+      <c r="D52" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>44132</v>
+      </c>
+      <c r="E52" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>44133</v>
+      </c>
+      <c r="F52" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>44134</v>
+      </c>
+      <c r="G52" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>44135</v>
+      </c>
+      <c r="H52" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>44136</v>
+      </c>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24">
+        <f>SUM(J48:J52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B53" s="17">
+        <f t="shared" si="9"/>
+        <v>44137</v>
+      </c>
+      <c r="C53" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>44138</v>
+      </c>
+      <c r="D53" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>44139</v>
+      </c>
+      <c r="E53" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>44140</v>
+      </c>
+      <c r="F53" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>44141</v>
+      </c>
+      <c r="G53" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>44142</v>
+      </c>
+      <c r="H53" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>44143</v>
+      </c>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B54" s="17">
+        <f xml:space="preserve"> 1 + $H53</f>
+        <v>44144</v>
+      </c>
+      <c r="C54" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>44145</v>
+      </c>
+      <c r="D54" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>44146</v>
+      </c>
+      <c r="E54" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>44147</v>
+      </c>
+      <c r="F54" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>44148</v>
+      </c>
+      <c r="G54" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>44149</v>
+      </c>
+      <c r="H54" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>44150</v>
+      </c>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B55" s="17">
+        <f t="shared" ref="B55:B57" si="10" xml:space="preserve"> 1 + $H54</f>
+        <v>44151</v>
+      </c>
+      <c r="C55" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>44152</v>
+      </c>
+      <c r="D55" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>44153</v>
+      </c>
+      <c r="E55" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>44154</v>
+      </c>
+      <c r="F55" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>44155</v>
+      </c>
+      <c r="G55" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>44156</v>
+      </c>
+      <c r="H55" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>44157</v>
+      </c>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B56" s="17">
+        <f t="shared" si="10"/>
+        <v>44158</v>
+      </c>
+      <c r="C56" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>44159</v>
+      </c>
+      <c r="D56" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>44160</v>
+      </c>
+      <c r="E56" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>44161</v>
+      </c>
+      <c r="F56" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>44162</v>
+      </c>
+      <c r="G56" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>44163</v>
+      </c>
+      <c r="H56" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>44164</v>
+      </c>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24">
+        <f>SUM(J53:J56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="15">
+        <f t="shared" si="3"/>
+        <v>44171</v>
+      </c>
+      <c r="B57" s="17">
+        <f t="shared" si="10"/>
+        <v>44165</v>
+      </c>
+      <c r="C57" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>44166</v>
+      </c>
+      <c r="D57" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>44167</v>
+      </c>
+      <c r="E57" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>44168</v>
+      </c>
+      <c r="F57" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>44169</v>
+      </c>
+      <c r="G57" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>44170</v>
+      </c>
+      <c r="H57" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>44171</v>
+      </c>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B58" s="17">
+        <f xml:space="preserve"> 1 + $H57</f>
+        <v>44172</v>
+      </c>
+      <c r="C58" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>44173</v>
+      </c>
+      <c r="D58" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>44174</v>
+      </c>
+      <c r="E58" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>44175</v>
+      </c>
+      <c r="F58" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>44176</v>
+      </c>
+      <c r="G58" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>44177</v>
+      </c>
+      <c r="H58" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>44178</v>
+      </c>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B59" s="17">
+        <f t="shared" ref="B59:B60" si="11" xml:space="preserve"> 1 + $H58</f>
+        <v>44179</v>
+      </c>
+      <c r="C59" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>44180</v>
+      </c>
+      <c r="D59" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>44181</v>
+      </c>
+      <c r="E59" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>44182</v>
+      </c>
+      <c r="F59" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>44183</v>
+      </c>
+      <c r="G59" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>44184</v>
+      </c>
+      <c r="H59" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>44185</v>
+      </c>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B60" s="17">
+        <f t="shared" si="11"/>
+        <v>44186</v>
+      </c>
+      <c r="C60" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>44187</v>
+      </c>
+      <c r="D60" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>44188</v>
+      </c>
+      <c r="E60" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>44189</v>
+      </c>
+      <c r="F60" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>44190</v>
+      </c>
+      <c r="G60" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>44191</v>
+      </c>
+      <c r="H60" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>44192</v>
+      </c>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="15">
+        <f t="shared" si="3"/>
+        <v>44199</v>
+      </c>
+      <c r="B61" s="19">
+        <f xml:space="preserve"> 1 + $H60</f>
+        <v>44193</v>
+      </c>
+      <c r="C61" s="17">
+        <f>Tableau145[[#This Row],[Lundi]] + 1</f>
+        <v>44194</v>
+      </c>
+      <c r="D61" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mardi]] + 1</f>
+        <v>44195</v>
+      </c>
+      <c r="E61" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Mercredi]] + 1</f>
+        <v>44196</v>
+      </c>
+      <c r="F61" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Jeudi]] + 1</f>
+        <v>44197</v>
+      </c>
+      <c r="G61" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Vendredi]] + 1</f>
+        <v>44198</v>
+      </c>
+      <c r="H61" s="17">
+        <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
+        <v>44199</v>
+      </c>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24">
+        <f>SUM(J57:J61)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B4:H61">
+    <cfRule type="timePeriod" dxfId="54" priority="16" timePeriod="today">
+      <formula>FLOOR(B4,1)=TODAY()</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="53" priority="17" timePeriod="thisMonth">
+      <formula>AND(MONTH(B4)=MONTH(TODAY()),YEAR(B4)=YEAR(TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:K61">
+    <cfRule type="cellIs" dxfId="50" priority="11" operator="greaterThan">
+      <formula>24.8800001</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="12" operator="between">
+      <formula>18.66000001</formula>
+      <formula>24.88</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="13" operator="between">
+      <formula>12.4400001</formula>
+      <formula>18.66</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="14" operator="between">
+      <formula>6.220001</formula>
+      <formula>12.44</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="15" operator="between">
+      <formula>0</formula>
+      <formula>6.22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:K3">
+    <cfRule type="expression" dxfId="40" priority="1" stopIfTrue="1">
+      <formula>"$k$3 &gt;= 0,9"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="2" stopIfTrue="1">
+      <formula>"$k$3 &lt; 0,9"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="3" stopIfTrue="1">
+      <formula>"$k$3 &lt; 0,8"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="4" stopIfTrue="1">
+      <formula>"$k$3 &lt; 0,7"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="5" stopIfTrue="1">
+      <formula>"$k$3 &lt; 0,6"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="6" stopIfTrue="1">
+      <formula>"$k$3 &lt; 0,5"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="7" stopIfTrue="1">
+      <formula>"$k$3 &lt; 0,4"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="8" stopIfTrue="1">
+      <formula>"$k$3 &lt; 0,3"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="9" stopIfTrue="1">
+      <formula>"$k$3 &lt; 0,2"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="10" stopIfTrue="1">
+      <formula>$L$3 &lt; 0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B9:H9 B4:B8 C4:C8 D4:H8 C10:C61 D10 E10:H10 D11:H61" calculatedColumn="1"/>
+  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -259,7 +259,235 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="136">
+  <dxfs count="109">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF1EB99"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -319,6 +547,234 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF1EB99"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i/>
@@ -377,6 +833,234 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF1EB99"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i/>
@@ -435,1134 +1119,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="8" tint="0.79998168889431442"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDotDot">
-          <color theme="8"/>
-        </left>
-        <right style="dashDotDot">
-          <color theme="8"/>
-        </right>
-        <top style="dashDotDot">
-          <color theme="8"/>
-        </top>
-        <bottom style="dashDotDot">
-          <color theme="8"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color theme="9"/>
-        </left>
-        <right style="dotted">
-          <color theme="9"/>
-        </right>
-        <top style="dotted">
-          <color theme="9"/>
-        </top>
-        <bottom style="dotted">
-          <color theme="9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="8" tint="0.79998168889431442"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDotDot">
-          <color theme="8"/>
-        </left>
-        <right style="dashDotDot">
-          <color theme="8"/>
-        </right>
-        <top style="dashDotDot">
-          <color theme="8"/>
-        </top>
-        <bottom style="dashDotDot">
-          <color theme="8"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color theme="9"/>
-        </left>
-        <right style="dotted">
-          <color theme="9"/>
-        </right>
-        <top style="dotted">
-          <color theme="9"/>
-        </top>
-        <bottom style="dotted">
-          <color theme="9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF1EB99"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="6" tint="0.79998168889431442"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF1EB99"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="6" tint="0.79998168889431442"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="6" tint="0.79998168889431442"/>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="6" tint="0.79998168889431442"/>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="8" tint="0.79998168889431442"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDotDot">
-          <color theme="8"/>
-        </left>
-        <right style="dashDotDot">
-          <color theme="8"/>
-        </right>
-        <top style="dashDotDot">
-          <color theme="8"/>
-        </top>
-        <bottom style="dashDotDot">
-          <color theme="8"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color theme="9"/>
-        </left>
-        <right style="dotted">
-          <color theme="9"/>
-        </right>
-        <top style="dotted">
-          <color theme="9"/>
-        </top>
-        <bottom style="dotted">
-          <color theme="9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="8" tint="0.79998168889431442"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDotDot">
-          <color theme="8"/>
-        </left>
-        <right style="dashDotDot">
-          <color theme="8"/>
-        </right>
-        <top style="dashDotDot">
-          <color theme="8"/>
-        </top>
-        <bottom style="dashDotDot">
-          <color theme="8"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color theme="9"/>
-        </left>
-        <right style="dotted">
-          <color theme="9"/>
-        </right>
-        <top style="dotted">
-          <color theme="9"/>
-        </top>
-        <bottom style="dotted">
-          <color theme="9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF1EB99"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="6" tint="0.79998168889431442"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="6" tint="0.79998168889431442"/>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="8" tint="0.79998168889431442"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDotDot">
-          <color theme="8"/>
-        </left>
-        <right style="dashDotDot">
-          <color theme="8"/>
-        </right>
-        <top style="dashDotDot">
-          <color theme="8"/>
-        </top>
-        <bottom style="dashDotDot">
-          <color theme="8"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color theme="9"/>
-        </left>
-        <right style="dotted">
-          <color theme="9"/>
-        </right>
-        <top style="dotted">
-          <color theme="9"/>
-        </top>
-        <bottom style="dotted">
-          <color theme="9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF1EB99"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="6" tint="0.79998168889431442"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="6" tint="0.79998168889431442"/>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="8" tint="0.79998168889431442"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDotDot">
-          <color theme="8"/>
-        </left>
-        <right style="dashDotDot">
-          <color theme="8"/>
-        </right>
-        <top style="dashDotDot">
-          <color theme="8"/>
-        </top>
-        <bottom style="dashDotDot">
-          <color theme="8"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color theme="9"/>
-        </left>
-        <right style="dotted">
-          <color theme="9"/>
-        </right>
-        <top style="dotted">
-          <color theme="9"/>
-        </top>
-        <bottom style="dotted">
-          <color theme="9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="d"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
@@ -1757,46 +1313,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A2:G13" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A2:G13" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
   <autoFilter ref="A2:G13"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Lundi" dataDxfId="117">
+    <tableColumn id="1" name="Lundi" dataDxfId="90">
       <calculatedColumnFormula xml:space="preserve"> 1 + G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Mardi" dataDxfId="116"/>
-    <tableColumn id="3" name="Mercredi" dataDxfId="115"/>
-    <tableColumn id="4" name="Jeudi" dataDxfId="114"/>
-    <tableColumn id="5" name="Vendredi" dataDxfId="113"/>
-    <tableColumn id="6" name="Samedi" dataDxfId="112"/>
-    <tableColumn id="7" name="Dimanche" dataDxfId="111"/>
+    <tableColumn id="2" name="Mardi" dataDxfId="89"/>
+    <tableColumn id="3" name="Mercredi" dataDxfId="88"/>
+    <tableColumn id="4" name="Jeudi" dataDxfId="87"/>
+    <tableColumn id="5" name="Vendredi" dataDxfId="86"/>
+    <tableColumn id="6" name="Samedi" dataDxfId="85"/>
+    <tableColumn id="7" name="Dimanche" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B3:H61" totalsRowShown="0" headerRowDxfId="93" dataDxfId="91" headerRowBorderDxfId="92" tableBorderDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B3:H61" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="63">
   <autoFilter ref="B3:H61"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Lundi" dataDxfId="89">
+    <tableColumn id="1" name="Lundi" dataDxfId="62">
       <calculatedColumnFormula xml:space="preserve"> 1 + $H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Mardi" dataDxfId="88">
+    <tableColumn id="2" name="Mardi" dataDxfId="61">
       <calculatedColumnFormula xml:space="preserve"> 1 + B4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Mercredi" dataDxfId="87">
+    <tableColumn id="3" name="Mercredi" dataDxfId="60">
       <calculatedColumnFormula xml:space="preserve"> 1 + C4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Jeudi" dataDxfId="86">
+    <tableColumn id="4" name="Jeudi" dataDxfId="59">
       <calculatedColumnFormula xml:space="preserve"> 1 + D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Vendredi" dataDxfId="85">
+    <tableColumn id="5" name="Vendredi" dataDxfId="58">
       <calculatedColumnFormula xml:space="preserve"> 1 + E4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Samedi" dataDxfId="84">
+    <tableColumn id="6" name="Samedi" dataDxfId="57">
       <calculatedColumnFormula xml:space="preserve"> 1 + F4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Dimanche" dataDxfId="83">
+    <tableColumn id="7" name="Dimanche" dataDxfId="56">
       <calculatedColumnFormula xml:space="preserve"> 1 + G4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1805,28 +1361,28 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau14" displayName="Tableau14" ref="B3:H61" totalsRowShown="0" headerRowDxfId="65" dataDxfId="63" headerRowBorderDxfId="64" tableBorderDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau14" displayName="Tableau14" ref="B3:H61" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35">
   <autoFilter ref="B3:H61"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Lundi" dataDxfId="61">
+    <tableColumn id="1" name="Lundi" dataDxfId="34">
       <calculatedColumnFormula xml:space="preserve"> 1 + $H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Mardi" dataDxfId="60">
+    <tableColumn id="2" name="Mardi" dataDxfId="33">
       <calculatedColumnFormula xml:space="preserve"> 1 + B4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Mercredi" dataDxfId="59">
+    <tableColumn id="3" name="Mercredi" dataDxfId="32">
       <calculatedColumnFormula xml:space="preserve"> 1 + C4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Jeudi" dataDxfId="58">
+    <tableColumn id="4" name="Jeudi" dataDxfId="31">
       <calculatedColumnFormula xml:space="preserve"> 1 + D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Vendredi" dataDxfId="57">
+    <tableColumn id="5" name="Vendredi" dataDxfId="30">
       <calculatedColumnFormula xml:space="preserve"> 1 + E4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Samedi" dataDxfId="56">
+    <tableColumn id="6" name="Samedi" dataDxfId="29">
       <calculatedColumnFormula xml:space="preserve"> 1 + F4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Dimanche" dataDxfId="55">
+    <tableColumn id="7" name="Dimanche" dataDxfId="28">
       <calculatedColumnFormula xml:space="preserve"> 1 + G4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1835,28 +1391,28 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau145" displayName="Tableau145" ref="B3:H61" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" headerRowBorderDxfId="17" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau145" displayName="Tableau145" ref="B3:H61" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
   <autoFilter ref="B3:H61"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Lundi" dataDxfId="16">
+    <tableColumn id="1" name="Lundi" dataDxfId="6">
       <calculatedColumnFormula xml:space="preserve"> 1 + $H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Mardi" dataDxfId="15">
+    <tableColumn id="2" name="Mardi" dataDxfId="5">
       <calculatedColumnFormula xml:space="preserve"> 1 + B4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Mercredi" dataDxfId="14">
+    <tableColumn id="3" name="Mercredi" dataDxfId="4">
       <calculatedColumnFormula xml:space="preserve"> 1 + C4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Jeudi" dataDxfId="13">
+    <tableColumn id="4" name="Jeudi" dataDxfId="3">
       <calculatedColumnFormula xml:space="preserve"> 1 + D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Vendredi" dataDxfId="12">
+    <tableColumn id="5" name="Vendredi" dataDxfId="2">
       <calculatedColumnFormula xml:space="preserve"> 1 + E4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Samedi" dataDxfId="11">
+    <tableColumn id="6" name="Samedi" dataDxfId="1">
       <calculatedColumnFormula xml:space="preserve"> 1 + F4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Dimanche" dataDxfId="10">
+    <tableColumn id="7" name="Dimanche" dataDxfId="0">
       <calculatedColumnFormula xml:space="preserve"> 1 + G4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2739,66 +2295,66 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43829</v>
+        <v>43831</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection password="CF7C" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="135" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="17" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="134" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="16" operator="lessThan">
       <formula>$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="133" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="15" operator="lessThan">
       <formula>$H$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="132" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="14" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="131" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="13" operator="lessThan">
       <formula>$H$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="130" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="12" operator="lessThan">
       <formula>$H$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="129" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="11" operator="lessThan">
       <formula>$H$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="128" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="10" operator="lessThan">
       <formula>$H$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="127" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="9" operator="lessThan">
       <formula>$H$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="126" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="8" operator="lessThan">
       <formula>$H$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G13">
-    <cfRule type="timePeriod" dxfId="125" priority="6" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="98" priority="6" timePeriod="today">
       <formula>FLOOR(A3,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="124" priority="7" timePeriod="thisMonth">
+    <cfRule type="timePeriod" dxfId="97" priority="7" timePeriod="thisMonth">
       <formula>AND(MONTH(A3)=MONTH(TODAY()),YEAR(A3)=YEAR(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2817,18 +2373,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="123" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="96" priority="1" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="95" priority="2" operator="between">
       <formula>0.2</formula>
       <formula>0.6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="94" priority="3" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="4" operator="lessThan">
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5184,63 +4740,63 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:H61">
-    <cfRule type="timePeriod" dxfId="110" priority="18" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="83" priority="18" timePeriod="today">
       <formula>FLOOR(B4,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="109" priority="19" timePeriod="thisMonth">
+    <cfRule type="timePeriod" dxfId="82" priority="19" timePeriod="thisMonth">
       <formula>AND(MONTH(B4)=MONTH(TODAY()),YEAR(B4)=YEAR(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:K61">
-    <cfRule type="cellIs" dxfId="108" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="13" operator="greaterThan">
       <formula>24.8800001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="80" priority="14" operator="between">
       <formula>18.66000001</formula>
       <formula>24.88</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="79" priority="15" operator="between">
       <formula>12.4400001</formula>
       <formula>18.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="78" priority="16" operator="between">
       <formula>6.220001</formula>
       <formula>12.44</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="77" priority="17" operator="between">
       <formula>0</formula>
       <formula>6.22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:K3">
-    <cfRule type="expression" dxfId="103" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="1" stopIfTrue="1">
       <formula>"$k$3 &gt;= 0,9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="2" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="3" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="4" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="5" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="6" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="7" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="8" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="9" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="10" stopIfTrue="1">
       <formula>$L$3 &lt; 0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7567,63 +7123,63 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:H61">
-    <cfRule type="timePeriod" dxfId="82" priority="16" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="55" priority="16" timePeriod="today">
       <formula>FLOOR(B4,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="81" priority="17" timePeriod="thisMonth">
+    <cfRule type="timePeriod" dxfId="54" priority="17" timePeriod="thisMonth">
       <formula>AND(MONTH(B4)=MONTH(TODAY()),YEAR(B4)=YEAR(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:K61">
-    <cfRule type="cellIs" dxfId="80" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="11" operator="greaterThan">
       <formula>24.8800001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="52" priority="12" operator="between">
       <formula>18.66000001</formula>
       <formula>24.88</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="51" priority="13" operator="between">
       <formula>12.4400001</formula>
       <formula>18.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="50" priority="14" operator="between">
       <formula>6.220001</formula>
       <formula>12.44</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="49" priority="15" operator="between">
       <formula>0</formula>
       <formula>6.22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:K3">
-    <cfRule type="expression" dxfId="75" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="1" stopIfTrue="1">
       <formula>"$k$3 &gt;= 0,9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="2" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="3" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="4" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="5" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="6" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="7" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="8" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="9" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="10" stopIfTrue="1">
       <formula>$L$3 &lt; 0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7642,7 +7198,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7692,12 +7248,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>0</v>
+        <v>6.95</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0</v>
+        <v>1.1173633440514469E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7915,7 +7471,9 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>43835</v>
       </c>
-      <c r="J9" s="24"/>
+      <c r="J9" s="24">
+        <v>6.95</v>
+      </c>
       <c r="K9" s="24"/>
       <c r="N9" s="20"/>
     </row>
@@ -8065,7 +7623,7 @@
       <c r="J13" s="24"/>
       <c r="K13" s="24">
         <f>SUM(J9:J13)</f>
-        <v>0</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -9831,63 +9389,63 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:H61">
-    <cfRule type="timePeriod" dxfId="54" priority="16" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="27" priority="16" timePeriod="today">
       <formula>FLOOR(B4,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="53" priority="17" timePeriod="thisMonth">
+    <cfRule type="timePeriod" dxfId="26" priority="17" timePeriod="thisMonth">
       <formula>AND(MONTH(B4)=MONTH(TODAY()),YEAR(B4)=YEAR(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:K61">
-    <cfRule type="cellIs" dxfId="50" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="greaterThan">
       <formula>24.8800001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="between">
       <formula>18.66000001</formula>
       <formula>24.88</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="between">
       <formula>12.4400001</formula>
       <formula>18.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="between">
       <formula>6.220001</formula>
       <formula>12.44</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="between">
       <formula>0</formula>
       <formula>6.22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:K3">
-    <cfRule type="expression" dxfId="40" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
       <formula>"$k$3 &gt;= 0,9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="5" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="9" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
       <formula>$L$3 &lt; 0.1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43831</v>
+        <v>43839</v>
       </c>
     </row>
   </sheetData>
@@ -7198,7 +7198,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7248,12 +7248,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>6.95</v>
+        <v>12.57</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>1.1173633440514469E-2</v>
+        <v>2.0209003215434083E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7510,7 +7510,10 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>43842</v>
       </c>
-      <c r="J10" s="24"/>
+      <c r="J10" s="24">
+        <f xml:space="preserve"> 5.62</f>
+        <v>5.62</v>
+      </c>
       <c r="K10" s="24"/>
       <c r="L10" s="21"/>
       <c r="M10" s="22"/>
@@ -7623,7 +7626,7 @@
       <c r="J13" s="24"/>
       <c r="K13" s="24">
         <f>SUM(J9:J13)</f>
-        <v>6.95</v>
+        <v>12.57</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43839</v>
+        <v>43842</v>
       </c>
     </row>
   </sheetData>
@@ -7248,12 +7248,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>12.57</v>
+        <v>20.010000000000002</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>2.0209003215434083E-2</v>
+        <v>3.2170418006430869E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7511,8 +7511,8 @@
         <v>43842</v>
       </c>
       <c r="J10" s="24">
-        <f xml:space="preserve"> 5.62</f>
-        <v>5.62</v>
+        <f xml:space="preserve"> 5.62 + 7.44</f>
+        <v>13.06</v>
       </c>
       <c r="K10" s="24"/>
       <c r="L10" s="21"/>
@@ -7626,7 +7626,7 @@
       <c r="J13" s="24"/>
       <c r="K13" s="24">
         <f>SUM(J9:J13)</f>
-        <v>12.57</v>
+        <v>20.010000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43842</v>
+        <v>43846</v>
       </c>
     </row>
   </sheetData>
@@ -7198,7 +7198,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7248,12 +7248,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>20.010000000000002</v>
+        <v>26.240000000000002</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>3.2170418006430869E-2</v>
+        <v>4.218649517684888E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7551,7 +7551,10 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>43849</v>
       </c>
-      <c r="J11" s="24"/>
+      <c r="J11" s="24">
+        <f xml:space="preserve"> 6.23</f>
+        <v>6.23</v>
+      </c>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -7626,7 +7629,7 @@
       <c r="J13" s="24"/>
       <c r="K13" s="24">
         <f>SUM(J9:J13)</f>
-        <v>20.010000000000002</v>
+        <v>26.240000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43846</v>
+        <v>43849</v>
       </c>
     </row>
   </sheetData>
@@ -7248,12 +7248,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>26.240000000000002</v>
+        <v>32.660000000000004</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>4.218649517684888E-2</v>
+        <v>5.2508038585209006E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7552,8 +7552,8 @@
         <v>43849</v>
       </c>
       <c r="J11" s="24">
-        <f xml:space="preserve"> 6.23</f>
-        <v>6.23</v>
+        <f xml:space="preserve"> 6.23 + 6.42</f>
+        <v>12.65</v>
       </c>
       <c r="K11" s="24"/>
     </row>
@@ -7629,7 +7629,7 @@
       <c r="J13" s="24"/>
       <c r="K13" s="24">
         <f>SUM(J9:J13)</f>
-        <v>26.240000000000002</v>
+        <v>32.660000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43849</v>
+        <v>43862</v>
       </c>
     </row>
   </sheetData>
@@ -7198,7 +7198,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7248,12 +7248,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>32.660000000000004</v>
+        <v>46.74</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>5.2508038585209006E-2</v>
+        <v>7.514469453376206E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7590,7 +7590,10 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>43856</v>
       </c>
-      <c r="J12" s="24"/>
+      <c r="J12" s="24">
+        <f>6.29</f>
+        <v>6.29</v>
+      </c>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -7626,10 +7629,12 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>43863</v>
       </c>
-      <c r="J13" s="24"/>
+      <c r="J13" s="24">
+        <v>7.79</v>
+      </c>
       <c r="K13" s="24">
         <f>SUM(J9:J13)</f>
-        <v>32.660000000000004</v>
+        <v>46.74</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43862</v>
+        <v>43870</v>
       </c>
     </row>
   </sheetData>
@@ -7198,7 +7198,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7248,12 +7248,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>46.74</v>
+        <v>54.88</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>7.514469453376206E-2</v>
+        <v>8.823151125401929E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7670,7 +7670,10 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>43870</v>
       </c>
-      <c r="J14" s="24"/>
+      <c r="J14" s="24">
+        <f xml:space="preserve"> 8.14</f>
+        <v>8.14</v>
+      </c>
       <c r="K14" s="24"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -7781,7 +7784,7 @@
       <c r="J17" s="24"/>
       <c r="K17" s="24">
         <f>SUM(J14:J17)</f>
-        <v>0</v>
+        <v>8.14</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43870</v>
+        <v>43877</v>
       </c>
     </row>
   </sheetData>
@@ -7198,7 +7198,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7248,12 +7248,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>54.88</v>
+        <v>62.900000000000006</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>8.823151125401929E-2</v>
+        <v>0.10112540192926046</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7709,7 +7709,10 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>43877</v>
       </c>
-      <c r="J15" s="24"/>
+      <c r="J15" s="24">
+        <f xml:space="preserve"> 8.02</f>
+        <v>8.02</v>
+      </c>
       <c r="K15" s="24"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -7784,7 +7787,7 @@
       <c r="J17" s="24"/>
       <c r="K17" s="24">
         <f>SUM(J14:J17)</f>
-        <v>8.14</v>
+        <v>16.16</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43877</v>
+        <v>43883</v>
       </c>
     </row>
   </sheetData>
@@ -7198,7 +7198,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7248,12 +7248,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>62.900000000000006</v>
+        <v>72.44</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.10112540192926046</v>
+        <v>0.11646302250803858</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7748,7 +7748,10 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>43884</v>
       </c>
-      <c r="J16" s="24"/>
+      <c r="J16" s="24">
+        <f xml:space="preserve"> 9.54</f>
+        <v>9.5399999999999991</v>
+      </c>
       <c r="K16" s="24"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -7787,7 +7790,7 @@
       <c r="J17" s="24"/>
       <c r="K17" s="24">
         <f>SUM(J14:J17)</f>
-        <v>16.16</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43883</v>
+        <v>43888</v>
       </c>
     </row>
   </sheetData>
@@ -7198,7 +7198,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7248,12 +7248,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>72.44</v>
+        <v>85.35</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.11646302250803858</v>
+        <v>0.13721864951768487</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7787,10 +7787,13 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>43891</v>
       </c>
-      <c r="J17" s="24"/>
+      <c r="J17" s="24">
+        <f xml:space="preserve"> 6.52 + 6.39</f>
+        <v>12.91</v>
+      </c>
       <c r="K17" s="24">
         <f>SUM(J14:J17)</f>
-        <v>25.7</v>
+        <v>38.61</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43888</v>
+        <v>43890</v>
       </c>
     </row>
   </sheetData>
@@ -7248,12 +7248,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>85.35</v>
+        <v>90.37</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.13721864951768487</v>
+        <v>0.14528938906752412</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7788,12 +7788,12 @@
         <v>43891</v>
       </c>
       <c r="J17" s="24">
-        <f xml:space="preserve"> 6.52 + 6.39</f>
-        <v>12.91</v>
+        <f xml:space="preserve"> 6.52 + 6.39 + 5.02</f>
+        <v>17.93</v>
       </c>
       <c r="K17" s="24">
         <f>SUM(J14:J17)</f>
-        <v>38.61</v>
+        <v>43.629999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43890</v>
+        <v>43894</v>
       </c>
     </row>
   </sheetData>
@@ -7198,7 +7198,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7248,12 +7248,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>90.37</v>
+        <v>94.62</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.14528938906752412</v>
+        <v>0.15212218649517686</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7829,7 +7829,10 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>43898</v>
       </c>
-      <c r="J18" s="24"/>
+      <c r="J18" s="24">
+        <f xml:space="preserve"> 4.25</f>
+        <v>4.25</v>
+      </c>
       <c r="K18" s="24"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -7940,7 +7943,7 @@
       <c r="J21" s="24"/>
       <c r="K21" s="24">
         <f>SUM(J18:J21)</f>
-        <v>0</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43894</v>
+        <v>43897</v>
       </c>
     </row>
   </sheetData>
@@ -7248,12 +7248,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>94.62</v>
+        <v>100.68</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.15212218649517686</v>
+        <v>0.16186495176848875</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7830,8 +7830,8 @@
         <v>43898</v>
       </c>
       <c r="J18" s="24">
-        <f xml:space="preserve"> 4.25</f>
-        <v>4.25</v>
+        <f xml:space="preserve"> 4.25 + 6.06</f>
+        <v>10.309999999999999</v>
       </c>
       <c r="K18" s="24"/>
     </row>
@@ -7943,7 +7943,7 @@
       <c r="J21" s="24"/>
       <c r="K21" s="24">
         <f>SUM(J18:J21)</f>
-        <v>4.25</v>
+        <v>10.309999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43897</v>
+        <v>43902</v>
       </c>
     </row>
   </sheetData>
@@ -7248,12 +7248,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>100.68</v>
+        <v>111.48</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.16186495176848875</v>
+        <v>0.17922829581993568</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7830,8 +7830,8 @@
         <v>43898</v>
       </c>
       <c r="J18" s="24">
-        <f xml:space="preserve"> 4.25 + 6.06</f>
-        <v>10.309999999999999</v>
+        <f xml:space="preserve"> 4.25 + 6.06 + 1.23 + 9.57</f>
+        <v>21.11</v>
       </c>
       <c r="K18" s="24"/>
     </row>
@@ -7943,7 +7943,7 @@
       <c r="J21" s="24"/>
       <c r="K21" s="24">
         <f>SUM(J18:J21)</f>
-        <v>10.309999999999999</v>
+        <v>21.11</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43902</v>
+        <v>43904</v>
       </c>
     </row>
   </sheetData>
@@ -7198,7 +7198,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7248,12 +7248,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>111.48</v>
+        <v>121.54</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.17922829581993568</v>
+        <v>0.19540192926045016</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7868,7 +7868,10 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>43905</v>
       </c>
-      <c r="J19" s="24"/>
+      <c r="J19" s="24">
+        <f xml:space="preserve"> 10.06</f>
+        <v>10.06</v>
+      </c>
       <c r="K19" s="24"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -7943,7 +7946,7 @@
       <c r="J21" s="24"/>
       <c r="K21" s="24">
         <f>SUM(J18:J21)</f>
-        <v>21.11</v>
+        <v>31.17</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43904</v>
+        <v>43905</v>
       </c>
     </row>
   </sheetData>
@@ -7248,12 +7248,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>121.54</v>
+        <v>131.66</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.19540192926045016</v>
+        <v>0.21167202572347266</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7869,8 +7869,8 @@
         <v>43905</v>
       </c>
       <c r="J19" s="24">
-        <f xml:space="preserve"> 10.06</f>
-        <v>10.06</v>
+        <f xml:space="preserve"> 10.06 + 10.12</f>
+        <v>20.18</v>
       </c>
       <c r="K19" s="24"/>
     </row>
@@ -7946,7 +7946,7 @@
       <c r="J21" s="24"/>
       <c r="K21" s="24">
         <f>SUM(J18:J21)</f>
-        <v>31.17</v>
+        <v>41.29</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43905</v>
+        <v>43908</v>
       </c>
     </row>
   </sheetData>
@@ -7198,7 +7198,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7248,12 +7248,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>131.66</v>
+        <v>142.24</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.21167202572347266</v>
+        <v>0.22868167202572348</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7907,7 +7907,9 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>43912</v>
       </c>
-      <c r="J20" s="24"/>
+      <c r="J20" s="24">
+        <v>10.58</v>
+      </c>
       <c r="K20" s="24"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -7946,7 +7948,7 @@
       <c r="J21" s="24"/>
       <c r="K21" s="24">
         <f>SUM(J18:J21)</f>
-        <v>41.29</v>
+        <v>51.87</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43908</v>
+        <v>43909</v>
       </c>
     </row>
   </sheetData>
@@ -7248,12 +7248,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>142.24</v>
+        <v>152.28</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.22868167202572348</v>
+        <v>0.24482315112540193</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7908,7 +7908,8 @@
         <v>43912</v>
       </c>
       <c r="J20" s="24">
-        <v>10.58</v>
+        <f xml:space="preserve"> 10.58 + 10.04</f>
+        <v>20.619999999999997</v>
       </c>
       <c r="K20" s="24"/>
     </row>
@@ -7948,7 +7949,7 @@
       <c r="J21" s="24"/>
       <c r="K21" s="24">
         <f>SUM(J18:J21)</f>
-        <v>51.87</v>
+        <v>61.91</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43909</v>
+        <v>43912</v>
       </c>
     </row>
   </sheetData>
@@ -7248,12 +7248,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>152.28</v>
+        <v>163.59</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.24482315112540193</v>
+        <v>0.26300643086816722</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7908,8 +7908,8 @@
         <v>43912</v>
       </c>
       <c r="J20" s="24">
-        <f xml:space="preserve"> 10.58 + 10.04</f>
-        <v>20.619999999999997</v>
+        <f xml:space="preserve"> 10.58 + 10.04 + 11.31</f>
+        <v>31.93</v>
       </c>
       <c r="K20" s="24"/>
     </row>
@@ -7949,7 +7949,7 @@
       <c r="J21" s="24"/>
       <c r="K21" s="24">
         <f>SUM(J18:J21)</f>
-        <v>61.91</v>
+        <v>73.22</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43912</v>
+        <v>43917</v>
       </c>
     </row>
   </sheetData>
@@ -7198,7 +7198,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7248,12 +7248,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>163.59</v>
+        <v>185.69</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.26300643086816722</v>
+        <v>0.2985369774919614</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7946,10 +7946,13 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>43919</v>
       </c>
-      <c r="J21" s="24"/>
+      <c r="J21" s="24">
+        <f xml:space="preserve"> 10.62 + 11.48</f>
+        <v>22.1</v>
+      </c>
       <c r="K21" s="24">
         <f>SUM(J18:J21)</f>
-        <v>73.22</v>
+        <v>95.32</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43917</v>
+        <v>43924</v>
       </c>
     </row>
   </sheetData>
@@ -7198,7 +7198,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7248,12 +7248,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>185.69</v>
+        <v>202.77</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.2985369774919614</v>
+        <v>0.32599678456591641</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7988,7 +7988,10 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>43926</v>
       </c>
-      <c r="J22" s="24"/>
+      <c r="J22" s="24">
+        <f xml:space="preserve"> 7.03 + 10.05</f>
+        <v>17.080000000000002</v>
+      </c>
       <c r="K22" s="24"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -8135,7 +8138,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24">
         <f>SUM(J22:J26)</f>
-        <v>0</v>
+        <v>17.080000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43924</v>
+        <v>43930</v>
       </c>
     </row>
   </sheetData>
@@ -7198,7 +7198,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7248,12 +7248,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>202.77</v>
+        <v>207.29000000000002</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.32599678456591641</v>
+        <v>0.33326366559485532</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8027,7 +8027,10 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>43933</v>
       </c>
-      <c r="J23" s="24"/>
+      <c r="J23" s="24">
+        <f xml:space="preserve"> 4.52</f>
+        <v>4.5199999999999996</v>
+      </c>
       <c r="K23" s="24"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -8138,7 +8141,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24">
         <f>SUM(J22:J26)</f>
-        <v>17.080000000000002</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43930</v>
+        <v>43933</v>
       </c>
     </row>
   </sheetData>
@@ -7248,12 +7248,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>207.29000000000002</v>
+        <v>216.83</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.33326366559485532</v>
+        <v>0.34860128617363345</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8028,8 +8028,8 @@
         <v>43933</v>
       </c>
       <c r="J23" s="24">
-        <f xml:space="preserve"> 4.52</f>
-        <v>4.5199999999999996</v>
+        <f xml:space="preserve"> 4.52 + 9.54</f>
+        <v>14.059999999999999</v>
       </c>
       <c r="K23" s="24"/>
     </row>
@@ -8141,7 +8141,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24">
         <f>SUM(J22:J26)</f>
-        <v>21.6</v>
+        <v>31.14</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -7248,12 +7248,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>216.83</v>
+        <v>219.05</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.34860128617363345</v>
+        <v>0.3521704180064309</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8028,8 +8028,8 @@
         <v>43933</v>
       </c>
       <c r="J23" s="24">
-        <f xml:space="preserve"> 4.52 + 9.54</f>
-        <v>14.059999999999999</v>
+        <f xml:space="preserve"> 4.52 + 9.54 + 2.22</f>
+        <v>16.279999999999998</v>
       </c>
       <c r="K23" s="24"/>
     </row>
@@ -8141,7 +8141,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24">
         <f>SUM(J22:J26)</f>
-        <v>31.14</v>
+        <v>33.36</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43933</v>
+        <v>43938</v>
       </c>
     </row>
   </sheetData>
@@ -7198,7 +7198,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7248,12 +7248,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>219.05</v>
+        <v>230.33</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.3521704180064309</v>
+        <v>0.37030546623794214</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8066,7 +8066,10 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>43940</v>
       </c>
-      <c r="J24" s="24"/>
+      <c r="J24" s="24">
+        <f xml:space="preserve"> 11.28</f>
+        <v>11.28</v>
+      </c>
       <c r="K24" s="24"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -8141,7 +8144,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24">
         <f>SUM(J22:J26)</f>
-        <v>33.36</v>
+        <v>44.64</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43938</v>
+        <v>43943</v>
       </c>
     </row>
   </sheetData>
@@ -7198,7 +7198,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7248,12 +7248,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>230.33</v>
+        <v>237.02</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.37030546623794214</v>
+        <v>0.38106109324758847</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8105,7 +8105,10 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>43947</v>
       </c>
-      <c r="J25" s="24"/>
+      <c r="J25" s="24">
+        <f xml:space="preserve"> 6.69</f>
+        <v>6.69</v>
+      </c>
       <c r="K25" s="24"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -8144,7 +8147,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24">
         <f>SUM(J22:J26)</f>
-        <v>44.64</v>
+        <v>51.33</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43943</v>
+        <v>43946</v>
       </c>
     </row>
   </sheetData>
@@ -7248,12 +7248,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>237.02</v>
+        <v>246.69</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.38106109324758847</v>
+        <v>0.39660771704180064</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8106,8 +8106,8 @@
         <v>43947</v>
       </c>
       <c r="J25" s="24">
-        <f xml:space="preserve"> 6.69</f>
-        <v>6.69</v>
+        <f xml:space="preserve"> 6.69 + 9.67</f>
+        <v>16.36</v>
       </c>
       <c r="K25" s="24"/>
     </row>
@@ -8147,7 +8147,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24">
         <f>SUM(J22:J26)</f>
-        <v>51.33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43946</v>
+        <v>43947</v>
       </c>
     </row>
   </sheetData>
@@ -7248,12 +7248,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>246.69</v>
+        <v>253.28</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.39660771704180064</v>
+        <v>0.40720257234726687</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8106,8 +8106,8 @@
         <v>43947</v>
       </c>
       <c r="J25" s="24">
-        <f xml:space="preserve"> 6.69 + 9.67</f>
-        <v>16.36</v>
+        <f xml:space="preserve"> 6.69 + 9.67 + 6.59</f>
+        <v>22.95</v>
       </c>
       <c r="K25" s="24"/>
     </row>
@@ -8147,7 +8147,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24">
         <f>SUM(J22:J26)</f>
-        <v>61</v>
+        <v>67.59</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43947</v>
+        <v>43958</v>
       </c>
     </row>
   </sheetData>
@@ -7198,7 +7198,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7248,12 +7248,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>253.28</v>
+        <v>258.99</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.40720257234726687</v>
+        <v>0.41638263665594855</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8183,7 +8183,10 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>43961</v>
       </c>
-      <c r="J27" s="24"/>
+      <c r="J27" s="24">
+        <f xml:space="preserve"> 5.71</f>
+        <v>5.71</v>
+      </c>
       <c r="K27" s="24"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -8294,7 +8297,7 @@
       <c r="J30" s="24"/>
       <c r="K30" s="24">
         <f>SUM(J27:J30)</f>
-        <v>0</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43958</v>
+        <v>43962</v>
       </c>
     </row>
   </sheetData>
@@ -7198,7 +7198,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7248,12 +7248,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>258.99</v>
+        <v>265.27999999999997</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.41638263665594855</v>
+        <v>0.42649517684887456</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8184,8 +8184,8 @@
         <v>43961</v>
       </c>
       <c r="J27" s="24">
-        <f xml:space="preserve"> 5.71</f>
-        <v>5.71</v>
+        <f xml:space="preserve"> 5.71 + 6.29</f>
+        <v>12</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -8297,7 +8297,7 @@
       <c r="J30" s="24"/>
       <c r="K30" s="24">
         <f>SUM(J27:J30)</f>
-        <v>5.71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43962</v>
+        <v>43963</v>
       </c>
     </row>
   </sheetData>
@@ -7198,7 +7198,10 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7248,12 +7251,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>265.27999999999997</v>
+        <v>271.90999999999997</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.42649517684887456</v>
+        <v>0.43715434083601279</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8222,7 +8225,10 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>43968</v>
       </c>
-      <c r="J28" s="24"/>
+      <c r="J28" s="24">
+        <f xml:space="preserve"> 6.63</f>
+        <v>6.63</v>
+      </c>
       <c r="K28" s="24"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -8297,7 +8303,7 @@
       <c r="J30" s="24"/>
       <c r="K30" s="24">
         <f>SUM(J27:J30)</f>
-        <v>12</v>
+        <v>18.63</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43963</v>
+        <v>43967</v>
       </c>
     </row>
   </sheetData>
@@ -7198,7 +7198,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
@@ -7251,12 +7251,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>271.90999999999997</v>
+        <v>280.03999999999996</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.43715434083601279</v>
+        <v>0.45022508038585202</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8226,8 +8226,8 @@
         <v>43968</v>
       </c>
       <c r="J28" s="24">
-        <f xml:space="preserve"> 6.63</f>
-        <v>6.63</v>
+        <f xml:space="preserve"> 6.63 + 8.13</f>
+        <v>14.760000000000002</v>
       </c>
       <c r="K28" s="24"/>
     </row>
@@ -8303,7 +8303,7 @@
       <c r="J30" s="24"/>
       <c r="K30" s="24">
         <f>SUM(J27:J30)</f>
-        <v>18.63</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43967</v>
+        <v>43968</v>
       </c>
     </row>
   </sheetData>
@@ -7251,12 +7251,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>280.03999999999996</v>
+        <v>288.83999999999997</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.45022508038585202</v>
+        <v>0.46437299035369772</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8226,8 +8226,8 @@
         <v>43968</v>
       </c>
       <c r="J28" s="24">
-        <f xml:space="preserve"> 6.63 + 8.13</f>
-        <v>14.760000000000002</v>
+        <f xml:space="preserve"> 6.63 + 8.13 + 8.8</f>
+        <v>23.560000000000002</v>
       </c>
       <c r="K28" s="24"/>
     </row>
@@ -8303,7 +8303,7 @@
       <c r="J30" s="24"/>
       <c r="K30" s="24">
         <f>SUM(J27:J30)</f>
-        <v>26.76</v>
+        <v>35.56</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43968</v>
+        <v>43973</v>
       </c>
     </row>
   </sheetData>
@@ -7201,7 +7201,7 @@
       <pane xSplit="8" ySplit="3" topLeftCell="I13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7251,12 +7251,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>288.83999999999997</v>
+        <v>302.85999999999996</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.46437299035369772</v>
+        <v>0.4869131832797427</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8264,7 +8264,10 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>43975</v>
       </c>
-      <c r="J29" s="24"/>
+      <c r="J29" s="24">
+        <f xml:space="preserve"> 6.9 +7.12</f>
+        <v>14.02</v>
+      </c>
       <c r="K29" s="24"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -8303,7 +8306,7 @@
       <c r="J30" s="24"/>
       <c r="K30" s="24">
         <f>SUM(J27:J30)</f>
-        <v>35.56</v>
+        <v>49.58</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43973</v>
+        <v>43975</v>
       </c>
     </row>
   </sheetData>
@@ -7251,12 +7251,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>302.85999999999996</v>
+        <v>311.53999999999996</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.4869131832797427</v>
+        <v>0.50086816720257232</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8265,8 +8265,8 @@
         <v>43975</v>
       </c>
       <c r="J29" s="24">
-        <f xml:space="preserve"> 6.9 +7.12</f>
-        <v>14.02</v>
+        <f xml:space="preserve"> 6.9 +7.12 + 8.68</f>
+        <v>22.7</v>
       </c>
       <c r="K29" s="24"/>
     </row>
@@ -8306,7 +8306,7 @@
       <c r="J30" s="24"/>
       <c r="K30" s="24">
         <f>SUM(J27:J30)</f>
-        <v>49.58</v>
+        <v>58.260000000000005</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43975</v>
+        <v>43977</v>
       </c>
     </row>
   </sheetData>
@@ -7201,7 +7201,7 @@
       <pane xSplit="8" ySplit="3" topLeftCell="I13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7251,12 +7251,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>311.53999999999996</v>
+        <v>318.47999999999996</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.50086816720257232</v>
+        <v>0.51202572347266873</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8303,10 +8303,13 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>43982</v>
       </c>
-      <c r="J30" s="24"/>
+      <c r="J30" s="24">
+        <f xml:space="preserve"> 6.94</f>
+        <v>6.94</v>
+      </c>
       <c r="K30" s="24">
         <f>SUM(J27:J30)</f>
-        <v>58.260000000000005</v>
+        <v>65.2</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43977</v>
+        <v>43979</v>
       </c>
     </row>
   </sheetData>
@@ -7251,12 +7251,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>318.47999999999996</v>
+        <v>325.83999999999997</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.51202572347266873</v>
+        <v>0.52385852090032148</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8304,12 +8304,12 @@
         <v>43982</v>
       </c>
       <c r="J30" s="24">
-        <f xml:space="preserve"> 6.94</f>
-        <v>6.94</v>
+        <f xml:space="preserve"> 6.94 + 7.36</f>
+        <v>14.3</v>
       </c>
       <c r="K30" s="24">
         <f>SUM(J27:J30)</f>
-        <v>65.2</v>
+        <v>72.56</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43979</v>
+        <v>43980</v>
       </c>
     </row>
   </sheetData>
@@ -7251,12 +7251,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>325.83999999999997</v>
+        <v>333.65999999999997</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.52385852090032148</v>
+        <v>0.53643086816720253</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8304,12 +8304,12 @@
         <v>43982</v>
       </c>
       <c r="J30" s="24">
-        <f xml:space="preserve"> 6.94 + 7.36</f>
-        <v>14.3</v>
+        <f xml:space="preserve"> 6.94 + 7.36 + 7.82</f>
+        <v>22.12</v>
       </c>
       <c r="K30" s="24">
         <f>SUM(J27:J30)</f>
-        <v>72.56</v>
+        <v>80.38000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43980</v>
+        <v>43984</v>
       </c>
     </row>
   </sheetData>
@@ -7198,10 +7198,10 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
+      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7251,12 +7251,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>333.65999999999997</v>
+        <v>349.15999999999997</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.53643086816720253</v>
+        <v>0.56135048231511253</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8304,12 +8304,12 @@
         <v>43982</v>
       </c>
       <c r="J30" s="24">
-        <f xml:space="preserve"> 6.94 + 7.36 + 7.82</f>
-        <v>22.12</v>
+        <f xml:space="preserve"> 6.94 + 7.36 + 7.82 + 8.12</f>
+        <v>30.240000000000002</v>
       </c>
       <c r="K30" s="24">
         <f>SUM(J27:J30)</f>
-        <v>80.38000000000001</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -8345,7 +8345,10 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>43989</v>
       </c>
-      <c r="J31" s="24"/>
+      <c r="J31" s="24">
+        <f xml:space="preserve"> 7.38</f>
+        <v>7.38</v>
+      </c>
       <c r="K31" s="24"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -8456,7 +8459,7 @@
       <c r="J34" s="24"/>
       <c r="K34" s="24">
         <f>SUM(J31:J34)</f>
-        <v>0</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43984</v>
+        <v>43989</v>
       </c>
     </row>
   </sheetData>
@@ -7251,12 +7251,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>349.15999999999997</v>
+        <v>356.28999999999996</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.56135048231511253</v>
+        <v>0.57281350482315108</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8346,8 +8346,8 @@
         <v>43989</v>
       </c>
       <c r="J31" s="24">
-        <f xml:space="preserve"> 7.38</f>
-        <v>7.38</v>
+        <f xml:space="preserve"> 7.38 + 7.13</f>
+        <v>14.51</v>
       </c>
       <c r="K31" s="24"/>
     </row>
@@ -8459,7 +8459,7 @@
       <c r="J34" s="24"/>
       <c r="K34" s="24">
         <f>SUM(J31:J34)</f>
-        <v>7.38</v>
+        <v>14.51</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2295,7 +2295,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43989</v>
+        <v>43991</v>
       </c>
     </row>
   </sheetData>
@@ -7201,7 +7201,7 @@
       <pane xSplit="8" ySplit="3" topLeftCell="I16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
+      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7251,12 +7251,12 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>356.28999999999996</v>
+        <v>363.30999999999995</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.57281350482315108</v>
+        <v>0.5840996784565915</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8384,7 +8384,9 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>43996</v>
       </c>
-      <c r="J32" s="24"/>
+      <c r="J32" s="24">
+        <v>7.02</v>
+      </c>
       <c r="K32" s="24"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -8459,7 +8461,7 @@
       <c r="J34" s="24"/>
       <c r="K34" s="24">
         <f>SUM(J31:J34)</f>
-        <v>14.51</v>
+        <v>21.53</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -16,12 +16,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
   <si>
     <t>Lundi</t>
   </si>
@@ -61,16 +61,20 @@
   <si>
     <t>7,65 + 7,12</t>
   </si>
+  <si>
+    <t>Reste</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; mi&quot;;[Red]\-#,##0.00&quot; mi&quot;"/>
     <numFmt numFmtId="165" formatCode="d"/>
     <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm;@"/>
     <numFmt numFmtId="167" formatCode="mmmm"/>
+    <numFmt numFmtId="168" formatCode="##0.00,%;[Red]\-##0.00,%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -183,7 +187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -254,6 +258,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1154,7 +1163,7 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="\j"/>
+      <numFmt numFmtId="169" formatCode="\j"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -2295,7 +2304,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43991</v>
+        <v>43993</v>
       </c>
     </row>
   </sheetData>
@@ -7198,7 +7207,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="J25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
@@ -7226,6 +7235,9 @@
       <c r="L2" s="28">
         <v>622</v>
       </c>
+      <c r="M2" s="31" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
@@ -7251,12 +7263,20 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>363.30999999999995</v>
+        <v>370.89</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.5840996784565915</v>
+        <v>0.5962861736334405</v>
+      </c>
+      <c r="M3" s="29">
+        <f xml:space="preserve"> $J$3 - $L$2</f>
+        <v>-251.11</v>
+      </c>
+      <c r="N3" s="30">
+        <f xml:space="preserve"> $M$3 / $L$2 * 1000</f>
+        <v>-403.71382636655949</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8384,8 +8404,9 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>43996</v>
       </c>
-      <c r="J32" s="24">
-        <v>7.02</v>
+      <c r="J32" s="29">
+        <f xml:space="preserve"> 7.02 + 7.58</f>
+        <v>14.6</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -8461,7 +8482,7 @@
       <c r="J34" s="24"/>
       <c r="K34" s="24">
         <f>SUM(J31:J34)</f>
-        <v>21.53</v>
+        <v>29.11</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -9517,11 +9538,12 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="B9:H9 B4:B8 C4:C8 D4:H8 C10:C61 D10 E10:H10 D11:H61" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -2304,7 +2304,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43993</v>
+        <v>43997</v>
       </c>
     </row>
   </sheetData>
@@ -7210,7 +7210,7 @@
       <pane xSplit="8" ySplit="3" topLeftCell="J25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
+      <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7263,20 +7263,20 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>370.89</v>
+        <v>377.71999999999997</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.5962861736334405</v>
+        <v>0.60726688102893889</v>
       </c>
       <c r="M3" s="29">
         <f xml:space="preserve"> $J$3 - $L$2</f>
-        <v>-251.11</v>
+        <v>-244.28000000000003</v>
       </c>
       <c r="N3" s="30">
         <f xml:space="preserve"> $M$3 / $L$2 * 1000</f>
-        <v>-403.71382636655949</v>
+        <v>-392.73311897106117</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8443,7 +8443,10 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>44003</v>
       </c>
-      <c r="J33" s="24"/>
+      <c r="J33" s="24">
+        <f xml:space="preserve"> 6.83</f>
+        <v>6.83</v>
+      </c>
       <c r="K33" s="24"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -8482,7 +8485,7 @@
       <c r="J34" s="24"/>
       <c r="K34" s="24">
         <f>SUM(J31:J34)</f>
-        <v>29.11</v>
+        <v>35.94</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2304,7 +2304,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>43997</v>
+        <v>44000</v>
       </c>
     </row>
   </sheetData>
@@ -7263,20 +7263,20 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>377.71999999999997</v>
+        <v>384.90999999999997</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.60726688102893889</v>
+        <v>0.61882636655948553</v>
       </c>
       <c r="M3" s="29">
         <f xml:space="preserve"> $J$3 - $L$2</f>
-        <v>-244.28000000000003</v>
+        <v>-237.09000000000003</v>
       </c>
       <c r="N3" s="30">
         <f xml:space="preserve"> $M$3 / $L$2 * 1000</f>
-        <v>-392.73311897106117</v>
+        <v>-381.17363344051455</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8444,8 +8444,8 @@
         <v>44003</v>
       </c>
       <c r="J33" s="24">
-        <f xml:space="preserve"> 6.83</f>
-        <v>6.83</v>
+        <f xml:space="preserve"> 6.83 + 7.19</f>
+        <v>14.02</v>
       </c>
       <c r="K33" s="24"/>
     </row>
@@ -8485,7 +8485,7 @@
       <c r="J34" s="24"/>
       <c r="K34" s="24">
         <f>SUM(J31:J34)</f>
-        <v>35.94</v>
+        <v>43.129999999999995</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -2304,7 +2304,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>44000</v>
+        <v>44026</v>
       </c>
     </row>
   </sheetData>
@@ -7210,7 +7210,7 @@
       <pane xSplit="8" ySplit="3" topLeftCell="J25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
+      <selection pane="bottomRight" activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7263,20 +7263,20 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>384.90999999999997</v>
+        <v>410.09999999999997</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.61882636655948553</v>
+        <v>0.65932475884244368</v>
       </c>
       <c r="M3" s="29">
         <f xml:space="preserve"> $J$3 - $L$2</f>
-        <v>-237.09000000000003</v>
+        <v>-211.90000000000003</v>
       </c>
       <c r="N3" s="30">
         <f xml:space="preserve"> $M$3 / $L$2 * 1000</f>
-        <v>-381.17363344051455</v>
+        <v>-340.67524115755634</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8482,10 +8482,12 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>44010</v>
       </c>
-      <c r="J34" s="24"/>
+      <c r="J34" s="24">
+        <v>8.99</v>
+      </c>
       <c r="K34" s="24">
         <f>SUM(J31:J34)</f>
-        <v>43.129999999999995</v>
+        <v>52.12</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -8521,7 +8523,10 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>44017</v>
       </c>
-      <c r="J35" s="24"/>
+      <c r="J35" s="24">
+        <f xml:space="preserve"> 4.48 + 4.44</f>
+        <v>8.9200000000000017</v>
+      </c>
       <c r="K35" s="24"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -8557,7 +8562,9 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>44024</v>
       </c>
-      <c r="J36" s="24"/>
+      <c r="J36" s="24">
+        <v>7.28</v>
+      </c>
       <c r="K36" s="24"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -8668,7 +8675,7 @@
       <c r="J39" s="24"/>
       <c r="K39" s="24">
         <f>SUM(J35:J39)</f>
-        <v>0</v>
+        <v>16.200000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2304,7 +2304,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>44026</v>
+        <v>44029</v>
       </c>
     </row>
   </sheetData>
@@ -7263,20 +7263,20 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>410.09999999999997</v>
+        <v>419.10999999999996</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.65932475884244368</v>
+        <v>0.67381028938906751</v>
       </c>
       <c r="M3" s="29">
         <f xml:space="preserve"> $J$3 - $L$2</f>
-        <v>-211.90000000000003</v>
+        <v>-202.89000000000004</v>
       </c>
       <c r="N3" s="30">
         <f xml:space="preserve"> $M$3 / $L$2 * 1000</f>
-        <v>-340.67524115755634</v>
+        <v>-326.18971061093254</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8600,7 +8600,9 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>44031</v>
       </c>
-      <c r="J37" s="24"/>
+      <c r="J37" s="24">
+        <v>9.01</v>
+      </c>
       <c r="K37" s="24"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -8675,7 +8677,7 @@
       <c r="J39" s="24"/>
       <c r="K39" s="24">
         <f>SUM(J35:J39)</f>
-        <v>16.200000000000003</v>
+        <v>25.21</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2304,7 +2304,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>44029</v>
+        <v>44033</v>
       </c>
     </row>
   </sheetData>
@@ -7263,20 +7263,20 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>419.10999999999996</v>
+        <v>427.53999999999996</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.67381028938906751</v>
+        <v>0.68736334405144683</v>
       </c>
       <c r="M3" s="29">
         <f xml:space="preserve"> $J$3 - $L$2</f>
-        <v>-202.89000000000004</v>
+        <v>-194.46000000000004</v>
       </c>
       <c r="N3" s="30">
         <f xml:space="preserve"> $M$3 / $L$2 * 1000</f>
-        <v>-326.18971061093254</v>
+        <v>-312.63665594855308</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8601,7 +8601,8 @@
         <v>44031</v>
       </c>
       <c r="J37" s="24">
-        <v>9.01</v>
+        <f xml:space="preserve"> 9.01 + 8.43</f>
+        <v>17.439999999999998</v>
       </c>
       <c r="K37" s="24"/>
     </row>
@@ -8677,7 +8678,7 @@
       <c r="J39" s="24"/>
       <c r="K39" s="24">
         <f>SUM(J35:J39)</f>
-        <v>25.21</v>
+        <v>33.64</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -2304,7 +2304,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>44033</v>
+        <v>44037</v>
       </c>
     </row>
   </sheetData>
@@ -7210,7 +7210,7 @@
       <pane xSplit="8" ySplit="3" topLeftCell="J25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J37" sqref="J37"/>
+      <selection pane="bottomRight" activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7263,20 +7263,20 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>427.53999999999996</v>
+        <v>442.46999999999997</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.68736334405144683</v>
+        <v>0.71136655948553051</v>
       </c>
       <c r="M3" s="29">
         <f xml:space="preserve"> $J$3 - $L$2</f>
-        <v>-194.46000000000004</v>
+        <v>-179.53000000000003</v>
       </c>
       <c r="N3" s="30">
         <f xml:space="preserve"> $M$3 / $L$2 * 1000</f>
-        <v>-312.63665594855308</v>
+        <v>-288.6334405144695</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8639,7 +8639,10 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>44038</v>
       </c>
-      <c r="J38" s="24"/>
+      <c r="J38" s="24">
+        <f xml:space="preserve"> 14.93</f>
+        <v>14.93</v>
+      </c>
       <c r="K38" s="24"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -8678,7 +8681,7 @@
       <c r="J39" s="24"/>
       <c r="K39" s="24">
         <f>SUM(J35:J39)</f>
-        <v>33.64</v>
+        <v>48.57</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2304,7 +2304,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>44037</v>
+        <v>44038</v>
       </c>
     </row>
   </sheetData>
@@ -7263,20 +7263,20 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>442.46999999999997</v>
+        <v>447.90999999999997</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.71136655948553051</v>
+        <v>0.72011254019292603</v>
       </c>
       <c r="M3" s="29">
         <f xml:space="preserve"> $J$3 - $L$2</f>
-        <v>-179.53000000000003</v>
+        <v>-174.09000000000003</v>
       </c>
       <c r="N3" s="30">
         <f xml:space="preserve"> $M$3 / $L$2 * 1000</f>
-        <v>-288.6334405144695</v>
+        <v>-279.88745980707404</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8640,8 +8640,8 @@
         <v>44038</v>
       </c>
       <c r="J38" s="24">
-        <f xml:space="preserve"> 14.93</f>
-        <v>14.93</v>
+        <f xml:space="preserve"> 14.93 + 5.44</f>
+        <v>20.37</v>
       </c>
       <c r="K38" s="24"/>
     </row>
@@ -8681,7 +8681,7 @@
       <c r="J39" s="24"/>
       <c r="K39" s="24">
         <f>SUM(J35:J39)</f>
-        <v>48.57</v>
+        <v>54.010000000000005</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2304,7 +2304,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>44038</v>
+        <v>44044</v>
       </c>
     </row>
   </sheetData>
@@ -7210,7 +7210,7 @@
       <pane xSplit="8" ySplit="3" topLeftCell="J25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J38" sqref="J38"/>
+      <selection pane="bottomRight" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7263,20 +7263,20 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>447.90999999999997</v>
+        <v>456.59999999999997</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.72011254019292603</v>
+        <v>0.73408360128617356</v>
       </c>
       <c r="M3" s="29">
         <f xml:space="preserve"> $J$3 - $L$2</f>
-        <v>-174.09000000000003</v>
+        <v>-165.40000000000003</v>
       </c>
       <c r="N3" s="30">
         <f xml:space="preserve"> $M$3 / $L$2 * 1000</f>
-        <v>-279.88745980707404</v>
+        <v>-265.91639871382642</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8678,10 +8678,13 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>44045</v>
       </c>
-      <c r="J39" s="24"/>
+      <c r="J39" s="24">
+        <f xml:space="preserve"> 8.69</f>
+        <v>8.69</v>
+      </c>
       <c r="K39" s="24">
         <f>SUM(J35:J39)</f>
-        <v>54.010000000000005</v>
+        <v>62.7</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2304,7 +2304,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>44044</v>
+        <v>44065</v>
       </c>
     </row>
   </sheetData>
@@ -7210,7 +7210,7 @@
       <pane xSplit="8" ySplit="3" topLeftCell="J25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J39" sqref="J39"/>
+      <selection pane="bottomRight" activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7263,20 +7263,20 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>456.59999999999997</v>
+        <v>463.11999999999995</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.73408360128617356</v>
+        <v>0.74456591639871372</v>
       </c>
       <c r="M3" s="29">
         <f xml:space="preserve"> $J$3 - $L$2</f>
-        <v>-165.40000000000003</v>
+        <v>-158.88000000000005</v>
       </c>
       <c r="N3" s="30">
         <f xml:space="preserve"> $M$3 / $L$2 * 1000</f>
-        <v>-265.91639871382642</v>
+        <v>-255.43408360128629</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8792,7 +8792,10 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>44066</v>
       </c>
-      <c r="J42" s="24"/>
+      <c r="J42" s="24">
+        <f xml:space="preserve"> 6.52</f>
+        <v>6.52</v>
+      </c>
       <c r="K42" s="24"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -8831,7 +8834,7 @@
       <c r="J43" s="24"/>
       <c r="K43" s="24">
         <f>SUM(J40:J43)</f>
-        <v>0</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -2304,7 +2304,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>44065</v>
+        <v>44066</v>
       </c>
     </row>
   </sheetData>
@@ -7263,20 +7263,20 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>463.11999999999995</v>
+        <v>471.27</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.74456591639871372</v>
+        <v>0.75766881028938904</v>
       </c>
       <c r="M3" s="29">
         <f xml:space="preserve"> $J$3 - $L$2</f>
-        <v>-158.88000000000005</v>
+        <v>-150.73000000000002</v>
       </c>
       <c r="N3" s="30">
         <f xml:space="preserve"> $M$3 / $L$2 * 1000</f>
-        <v>-255.43408360128629</v>
+        <v>-242.33118971061097</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8793,8 +8793,8 @@
         <v>44066</v>
       </c>
       <c r="J42" s="24">
-        <f xml:space="preserve"> 6.52</f>
-        <v>6.52</v>
+        <f xml:space="preserve"> 6.52 + 8.15</f>
+        <v>14.67</v>
       </c>
       <c r="K42" s="24"/>
     </row>
@@ -8834,7 +8834,7 @@
       <c r="J43" s="24"/>
       <c r="K43" s="24">
         <f>SUM(J40:J43)</f>
-        <v>6.52</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2304,7 +2304,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>44066</v>
+        <v>44070</v>
       </c>
     </row>
   </sheetData>
@@ -7210,7 +7210,7 @@
       <pane xSplit="8" ySplit="3" topLeftCell="J25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J42" sqref="J42"/>
+      <selection pane="bottomRight" activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7263,20 +7263,20 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>471.27</v>
+        <v>478.15999999999997</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.75766881028938904</v>
+        <v>0.76874598070739542</v>
       </c>
       <c r="M3" s="29">
         <f xml:space="preserve"> $J$3 - $L$2</f>
-        <v>-150.73000000000002</v>
+        <v>-143.84000000000003</v>
       </c>
       <c r="N3" s="30">
         <f xml:space="preserve"> $M$3 / $L$2 * 1000</f>
-        <v>-242.33118971061097</v>
+        <v>-231.25401929260457</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8831,10 +8831,13 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>44073</v>
       </c>
-      <c r="J43" s="24"/>
+      <c r="J43" s="24">
+        <f xml:space="preserve"> 6.89</f>
+        <v>6.89</v>
+      </c>
       <c r="K43" s="24">
         <f>SUM(J40:J43)</f>
-        <v>14.67</v>
+        <v>21.56</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -2304,7 +2304,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>44070</v>
+        <v>44071</v>
       </c>
     </row>
   </sheetData>
@@ -7263,20 +7263,20 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>478.15999999999997</v>
+        <v>484.71</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.76874598070739542</v>
+        <v>0.77927652733118968</v>
       </c>
       <c r="M3" s="29">
         <f xml:space="preserve"> $J$3 - $L$2</f>
-        <v>-143.84000000000003</v>
+        <v>-137.29000000000002</v>
       </c>
       <c r="N3" s="30">
         <f xml:space="preserve"> $M$3 / $L$2 * 1000</f>
-        <v>-231.25401929260457</v>
+        <v>-220.7234726688103</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8832,12 +8832,12 @@
         <v>44073</v>
       </c>
       <c r="J43" s="24">
-        <f xml:space="preserve"> 6.89</f>
-        <v>6.89</v>
+        <f xml:space="preserve"> 6.89 + 6.55</f>
+        <v>13.44</v>
       </c>
       <c r="K43" s="24">
         <f>SUM(J40:J43)</f>
-        <v>21.56</v>
+        <v>28.11</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2304,7 +2304,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>44071</v>
+        <v>44073</v>
       </c>
     </row>
   </sheetData>
@@ -7207,7 +7207,7 @@
   <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="J25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="J32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="J43" sqref="J43"/>
@@ -7263,20 +7263,20 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>484.71</v>
+        <v>494.78</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.77927652733118968</v>
+        <v>0.79546623794212212</v>
       </c>
       <c r="M3" s="29">
         <f xml:space="preserve"> $J$3 - $L$2</f>
-        <v>-137.29000000000002</v>
+        <v>-127.22000000000003</v>
       </c>
       <c r="N3" s="30">
         <f xml:space="preserve"> $M$3 / $L$2 * 1000</f>
-        <v>-220.7234726688103</v>
+        <v>-204.53376205787785</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8832,12 +8832,12 @@
         <v>44073</v>
       </c>
       <c r="J43" s="24">
-        <f xml:space="preserve"> 6.89 + 6.55</f>
-        <v>13.44</v>
+        <f xml:space="preserve"> 6.89 + 6.55 + 10.07</f>
+        <v>23.509999999999998</v>
       </c>
       <c r="K43" s="24">
         <f>SUM(J40:J43)</f>
-        <v>28.11</v>
+        <v>38.18</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2304,7 +2304,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>44073</v>
+        <v>44083</v>
       </c>
     </row>
   </sheetData>
@@ -7210,7 +7210,7 @@
       <pane xSplit="8" ySplit="3" topLeftCell="J32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J43" sqref="J43"/>
+      <selection pane="bottomRight" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7263,20 +7263,20 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>494.78</v>
+        <v>501.71</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.79546623794212212</v>
+        <v>0.80660771704180056</v>
       </c>
       <c r="M3" s="29">
         <f xml:space="preserve"> $J$3 - $L$2</f>
-        <v>-127.22000000000003</v>
+        <v>-120.29000000000002</v>
       </c>
       <c r="N3" s="30">
         <f xml:space="preserve"> $M$3 / $L$2 * 1000</f>
-        <v>-204.53376205787785</v>
+        <v>-193.39228295819939</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8909,7 +8909,10 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>44087</v>
       </c>
-      <c r="J45" s="24"/>
+      <c r="J45" s="24">
+        <f xml:space="preserve"> 6.93</f>
+        <v>6.93</v>
+      </c>
       <c r="K45" s="24"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -8984,7 +8987,7 @@
       <c r="J47" s="24"/>
       <c r="K47" s="24">
         <f>SUM(J44:J47)</f>
-        <v>0</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2304,7 +2304,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>44083</v>
+        <v>44084</v>
       </c>
     </row>
   </sheetData>
@@ -7263,20 +7263,20 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>501.71</v>
+        <v>509.04999999999995</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.80660771704180056</v>
+        <v>0.81840836012861728</v>
       </c>
       <c r="M3" s="29">
         <f xml:space="preserve"> $J$3 - $L$2</f>
-        <v>-120.29000000000002</v>
+        <v>-112.95000000000005</v>
       </c>
       <c r="N3" s="30">
         <f xml:space="preserve"> $M$3 / $L$2 * 1000</f>
-        <v>-193.39228295819939</v>
+        <v>-181.59163987138271</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8910,8 +8910,8 @@
         <v>44087</v>
       </c>
       <c r="J45" s="24">
-        <f xml:space="preserve"> 6.93</f>
-        <v>6.93</v>
+        <f xml:space="preserve"> 6.93 + 7.34</f>
+        <v>14.27</v>
       </c>
       <c r="K45" s="24"/>
     </row>
@@ -8987,7 +8987,7 @@
       <c r="J47" s="24"/>
       <c r="K47" s="24">
         <f>SUM(J44:J47)</f>
-        <v>6.93</v>
+        <v>14.27</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2304,7 +2304,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>44084</v>
+        <v>44086</v>
       </c>
     </row>
   </sheetData>
@@ -7263,20 +7263,20 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>509.04999999999995</v>
+        <v>518.88</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.81840836012861728</v>
+        <v>0.83421221864951767</v>
       </c>
       <c r="M3" s="29">
         <f xml:space="preserve"> $J$3 - $L$2</f>
-        <v>-112.95000000000005</v>
+        <v>-103.12</v>
       </c>
       <c r="N3" s="30">
         <f xml:space="preserve"> $M$3 / $L$2 * 1000</f>
-        <v>-181.59163987138271</v>
+        <v>-165.78778135048233</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8910,8 +8910,8 @@
         <v>44087</v>
       </c>
       <c r="J45" s="24">
-        <f xml:space="preserve"> 6.93 + 7.34</f>
-        <v>14.27</v>
+        <f xml:space="preserve"> 6.93 + 7.34 + 9.83</f>
+        <v>24.1</v>
       </c>
       <c r="K45" s="24"/>
     </row>
@@ -8987,7 +8987,7 @@
       <c r="J47" s="24"/>
       <c r="K47" s="24">
         <f>SUM(J44:J47)</f>
-        <v>14.27</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -2304,7 +2304,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>44086</v>
+        <v>44092</v>
       </c>
     </row>
   </sheetData>
@@ -7210,7 +7210,7 @@
       <pane xSplit="8" ySplit="3" topLeftCell="J32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J45" sqref="J45"/>
+      <selection pane="bottomRight" activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7263,20 +7263,20 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>518.88</v>
+        <v>526.12</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.83421221864951767</v>
+        <v>0.84585209003215434</v>
       </c>
       <c r="M3" s="29">
         <f xml:space="preserve"> $J$3 - $L$2</f>
-        <v>-103.12</v>
+        <v>-95.88</v>
       </c>
       <c r="N3" s="30">
         <f xml:space="preserve"> $M$3 / $L$2 * 1000</f>
-        <v>-165.78778135048233</v>
+        <v>-154.14790996784566</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8948,7 +8948,10 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>44094</v>
       </c>
-      <c r="J46" s="24"/>
+      <c r="J46" s="24">
+        <f xml:space="preserve"> 7.24</f>
+        <v>7.24</v>
+      </c>
       <c r="K46" s="24"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -8987,7 +8990,7 @@
       <c r="J47" s="24"/>
       <c r="K47" s="24">
         <f>SUM(J44:J47)</f>
-        <v>24.1</v>
+        <v>31.340000000000003</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2304,7 +2304,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>44092</v>
+        <v>44094</v>
       </c>
     </row>
   </sheetData>
@@ -7263,20 +7263,20 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>526.12</v>
+        <v>534.59</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.84585209003215434</v>
+        <v>0.85946945337620584</v>
       </c>
       <c r="M3" s="29">
         <f xml:space="preserve"> $J$3 - $L$2</f>
-        <v>-95.88</v>
+        <v>-87.409999999999968</v>
       </c>
       <c r="N3" s="30">
         <f xml:space="preserve"> $M$3 / $L$2 * 1000</f>
-        <v>-154.14790996784566</v>
+        <v>-140.53054662379415</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8949,8 +8949,8 @@
         <v>44094</v>
       </c>
       <c r="J46" s="24">
-        <f xml:space="preserve"> 7.24</f>
-        <v>7.24</v>
+        <f xml:space="preserve"> 7.24 + 8.47</f>
+        <v>15.71</v>
       </c>
       <c r="K46" s="24"/>
     </row>
@@ -8990,7 +8990,7 @@
       <c r="J47" s="24"/>
       <c r="K47" s="24">
         <f>SUM(J44:J47)</f>
-        <v>31.340000000000003</v>
+        <v>39.81</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2304,7 +2304,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>44094</v>
+        <v>44096</v>
       </c>
     </row>
   </sheetData>
@@ -7210,7 +7210,7 @@
       <pane xSplit="8" ySplit="3" topLeftCell="J32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J46" sqref="J46"/>
+      <selection pane="bottomRight" activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7263,20 +7263,20 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>534.59</v>
+        <v>541.98</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.85946945337620584</v>
+        <v>0.87135048231511258</v>
       </c>
       <c r="M3" s="29">
         <f xml:space="preserve"> $J$3 - $L$2</f>
-        <v>-87.409999999999968</v>
+        <v>-80.019999999999982</v>
       </c>
       <c r="N3" s="30">
         <f xml:space="preserve"> $M$3 / $L$2 * 1000</f>
-        <v>-140.53054662379415</v>
+        <v>-128.64951768488746</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8987,10 +8987,13 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>44101</v>
       </c>
-      <c r="J47" s="24"/>
+      <c r="J47" s="24">
+        <f xml:space="preserve"> 7.39</f>
+        <v>7.39</v>
+      </c>
       <c r="K47" s="24">
         <f>SUM(J44:J47)</f>
-        <v>39.81</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2304,7 +2304,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>44096</v>
+        <v>44097</v>
       </c>
     </row>
   </sheetData>
@@ -7263,20 +7263,20 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>541.98</v>
+        <v>549.6</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.87135048231511258</v>
+        <v>0.88360128617363343</v>
       </c>
       <c r="M3" s="29">
         <f xml:space="preserve"> $J$3 - $L$2</f>
-        <v>-80.019999999999982</v>
+        <v>-72.399999999999977</v>
       </c>
       <c r="N3" s="30">
         <f xml:space="preserve"> $M$3 / $L$2 * 1000</f>
-        <v>-128.64951768488746</v>
+        <v>-116.39871382636652</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8988,12 +8988,12 @@
         <v>44101</v>
       </c>
       <c r="J47" s="24">
-        <f xml:space="preserve"> 7.39</f>
-        <v>7.39</v>
+        <f xml:space="preserve"> 7.39 + 7.62</f>
+        <v>15.01</v>
       </c>
       <c r="K47" s="24">
         <f>SUM(J44:J47)</f>
-        <v>47.2</v>
+        <v>54.82</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2304,7 +2304,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>44097</v>
+        <v>44108</v>
       </c>
     </row>
   </sheetData>
@@ -7210,7 +7210,7 @@
       <pane xSplit="8" ySplit="3" topLeftCell="J32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J47" sqref="J47"/>
+      <selection pane="bottomRight" activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7263,20 +7263,20 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>549.6</v>
+        <v>564.08000000000004</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.88360128617363343</v>
+        <v>0.90688102893890676</v>
       </c>
       <c r="M3" s="29">
         <f xml:space="preserve"> $J$3 - $L$2</f>
-        <v>-72.399999999999977</v>
+        <v>-57.919999999999959</v>
       </c>
       <c r="N3" s="30">
         <f xml:space="preserve"> $M$3 / $L$2 * 1000</f>
-        <v>-116.39871382636652</v>
+        <v>-93.118971061093177</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -9029,7 +9029,10 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>44108</v>
       </c>
-      <c r="J48" s="24"/>
+      <c r="J48" s="24">
+        <f xml:space="preserve"> 6.4 + 8.08</f>
+        <v>14.48</v>
+      </c>
       <c r="K48" s="24"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -9176,7 +9179,7 @@
       <c r="J52" s="24"/>
       <c r="K52" s="24">
         <f>SUM(J48:J52)</f>
-        <v>0</v>
+        <v>14.48</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2304,7 +2304,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>44108</v>
+        <v>44111</v>
       </c>
     </row>
   </sheetData>
@@ -7210,7 +7210,7 @@
       <pane xSplit="8" ySplit="3" topLeftCell="J32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J48" sqref="J48"/>
+      <selection pane="bottomRight" activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7263,20 +7263,20 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>564.08000000000004</v>
+        <v>571.13</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.90688102893890676</v>
+        <v>0.91821543408360129</v>
       </c>
       <c r="M3" s="29">
         <f xml:space="preserve"> $J$3 - $L$2</f>
-        <v>-57.919999999999959</v>
+        <v>-50.870000000000005</v>
       </c>
       <c r="N3" s="30">
         <f xml:space="preserve"> $M$3 / $L$2 * 1000</f>
-        <v>-93.118971061093177</v>
+        <v>-81.784565916398719</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -9068,7 +9068,10 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>44115</v>
       </c>
-      <c r="J49" s="24"/>
+      <c r="J49" s="24">
+        <f xml:space="preserve"> 7.05</f>
+        <v>7.05</v>
+      </c>
       <c r="K49" s="24"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -9179,7 +9182,7 @@
       <c r="J52" s="24"/>
       <c r="K52" s="24">
         <f>SUM(J48:J52)</f>
-        <v>14.48</v>
+        <v>21.53</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2304,7 +2304,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>44111</v>
+        <v>44120</v>
       </c>
     </row>
   </sheetData>
@@ -7210,7 +7210,7 @@
       <pane xSplit="8" ySplit="3" topLeftCell="J32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J49" sqref="J49"/>
+      <selection pane="bottomRight" activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7263,20 +7263,20 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>571.13</v>
+        <v>587.63</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.91821543408360129</v>
+        <v>0.94474276527331191</v>
       </c>
       <c r="M3" s="29">
         <f xml:space="preserve"> $J$3 - $L$2</f>
-        <v>-50.870000000000005</v>
+        <v>-34.370000000000005</v>
       </c>
       <c r="N3" s="30">
         <f xml:space="preserve"> $M$3 / $L$2 * 1000</f>
-        <v>-81.784565916398719</v>
+        <v>-55.257234726688111</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -9069,8 +9069,8 @@
         <v>44115</v>
       </c>
       <c r="J49" s="24">
-        <f xml:space="preserve"> 7.05</f>
-        <v>7.05</v>
+        <f xml:space="preserve"> 7.05 + 8.98</f>
+        <v>16.03</v>
       </c>
       <c r="K49" s="24"/>
     </row>
@@ -9107,7 +9107,10 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>44122</v>
       </c>
-      <c r="J50" s="24"/>
+      <c r="J50" s="24">
+        <f xml:space="preserve"> 7.52</f>
+        <v>7.52</v>
+      </c>
       <c r="K50" s="24"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -9182,7 +9185,7 @@
       <c r="J52" s="24"/>
       <c r="K52" s="24">
         <f>SUM(J48:J52)</f>
-        <v>21.53</v>
+        <v>38.03</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2304,7 +2304,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>44120</v>
+        <v>44128</v>
       </c>
     </row>
   </sheetData>
@@ -7210,7 +7210,7 @@
       <pane xSplit="8" ySplit="3" topLeftCell="J32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J50" sqref="J50"/>
+      <selection pane="bottomRight" activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7263,20 +7263,20 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>587.63</v>
+        <v>602.84</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.94474276527331191</v>
+        <v>0.96919614147909972</v>
       </c>
       <c r="M3" s="29">
         <f xml:space="preserve"> $J$3 - $L$2</f>
-        <v>-34.370000000000005</v>
+        <v>-19.159999999999968</v>
       </c>
       <c r="N3" s="30">
         <f xml:space="preserve"> $M$3 / $L$2 * 1000</f>
-        <v>-55.257234726688111</v>
+        <v>-30.80385852090027</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -9108,8 +9108,8 @@
         <v>44122</v>
       </c>
       <c r="J50" s="24">
-        <f xml:space="preserve"> 7.52</f>
-        <v>7.52</v>
+        <f xml:space="preserve"> 7.52 + 8.11</f>
+        <v>15.629999999999999</v>
       </c>
       <c r="K50" s="24"/>
     </row>
@@ -9146,7 +9146,10 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>44129</v>
       </c>
-      <c r="J51" s="24"/>
+      <c r="J51" s="24">
+        <f xml:space="preserve"> 7.1</f>
+        <v>7.1</v>
+      </c>
       <c r="K51" s="24"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -9185,7 +9188,7 @@
       <c r="J52" s="24"/>
       <c r="K52" s="24">
         <f>SUM(J48:J52)</f>
-        <v>38.03</v>
+        <v>53.24</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2304,7 +2304,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>44128</v>
+        <v>44130</v>
       </c>
     </row>
   </sheetData>
@@ -7210,7 +7210,7 @@
       <pane xSplit="8" ySplit="3" topLeftCell="J32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J51" sqref="J51"/>
+      <selection pane="bottomRight" activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7263,20 +7263,20 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>602.84</v>
+        <v>610.66000000000008</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.96919614147909972</v>
+        <v>0.98176848874598088</v>
       </c>
       <c r="M3" s="29">
         <f xml:space="preserve"> $J$3 - $L$2</f>
-        <v>-19.159999999999968</v>
+        <v>-11.339999999999918</v>
       </c>
       <c r="N3" s="30">
         <f xml:space="preserve"> $M$3 / $L$2 * 1000</f>
-        <v>-30.80385852090027</v>
+        <v>-18.231511254019161</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -9185,10 +9185,13 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>44136</v>
       </c>
-      <c r="J52" s="24"/>
+      <c r="J52" s="24">
+        <f xml:space="preserve"> 7.82</f>
+        <v>7.82</v>
+      </c>
       <c r="K52" s="24">
         <f>SUM(J48:J52)</f>
-        <v>53.24</v>
+        <v>61.06</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2304,7 +2304,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>44130</v>
+        <v>44138</v>
       </c>
     </row>
   </sheetData>
@@ -7210,7 +7210,7 @@
       <pane xSplit="8" ySplit="3" topLeftCell="J32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J52" sqref="J52"/>
+      <selection pane="bottomRight" activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7263,20 +7263,20 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>610.66000000000008</v>
+        <v>630.88000000000011</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0.98176848874598088</v>
+        <v>1.0142765273311898</v>
       </c>
       <c r="M3" s="29">
         <f xml:space="preserve"> $J$3 - $L$2</f>
-        <v>-11.339999999999918</v>
+        <v>8.8800000000001091</v>
       </c>
       <c r="N3" s="30">
         <f xml:space="preserve"> $M$3 / $L$2 * 1000</f>
-        <v>-18.231511254019161</v>
+        <v>14.276527331189888</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -9186,12 +9186,12 @@
         <v>44136</v>
       </c>
       <c r="J52" s="24">
-        <f xml:space="preserve"> 7.82</f>
-        <v>7.82</v>
+        <f xml:space="preserve"> 7.82 + 6.62 + 6.87</f>
+        <v>21.310000000000002</v>
       </c>
       <c r="K52" s="24">
         <f>SUM(J48:J52)</f>
-        <v>61.06</v>
+        <v>74.550000000000011</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -9227,7 +9227,10 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>44143</v>
       </c>
-      <c r="J53" s="24"/>
+      <c r="J53" s="24">
+        <f xml:space="preserve"> 6.73</f>
+        <v>6.73</v>
+      </c>
       <c r="K53" s="24"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -9338,7 +9341,7 @@
       <c r="J56" s="24"/>
       <c r="K56" s="24">
         <f>SUM(J53:J56)</f>
-        <v>0</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2304,7 +2304,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>44138</v>
+        <v>44145</v>
       </c>
     </row>
   </sheetData>
@@ -7263,20 +7263,20 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>630.88000000000011</v>
+        <v>650.19000000000005</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>1.0142765273311898</v>
+        <v>1.0453215434083603</v>
       </c>
       <c r="M3" s="29">
         <f xml:space="preserve"> $J$3 - $L$2</f>
-        <v>8.8800000000001091</v>
+        <v>28.190000000000055</v>
       </c>
       <c r="N3" s="30">
         <f xml:space="preserve"> $M$3 / $L$2 * 1000</f>
-        <v>14.276527331189888</v>
+        <v>45.32154340836022</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -9228,8 +9228,8 @@
         <v>44143</v>
       </c>
       <c r="J53" s="24">
-        <f xml:space="preserve"> 6.73</f>
-        <v>6.73</v>
+        <f xml:space="preserve"> 6.73 + 7.01 + 1.81 + 3.74 + 6.75</f>
+        <v>26.04</v>
       </c>
       <c r="K53" s="24"/>
     </row>
@@ -9341,7 +9341,7 @@
       <c r="J56" s="24"/>
       <c r="K56" s="24">
         <f>SUM(J53:J56)</f>
-        <v>6.73</v>
+        <v>26.04</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19440" windowHeight="8520" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19440" windowHeight="8520" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2017 automn &amp; winter" sheetId="1" r:id="rId1"/>
     <sheet name="2018" sheetId="2" r:id="rId2"/>
     <sheet name="2019" sheetId="4" r:id="rId3"/>
     <sheet name="2020" sheetId="5" r:id="rId4"/>
-    <sheet name="Feuil2" sheetId="6" r:id="rId5"/>
+    <sheet name="2021" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$3:$H$3</definedName>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="14">
   <si>
     <t>Lundi</t>
   </si>
@@ -268,7 +268,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="109">
+  <dxfs count="139">
     <dxf>
       <numFmt numFmtId="165" formatCode="d"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -389,14 +389,14 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -556,234 +556,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF1EB99"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="6" tint="0.79998168889431442"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="6" tint="0.79998168889431442"/>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i/>
@@ -1129,6 +901,578 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF1EB99"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDotDot">
+          <color theme="8"/>
+        </left>
+        <right style="dashDotDot">
+          <color theme="8"/>
+        </right>
+        <top style="dashDotDot">
+          <color theme="8"/>
+        </top>
+        <bottom style="dashDotDot">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color theme="9"/>
+        </left>
+        <right style="dotted">
+          <color theme="9"/>
+        </right>
+        <top style="dotted">
+          <color theme="9"/>
+        </top>
+        <bottom style="dotted">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF1EB99"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashDotDot">
+          <color theme="8"/>
+        </left>
+        <right style="dashDotDot">
+          <color theme="8"/>
+        </right>
+        <top style="dashDotDot">
+          <color theme="8"/>
+        </top>
+        <bottom style="dashDotDot">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color theme="9"/>
+        </left>
+        <right style="dotted">
+          <color theme="9"/>
+        </right>
+        <top style="dotted">
+          <color theme="9"/>
+        </top>
+        <bottom style="dotted">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -1322,46 +1666,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A2:G13" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A2:G13" totalsRowShown="0" headerRowDxfId="122" dataDxfId="121">
   <autoFilter ref="A2:G13"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Lundi" dataDxfId="90">
+    <tableColumn id="1" name="Lundi" dataDxfId="120">
       <calculatedColumnFormula xml:space="preserve"> 1 + G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Mardi" dataDxfId="89"/>
-    <tableColumn id="3" name="Mercredi" dataDxfId="88"/>
-    <tableColumn id="4" name="Jeudi" dataDxfId="87"/>
-    <tableColumn id="5" name="Vendredi" dataDxfId="86"/>
-    <tableColumn id="6" name="Samedi" dataDxfId="85"/>
-    <tableColumn id="7" name="Dimanche" dataDxfId="84"/>
+    <tableColumn id="2" name="Mardi" dataDxfId="119"/>
+    <tableColumn id="3" name="Mercredi" dataDxfId="118"/>
+    <tableColumn id="4" name="Jeudi" dataDxfId="117"/>
+    <tableColumn id="5" name="Vendredi" dataDxfId="116"/>
+    <tableColumn id="6" name="Samedi" dataDxfId="115"/>
+    <tableColumn id="7" name="Dimanche" dataDxfId="114"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B3:H61" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B3:H61" totalsRowShown="0" headerRowDxfId="96" dataDxfId="94" headerRowBorderDxfId="95" tableBorderDxfId="93">
   <autoFilter ref="B3:H61"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Lundi" dataDxfId="62">
+    <tableColumn id="1" name="Lundi" dataDxfId="92">
       <calculatedColumnFormula xml:space="preserve"> 1 + $H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Mardi" dataDxfId="61">
+    <tableColumn id="2" name="Mardi" dataDxfId="91">
       <calculatedColumnFormula xml:space="preserve"> 1 + B4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Mercredi" dataDxfId="60">
+    <tableColumn id="3" name="Mercredi" dataDxfId="90">
       <calculatedColumnFormula xml:space="preserve"> 1 + C4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Jeudi" dataDxfId="59">
+    <tableColumn id="4" name="Jeudi" dataDxfId="89">
       <calculatedColumnFormula xml:space="preserve"> 1 + D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Vendredi" dataDxfId="58">
+    <tableColumn id="5" name="Vendredi" dataDxfId="88">
       <calculatedColumnFormula xml:space="preserve"> 1 + E4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Samedi" dataDxfId="57">
+    <tableColumn id="6" name="Samedi" dataDxfId="87">
       <calculatedColumnFormula xml:space="preserve"> 1 + F4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Dimanche" dataDxfId="56">
+    <tableColumn id="7" name="Dimanche" dataDxfId="86">
       <calculatedColumnFormula xml:space="preserve"> 1 + G4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1370,28 +1714,28 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau14" displayName="Tableau14" ref="B3:H61" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau14" displayName="Tableau14" ref="B3:H61" totalsRowShown="0" headerRowDxfId="68" dataDxfId="66" headerRowBorderDxfId="67" tableBorderDxfId="65">
   <autoFilter ref="B3:H61"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Lundi" dataDxfId="34">
+    <tableColumn id="1" name="Lundi" dataDxfId="64">
       <calculatedColumnFormula xml:space="preserve"> 1 + $H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Mardi" dataDxfId="33">
+    <tableColumn id="2" name="Mardi" dataDxfId="63">
       <calculatedColumnFormula xml:space="preserve"> 1 + B4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Mercredi" dataDxfId="32">
+    <tableColumn id="3" name="Mercredi" dataDxfId="62">
       <calculatedColumnFormula xml:space="preserve"> 1 + C4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Jeudi" dataDxfId="31">
+    <tableColumn id="4" name="Jeudi" dataDxfId="61">
       <calculatedColumnFormula xml:space="preserve"> 1 + D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Vendredi" dataDxfId="30">
+    <tableColumn id="5" name="Vendredi" dataDxfId="60">
       <calculatedColumnFormula xml:space="preserve"> 1 + E4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Samedi" dataDxfId="29">
+    <tableColumn id="6" name="Samedi" dataDxfId="59">
       <calculatedColumnFormula xml:space="preserve"> 1 + F4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Dimanche" dataDxfId="28">
+    <tableColumn id="7" name="Dimanche" dataDxfId="58">
       <calculatedColumnFormula xml:space="preserve"> 1 + G4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1400,7 +1744,37 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau145" displayName="Tableau145" ref="B3:H61" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau145" displayName="Tableau145" ref="B3:H61" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37">
+  <autoFilter ref="B3:H61"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Lundi" dataDxfId="36">
+      <calculatedColumnFormula xml:space="preserve"> 1 + $H3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Mardi" dataDxfId="35">
+      <calculatedColumnFormula xml:space="preserve"> 1 + B4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Mercredi" dataDxfId="34">
+      <calculatedColumnFormula xml:space="preserve"> 1 + C4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Jeudi" dataDxfId="33">
+      <calculatedColumnFormula xml:space="preserve"> 1 + D4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Vendredi" dataDxfId="32">
+      <calculatedColumnFormula xml:space="preserve"> 1 + E4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Samedi" dataDxfId="31">
+      <calculatedColumnFormula xml:space="preserve"> 1 + F4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="Dimanche" dataDxfId="30">
+      <calculatedColumnFormula xml:space="preserve"> 1 + G4</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau1456" displayName="Tableau1456" ref="B3:H61" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8">
   <autoFilter ref="B3:H61"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Lundi" dataDxfId="6">
@@ -2304,66 +2678,66 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>44145</v>
+        <v>44159</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection password="CF7C" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="108" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="17" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="107" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="16" operator="lessThan">
       <formula>$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="106" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="15" operator="lessThan">
       <formula>$H$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="105" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="14" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="104" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="13" operator="lessThan">
       <formula>$H$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="103" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="12" operator="lessThan">
       <formula>$H$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="102" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="11" operator="lessThan">
       <formula>$H$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="101" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="10" operator="lessThan">
       <formula>$H$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="100" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="9" operator="lessThan">
       <formula>$H$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="99" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="8" operator="lessThan">
       <formula>$H$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G13">
-    <cfRule type="timePeriod" dxfId="98" priority="6" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="128" priority="6" timePeriod="today">
       <formula>FLOOR(A3,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="97" priority="7" timePeriod="thisMonth">
+    <cfRule type="timePeriod" dxfId="127" priority="7" timePeriod="thisMonth">
       <formula>AND(MONTH(A3)=MONTH(TODAY()),YEAR(A3)=YEAR(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2382,18 +2756,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="96" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="126" priority="1" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="125" priority="2" operator="between">
       <formula>0.2</formula>
       <formula>0.6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="124" priority="3" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="4" operator="lessThan">
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4749,63 +5123,63 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:H61">
-    <cfRule type="timePeriod" dxfId="83" priority="18" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="113" priority="18" timePeriod="today">
       <formula>FLOOR(B4,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="82" priority="19" timePeriod="thisMonth">
+    <cfRule type="timePeriod" dxfId="112" priority="19" timePeriod="thisMonth">
       <formula>AND(MONTH(B4)=MONTH(TODAY()),YEAR(B4)=YEAR(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:K61">
-    <cfRule type="cellIs" dxfId="81" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="13" operator="greaterThan">
       <formula>24.8800001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="110" priority="14" operator="between">
       <formula>18.66000001</formula>
       <formula>24.88</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="109" priority="15" operator="between">
       <formula>12.4400001</formula>
       <formula>18.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="108" priority="16" operator="between">
       <formula>6.220001</formula>
       <formula>12.44</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="107" priority="17" operator="between">
       <formula>0</formula>
       <formula>6.22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:K3">
-    <cfRule type="expression" dxfId="76" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="1" stopIfTrue="1">
       <formula>"$k$3 &gt;= 0,9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="2" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="3" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="4" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="6" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="7" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="8" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="9" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="10" stopIfTrue="1">
       <formula>$L$3 &lt; 0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7132,63 +7506,63 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:H61">
-    <cfRule type="timePeriod" dxfId="55" priority="16" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="85" priority="16" timePeriod="today">
       <formula>FLOOR(B4,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="54" priority="17" timePeriod="thisMonth">
+    <cfRule type="timePeriod" dxfId="84" priority="17" timePeriod="thisMonth">
       <formula>AND(MONTH(B4)=MONTH(TODAY()),YEAR(B4)=YEAR(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:K61">
-    <cfRule type="cellIs" dxfId="53" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="11" operator="greaterThan">
       <formula>24.8800001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="82" priority="12" operator="between">
       <formula>18.66000001</formula>
       <formula>24.88</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="81" priority="13" operator="between">
       <formula>12.4400001</formula>
       <formula>18.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="80" priority="14" operator="between">
       <formula>6.220001</formula>
       <formula>12.44</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="79" priority="15" operator="between">
       <formula>0</formula>
       <formula>6.22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:K3">
-    <cfRule type="expression" dxfId="48" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="1" stopIfTrue="1">
       <formula>"$k$3 &gt;= 0,9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="2" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="3" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="4" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="5" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="6" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="7" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="8" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="9" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="10" stopIfTrue="1">
       <formula>$L$3 &lt; 0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7206,11 +7580,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="J32" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="8" ySplit="3" topLeftCell="J43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J53" sqref="J53"/>
+      <selection pane="bottomRight" activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7263,20 +7637,20 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>650.19000000000005</v>
+        <v>717.19</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>1.0453215434083603</v>
+        <v>1.1530385852090033</v>
       </c>
       <c r="M3" s="29">
         <f xml:space="preserve"> $J$3 - $L$2</f>
-        <v>28.190000000000055</v>
+        <v>95.190000000000055</v>
       </c>
       <c r="N3" s="30">
         <f xml:space="preserve"> $M$3 / $L$2 * 1000</f>
-        <v>45.32154340836022</v>
+        <v>153.03858520900329</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -9266,7 +9640,10 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>44150</v>
       </c>
-      <c r="J54" s="24"/>
+      <c r="J54" s="24">
+        <f xml:space="preserve"> 10.61 + 10.67 + 6.76</f>
+        <v>28.04</v>
+      </c>
       <c r="K54" s="24"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -9302,7 +9679,10 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>44157</v>
       </c>
-      <c r="J55" s="24"/>
+      <c r="J55" s="24">
+        <f xml:space="preserve"> 7.89 + 6.84 + 2.21 + 10.88 + 11.14</f>
+        <v>38.96</v>
+      </c>
       <c r="K55" s="24"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -9341,7 +9721,7 @@
       <c r="J56" s="24"/>
       <c r="K56" s="24">
         <f>SUM(J53:J56)</f>
-        <v>26.04</v>
+        <v>93.039999999999992</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -9520,6 +9900,2282 @@
       <c r="H61" s="17">
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>44199</v>
+      </c>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24">
+        <f>SUM(J57:J61)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B4:H61">
+    <cfRule type="timePeriod" dxfId="57" priority="16" timePeriod="today">
+      <formula>FLOOR(B4,1)=TODAY()</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="56" priority="17" timePeriod="thisMonth">
+      <formula>AND(MONTH(B4)=MONTH(TODAY()),YEAR(B4)=YEAR(TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:K61">
+    <cfRule type="cellIs" dxfId="55" priority="11" operator="greaterThan">
+      <formula>24.8800001</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="12" operator="between">
+      <formula>18.66000001</formula>
+      <formula>24.88</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="13" operator="between">
+      <formula>12.4400001</formula>
+      <formula>18.66</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="14" operator="between">
+      <formula>6.220001</formula>
+      <formula>12.44</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="15" operator="between">
+      <formula>0</formula>
+      <formula>6.22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:K3">
+    <cfRule type="expression" dxfId="50" priority="1" stopIfTrue="1">
+      <formula>"$k$3 &gt;= 0,9"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="2" stopIfTrue="1">
+      <formula>"$k$3 &lt; 0,9"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="3" stopIfTrue="1">
+      <formula>"$k$3 &lt; 0,8"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="4" stopIfTrue="1">
+      <formula>"$k$3 &lt; 0,7"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="5" stopIfTrue="1">
+      <formula>"$k$3 &lt; 0,6"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="6" stopIfTrue="1">
+      <formula>"$k$3 &lt; 0,5"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="7" stopIfTrue="1">
+      <formula>"$k$3 &lt; 0,4"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="8" stopIfTrue="1">
+      <formula>"$k$3 &lt; 0,3"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="9" stopIfTrue="1">
+      <formula>"$k$3 &lt; 0,2"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="10" stopIfTrue="1">
+      <formula>$L$3 &lt; 0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B9:H9 B4:B8 C4:C8 D4:H8 C10:C61 D10 E10:H10 D11:H61" calculatedColumn="1"/>
+  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" style="23" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J2" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="26"/>
+      <c r="L2" s="28">
+        <v>622</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="25">
+        <f>SUM($J$4:$J$61)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="27">
+        <f xml:space="preserve"> J3 / 622</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="29">
+        <f xml:space="preserve"> $J$3 - $L$2</f>
+        <v>-622</v>
+      </c>
+      <c r="N3" s="30">
+        <f xml:space="preserve"> $M$3 / $L$2 * 1000</f>
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="str">
+        <f t="shared" ref="A4:A8" si="0" xml:space="preserve"> IF(OR( 1 = DAY($B4), 1 = DAY($C4), 1 = DAY($D4), 1 = DAY($E4), 1 = DAY($F4),  1 = DAY($G4),  1 = DAY($H4),   ), $H4, "")</f>
+        <v/>
+      </c>
+      <c r="B4" s="18">
+        <f t="shared" ref="B4:G8" si="1" xml:space="preserve"> -1 + C4</f>
+        <v>44158</v>
+      </c>
+      <c r="C4" s="18">
+        <f t="shared" si="1"/>
+        <v>44159</v>
+      </c>
+      <c r="D4" s="18">
+        <f t="shared" si="1"/>
+        <v>44160</v>
+      </c>
+      <c r="E4" s="18">
+        <f t="shared" si="1"/>
+        <v>44161</v>
+      </c>
+      <c r="F4" s="18">
+        <f t="shared" si="1"/>
+        <v>44162</v>
+      </c>
+      <c r="G4" s="18">
+        <f t="shared" si="1"/>
+        <v>44163</v>
+      </c>
+      <c r="H4" s="18">
+        <f t="shared" ref="H4:H7" si="2" xml:space="preserve"> -1 + $B5</f>
+        <v>44164</v>
+      </c>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <f t="shared" si="0"/>
+        <v>44171</v>
+      </c>
+      <c r="B5" s="18">
+        <f t="shared" si="1"/>
+        <v>44165</v>
+      </c>
+      <c r="C5" s="18">
+        <f t="shared" si="1"/>
+        <v>44166</v>
+      </c>
+      <c r="D5" s="18">
+        <f t="shared" si="1"/>
+        <v>44167</v>
+      </c>
+      <c r="E5" s="18">
+        <f t="shared" si="1"/>
+        <v>44168</v>
+      </c>
+      <c r="F5" s="18">
+        <f t="shared" si="1"/>
+        <v>44169</v>
+      </c>
+      <c r="G5" s="18">
+        <f t="shared" si="1"/>
+        <v>44170</v>
+      </c>
+      <c r="H5" s="18">
+        <f t="shared" si="2"/>
+        <v>44171</v>
+      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B6" s="18">
+        <f t="shared" si="1"/>
+        <v>44172</v>
+      </c>
+      <c r="C6" s="18">
+        <f t="shared" si="1"/>
+        <v>44173</v>
+      </c>
+      <c r="D6" s="18">
+        <f t="shared" si="1"/>
+        <v>44174</v>
+      </c>
+      <c r="E6" s="18">
+        <f t="shared" si="1"/>
+        <v>44175</v>
+      </c>
+      <c r="F6" s="18">
+        <f t="shared" si="1"/>
+        <v>44176</v>
+      </c>
+      <c r="G6" s="18">
+        <f t="shared" si="1"/>
+        <v>44177</v>
+      </c>
+      <c r="H6" s="18">
+        <f t="shared" si="2"/>
+        <v>44178</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B7" s="18">
+        <f t="shared" si="1"/>
+        <v>44179</v>
+      </c>
+      <c r="C7" s="18">
+        <f t="shared" si="1"/>
+        <v>44180</v>
+      </c>
+      <c r="D7" s="18">
+        <f t="shared" si="1"/>
+        <v>44181</v>
+      </c>
+      <c r="E7" s="18">
+        <f t="shared" si="1"/>
+        <v>44182</v>
+      </c>
+      <c r="F7" s="18">
+        <f t="shared" si="1"/>
+        <v>44183</v>
+      </c>
+      <c r="G7" s="18">
+        <f t="shared" si="1"/>
+        <v>44184</v>
+      </c>
+      <c r="H7" s="18">
+        <f t="shared" si="2"/>
+        <v>44185</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B8" s="18">
+        <f t="shared" si="1"/>
+        <v>44186</v>
+      </c>
+      <c r="C8" s="18">
+        <f t="shared" si="1"/>
+        <v>44187</v>
+      </c>
+      <c r="D8" s="18">
+        <f t="shared" si="1"/>
+        <v>44188</v>
+      </c>
+      <c r="E8" s="18">
+        <f t="shared" si="1"/>
+        <v>44189</v>
+      </c>
+      <c r="F8" s="18">
+        <f t="shared" si="1"/>
+        <v>44190</v>
+      </c>
+      <c r="G8" s="18">
+        <f xml:space="preserve"> -1 + H8</f>
+        <v>44191</v>
+      </c>
+      <c r="H8" s="18">
+        <f xml:space="preserve"> -1 + $B9</f>
+        <v>44192</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24">
+        <f>SUM(J4:J8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <f xml:space="preserve"> IF(OR( 1 = DAY($B9), 1 = DAY($C9), 1 = DAY($D9), 1 = DAY($E9), 1 = DAY($F9),  1 = DAY($G9),  1 = DAY($H9),   ), $H9, "")</f>
+        <v>44199</v>
+      </c>
+      <c r="B9" s="17">
+        <v>44193</v>
+      </c>
+      <c r="C9" s="17">
+        <f xml:space="preserve"> 1 + B9</f>
+        <v>44194</v>
+      </c>
+      <c r="D9" s="17">
+        <f xml:space="preserve"> 1 + C9</f>
+        <v>44195</v>
+      </c>
+      <c r="E9" s="17">
+        <f xml:space="preserve"> 1 + D9</f>
+        <v>44196</v>
+      </c>
+      <c r="F9" s="17">
+        <f xml:space="preserve"> 1 + E9</f>
+        <v>44197</v>
+      </c>
+      <c r="G9" s="17">
+        <f xml:space="preserve"> 1 + F9</f>
+        <v>44198</v>
+      </c>
+      <c r="H9" s="17">
+        <f xml:space="preserve"> 1 + G9</f>
+        <v>44199</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="N9" s="20"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="str">
+        <f t="shared" ref="A10:A61" si="3" xml:space="preserve"> IF(OR( 1 = DAY($B10), 1 = DAY($C10), 1 = DAY($D10), 1 = DAY($E10), 1 = DAY($F10),  1 = DAY($G10),  1 = DAY($H10),   ), $H10, "")</f>
+        <v/>
+      </c>
+      <c r="B10" s="17">
+        <f xml:space="preserve"> 1 + $H9</f>
+        <v>44200</v>
+      </c>
+      <c r="C10" s="17">
+        <f xml:space="preserve"> 1 + B10</f>
+        <v>44201</v>
+      </c>
+      <c r="D10" s="17">
+        <f xml:space="preserve"> 1 + C10</f>
+        <v>44202</v>
+      </c>
+      <c r="E10" s="17">
+        <f xml:space="preserve"> 1 + D10</f>
+        <v>44203</v>
+      </c>
+      <c r="F10" s="17">
+        <f xml:space="preserve"> 1 + E10</f>
+        <v>44204</v>
+      </c>
+      <c r="G10" s="17">
+        <f xml:space="preserve"> 1 + F10</f>
+        <v>44205</v>
+      </c>
+      <c r="H10" s="17">
+        <f xml:space="preserve"> 1 + G10</f>
+        <v>44206</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="22"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B11" s="17">
+        <f t="shared" ref="B11:B18" si="4" xml:space="preserve"> 1 + $H10</f>
+        <v>44207</v>
+      </c>
+      <c r="C11" s="17">
+        <f xml:space="preserve"> 1 + B11</f>
+        <v>44208</v>
+      </c>
+      <c r="D11" s="17">
+        <f xml:space="preserve"> 1 + C11</f>
+        <v>44209</v>
+      </c>
+      <c r="E11" s="17">
+        <f xml:space="preserve"> 1 + D11</f>
+        <v>44210</v>
+      </c>
+      <c r="F11" s="17">
+        <f xml:space="preserve"> 1 + E11</f>
+        <v>44211</v>
+      </c>
+      <c r="G11" s="17">
+        <f xml:space="preserve"> 1 + F11</f>
+        <v>44212</v>
+      </c>
+      <c r="H11" s="17">
+        <f xml:space="preserve"> 1 + G11</f>
+        <v>44213</v>
+      </c>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B12" s="17">
+        <f t="shared" si="4"/>
+        <v>44214</v>
+      </c>
+      <c r="C12" s="17">
+        <f xml:space="preserve"> 1 + B12</f>
+        <v>44215</v>
+      </c>
+      <c r="D12" s="17">
+        <f xml:space="preserve"> 1 + C12</f>
+        <v>44216</v>
+      </c>
+      <c r="E12" s="17">
+        <f xml:space="preserve"> 1 + D12</f>
+        <v>44217</v>
+      </c>
+      <c r="F12" s="17">
+        <f xml:space="preserve"> 1 + E12</f>
+        <v>44218</v>
+      </c>
+      <c r="G12" s="17">
+        <f xml:space="preserve"> 1 + F12</f>
+        <v>44219</v>
+      </c>
+      <c r="H12" s="17">
+        <f xml:space="preserve"> 1 + G12</f>
+        <v>44220</v>
+      </c>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B13" s="17">
+        <f t="shared" si="4"/>
+        <v>44221</v>
+      </c>
+      <c r="C13" s="17">
+        <f xml:space="preserve"> 1 + B13</f>
+        <v>44222</v>
+      </c>
+      <c r="D13" s="17">
+        <f xml:space="preserve"> 1 + C13</f>
+        <v>44223</v>
+      </c>
+      <c r="E13" s="17">
+        <f xml:space="preserve"> 1 + D13</f>
+        <v>44224</v>
+      </c>
+      <c r="F13" s="17">
+        <f xml:space="preserve"> 1 + E13</f>
+        <v>44225</v>
+      </c>
+      <c r="G13" s="17">
+        <f xml:space="preserve"> 1 + F13</f>
+        <v>44226</v>
+      </c>
+      <c r="H13" s="17">
+        <f xml:space="preserve"> 1 + G13</f>
+        <v>44227</v>
+      </c>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24">
+        <f>SUM(J9:J13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <f t="shared" si="3"/>
+        <v>44234</v>
+      </c>
+      <c r="B14" s="17">
+        <f t="shared" si="4"/>
+        <v>44228</v>
+      </c>
+      <c r="C14" s="17">
+        <f xml:space="preserve"> 1 + B14</f>
+        <v>44229</v>
+      </c>
+      <c r="D14" s="17">
+        <f xml:space="preserve"> 1 + C14</f>
+        <v>44230</v>
+      </c>
+      <c r="E14" s="17">
+        <f xml:space="preserve"> 1 + D14</f>
+        <v>44231</v>
+      </c>
+      <c r="F14" s="17">
+        <f xml:space="preserve"> 1 + E14</f>
+        <v>44232</v>
+      </c>
+      <c r="G14" s="17">
+        <f xml:space="preserve"> 1 + F14</f>
+        <v>44233</v>
+      </c>
+      <c r="H14" s="17">
+        <f xml:space="preserve"> 1 + G14</f>
+        <v>44234</v>
+      </c>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B15" s="17">
+        <f t="shared" si="4"/>
+        <v>44235</v>
+      </c>
+      <c r="C15" s="17">
+        <f xml:space="preserve"> 1 + B15</f>
+        <v>44236</v>
+      </c>
+      <c r="D15" s="17">
+        <f xml:space="preserve"> 1 + C15</f>
+        <v>44237</v>
+      </c>
+      <c r="E15" s="17">
+        <f xml:space="preserve"> 1 + D15</f>
+        <v>44238</v>
+      </c>
+      <c r="F15" s="17">
+        <f xml:space="preserve"> 1 + E15</f>
+        <v>44239</v>
+      </c>
+      <c r="G15" s="17">
+        <f xml:space="preserve"> 1 + F15</f>
+        <v>44240</v>
+      </c>
+      <c r="H15" s="17">
+        <f xml:space="preserve"> 1 + G15</f>
+        <v>44241</v>
+      </c>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B16" s="17">
+        <f t="shared" si="4"/>
+        <v>44242</v>
+      </c>
+      <c r="C16" s="17">
+        <f xml:space="preserve"> 1 + B16</f>
+        <v>44243</v>
+      </c>
+      <c r="D16" s="17">
+        <f xml:space="preserve"> 1 + C16</f>
+        <v>44244</v>
+      </c>
+      <c r="E16" s="17">
+        <f xml:space="preserve"> 1 + D16</f>
+        <v>44245</v>
+      </c>
+      <c r="F16" s="17">
+        <f xml:space="preserve"> 1 + E16</f>
+        <v>44246</v>
+      </c>
+      <c r="G16" s="17">
+        <f xml:space="preserve"> 1 + F16</f>
+        <v>44247</v>
+      </c>
+      <c r="H16" s="17">
+        <f xml:space="preserve"> 1 + G16</f>
+        <v>44248</v>
+      </c>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B17" s="17">
+        <f t="shared" si="4"/>
+        <v>44249</v>
+      </c>
+      <c r="C17" s="17">
+        <f xml:space="preserve"> 1 + B17</f>
+        <v>44250</v>
+      </c>
+      <c r="D17" s="17">
+        <f xml:space="preserve"> 1 + C17</f>
+        <v>44251</v>
+      </c>
+      <c r="E17" s="17">
+        <f xml:space="preserve"> 1 + D17</f>
+        <v>44252</v>
+      </c>
+      <c r="F17" s="17">
+        <f xml:space="preserve"> 1 + E17</f>
+        <v>44253</v>
+      </c>
+      <c r="G17" s="17">
+        <f xml:space="preserve"> 1 + F17</f>
+        <v>44254</v>
+      </c>
+      <c r="H17" s="17">
+        <f xml:space="preserve"> 1 + G17</f>
+        <v>44255</v>
+      </c>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24">
+        <f>SUM(J14:J17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <f t="shared" si="3"/>
+        <v>44262</v>
+      </c>
+      <c r="B18" s="17">
+        <f t="shared" si="4"/>
+        <v>44256</v>
+      </c>
+      <c r="C18" s="17">
+        <f xml:space="preserve"> 1 + B18</f>
+        <v>44257</v>
+      </c>
+      <c r="D18" s="17">
+        <f xml:space="preserve"> 1 + C18</f>
+        <v>44258</v>
+      </c>
+      <c r="E18" s="17">
+        <f xml:space="preserve"> 1 + D18</f>
+        <v>44259</v>
+      </c>
+      <c r="F18" s="17">
+        <f xml:space="preserve"> 1 + E18</f>
+        <v>44260</v>
+      </c>
+      <c r="G18" s="17">
+        <f xml:space="preserve"> 1 + F18</f>
+        <v>44261</v>
+      </c>
+      <c r="H18" s="17">
+        <f xml:space="preserve"> 1 + G18</f>
+        <v>44262</v>
+      </c>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B19" s="17">
+        <f xml:space="preserve"> 1 + $H18</f>
+        <v>44263</v>
+      </c>
+      <c r="C19" s="17">
+        <f xml:space="preserve"> 1 + B19</f>
+        <v>44264</v>
+      </c>
+      <c r="D19" s="17">
+        <f xml:space="preserve"> 1 + C19</f>
+        <v>44265</v>
+      </c>
+      <c r="E19" s="17">
+        <f xml:space="preserve"> 1 + D19</f>
+        <v>44266</v>
+      </c>
+      <c r="F19" s="17">
+        <f xml:space="preserve"> 1 + E19</f>
+        <v>44267</v>
+      </c>
+      <c r="G19" s="17">
+        <f xml:space="preserve"> 1 + F19</f>
+        <v>44268</v>
+      </c>
+      <c r="H19" s="17">
+        <f xml:space="preserve"> 1 + G19</f>
+        <v>44269</v>
+      </c>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B20" s="17">
+        <f t="shared" ref="B20:B27" si="5" xml:space="preserve"> 1 + $H19</f>
+        <v>44270</v>
+      </c>
+      <c r="C20" s="17">
+        <f xml:space="preserve"> 1 + B20</f>
+        <v>44271</v>
+      </c>
+      <c r="D20" s="17">
+        <f xml:space="preserve"> 1 + C20</f>
+        <v>44272</v>
+      </c>
+      <c r="E20" s="17">
+        <f xml:space="preserve"> 1 + D20</f>
+        <v>44273</v>
+      </c>
+      <c r="F20" s="17">
+        <f xml:space="preserve"> 1 + E20</f>
+        <v>44274</v>
+      </c>
+      <c r="G20" s="17">
+        <f xml:space="preserve"> 1 + F20</f>
+        <v>44275</v>
+      </c>
+      <c r="H20" s="17">
+        <f xml:space="preserve"> 1 + G20</f>
+        <v>44276</v>
+      </c>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B21" s="17">
+        <f t="shared" si="5"/>
+        <v>44277</v>
+      </c>
+      <c r="C21" s="17">
+        <f xml:space="preserve"> 1 + B21</f>
+        <v>44278</v>
+      </c>
+      <c r="D21" s="17">
+        <f xml:space="preserve"> 1 + C21</f>
+        <v>44279</v>
+      </c>
+      <c r="E21" s="17">
+        <f xml:space="preserve"> 1 + D21</f>
+        <v>44280</v>
+      </c>
+      <c r="F21" s="17">
+        <f xml:space="preserve"> 1 + E21</f>
+        <v>44281</v>
+      </c>
+      <c r="G21" s="17">
+        <f xml:space="preserve"> 1 + F21</f>
+        <v>44282</v>
+      </c>
+      <c r="H21" s="17">
+        <f xml:space="preserve"> 1 + G21</f>
+        <v>44283</v>
+      </c>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24">
+        <f>SUM(J18:J21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <f t="shared" si="3"/>
+        <v>44290</v>
+      </c>
+      <c r="B22" s="17">
+        <f t="shared" si="5"/>
+        <v>44284</v>
+      </c>
+      <c r="C22" s="17">
+        <f xml:space="preserve"> 1 + B22</f>
+        <v>44285</v>
+      </c>
+      <c r="D22" s="17">
+        <f xml:space="preserve"> 1 + C22</f>
+        <v>44286</v>
+      </c>
+      <c r="E22" s="17">
+        <f xml:space="preserve"> 1 + D22</f>
+        <v>44287</v>
+      </c>
+      <c r="F22" s="17">
+        <f xml:space="preserve"> 1 + E22</f>
+        <v>44288</v>
+      </c>
+      <c r="G22" s="17">
+        <f xml:space="preserve"> 1 + F22</f>
+        <v>44289</v>
+      </c>
+      <c r="H22" s="17">
+        <f xml:space="preserve"> 1 + G22</f>
+        <v>44290</v>
+      </c>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B23" s="17">
+        <f t="shared" si="5"/>
+        <v>44291</v>
+      </c>
+      <c r="C23" s="17">
+        <f xml:space="preserve"> 1 + B23</f>
+        <v>44292</v>
+      </c>
+      <c r="D23" s="17">
+        <f xml:space="preserve"> 1 + C23</f>
+        <v>44293</v>
+      </c>
+      <c r="E23" s="17">
+        <f xml:space="preserve"> 1 + D23</f>
+        <v>44294</v>
+      </c>
+      <c r="F23" s="17">
+        <f xml:space="preserve"> 1 + E23</f>
+        <v>44295</v>
+      </c>
+      <c r="G23" s="17">
+        <f xml:space="preserve"> 1 + F23</f>
+        <v>44296</v>
+      </c>
+      <c r="H23" s="17">
+        <f xml:space="preserve"> 1 + G23</f>
+        <v>44297</v>
+      </c>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B24" s="17">
+        <f t="shared" si="5"/>
+        <v>44298</v>
+      </c>
+      <c r="C24" s="17">
+        <f xml:space="preserve"> 1 + B24</f>
+        <v>44299</v>
+      </c>
+      <c r="D24" s="17">
+        <f xml:space="preserve"> 1 + C24</f>
+        <v>44300</v>
+      </c>
+      <c r="E24" s="17">
+        <f xml:space="preserve"> 1 + D24</f>
+        <v>44301</v>
+      </c>
+      <c r="F24" s="17">
+        <f xml:space="preserve"> 1 + E24</f>
+        <v>44302</v>
+      </c>
+      <c r="G24" s="17">
+        <f xml:space="preserve"> 1 + F24</f>
+        <v>44303</v>
+      </c>
+      <c r="H24" s="17">
+        <f xml:space="preserve"> 1 + G24</f>
+        <v>44304</v>
+      </c>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B25" s="17">
+        <f t="shared" si="5"/>
+        <v>44305</v>
+      </c>
+      <c r="C25" s="17">
+        <f xml:space="preserve"> 1 + B25</f>
+        <v>44306</v>
+      </c>
+      <c r="D25" s="17">
+        <f xml:space="preserve"> 1 + C25</f>
+        <v>44307</v>
+      </c>
+      <c r="E25" s="17">
+        <f xml:space="preserve"> 1 + D25</f>
+        <v>44308</v>
+      </c>
+      <c r="F25" s="17">
+        <f xml:space="preserve"> 1 + E25</f>
+        <v>44309</v>
+      </c>
+      <c r="G25" s="17">
+        <f xml:space="preserve"> 1 + F25</f>
+        <v>44310</v>
+      </c>
+      <c r="H25" s="17">
+        <f xml:space="preserve"> 1 + G25</f>
+        <v>44311</v>
+      </c>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <f t="shared" si="3"/>
+        <v>44318</v>
+      </c>
+      <c r="B26" s="17">
+        <f t="shared" si="5"/>
+        <v>44312</v>
+      </c>
+      <c r="C26" s="17">
+        <f xml:space="preserve"> 1 + B26</f>
+        <v>44313</v>
+      </c>
+      <c r="D26" s="17">
+        <f xml:space="preserve"> 1 + C26</f>
+        <v>44314</v>
+      </c>
+      <c r="E26" s="17">
+        <f xml:space="preserve"> 1 + D26</f>
+        <v>44315</v>
+      </c>
+      <c r="F26" s="17">
+        <f xml:space="preserve"> 1 + E26</f>
+        <v>44316</v>
+      </c>
+      <c r="G26" s="17">
+        <f xml:space="preserve"> 1 + F26</f>
+        <v>44317</v>
+      </c>
+      <c r="H26" s="17">
+        <f xml:space="preserve"> 1 + G26</f>
+        <v>44318</v>
+      </c>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24">
+        <f>SUM(J22:J26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B27" s="17">
+        <f t="shared" si="5"/>
+        <v>44319</v>
+      </c>
+      <c r="C27" s="17">
+        <f xml:space="preserve"> 1 + B27</f>
+        <v>44320</v>
+      </c>
+      <c r="D27" s="17">
+        <f xml:space="preserve"> 1 + C27</f>
+        <v>44321</v>
+      </c>
+      <c r="E27" s="17">
+        <f xml:space="preserve"> 1 + D27</f>
+        <v>44322</v>
+      </c>
+      <c r="F27" s="17">
+        <f xml:space="preserve"> 1 + E27</f>
+        <v>44323</v>
+      </c>
+      <c r="G27" s="17">
+        <f xml:space="preserve"> 1 + F27</f>
+        <v>44324</v>
+      </c>
+      <c r="H27" s="17">
+        <f xml:space="preserve"> 1 + G27</f>
+        <v>44325</v>
+      </c>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B28" s="17">
+        <f xml:space="preserve"> 1 + $H27</f>
+        <v>44326</v>
+      </c>
+      <c r="C28" s="17">
+        <f xml:space="preserve"> 1 + B28</f>
+        <v>44327</v>
+      </c>
+      <c r="D28" s="17">
+        <f xml:space="preserve"> 1 + C28</f>
+        <v>44328</v>
+      </c>
+      <c r="E28" s="17">
+        <f xml:space="preserve"> 1 + D28</f>
+        <v>44329</v>
+      </c>
+      <c r="F28" s="17">
+        <f xml:space="preserve"> 1 + E28</f>
+        <v>44330</v>
+      </c>
+      <c r="G28" s="17">
+        <f xml:space="preserve"> 1 + F28</f>
+        <v>44331</v>
+      </c>
+      <c r="H28" s="17">
+        <f xml:space="preserve"> 1 + G28</f>
+        <v>44332</v>
+      </c>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B29" s="17">
+        <f t="shared" ref="B29:B36" si="6" xml:space="preserve"> 1 + $H28</f>
+        <v>44333</v>
+      </c>
+      <c r="C29" s="17">
+        <f xml:space="preserve"> 1 + B29</f>
+        <v>44334</v>
+      </c>
+      <c r="D29" s="17">
+        <f xml:space="preserve"> 1 + C29</f>
+        <v>44335</v>
+      </c>
+      <c r="E29" s="17">
+        <f xml:space="preserve"> 1 + D29</f>
+        <v>44336</v>
+      </c>
+      <c r="F29" s="17">
+        <f xml:space="preserve"> 1 + E29</f>
+        <v>44337</v>
+      </c>
+      <c r="G29" s="17">
+        <f xml:space="preserve"> 1 + F29</f>
+        <v>44338</v>
+      </c>
+      <c r="H29" s="17">
+        <f xml:space="preserve"> 1 + G29</f>
+        <v>44339</v>
+      </c>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="str">
+        <f xml:space="preserve"> IF(OR( 1 = DAY($B30), 1 = DAY($C30), 1 = DAY($D30), 1 = DAY($E30), 1 = DAY($F30),  1 = DAY($G30),  1 = DAY($H30),   ), $H30, "")</f>
+        <v/>
+      </c>
+      <c r="B30" s="17">
+        <f t="shared" si="6"/>
+        <v>44340</v>
+      </c>
+      <c r="C30" s="17">
+        <f xml:space="preserve"> 1 + B30</f>
+        <v>44341</v>
+      </c>
+      <c r="D30" s="17">
+        <f xml:space="preserve"> 1 + C30</f>
+        <v>44342</v>
+      </c>
+      <c r="E30" s="17">
+        <f xml:space="preserve"> 1 + D30</f>
+        <v>44343</v>
+      </c>
+      <c r="F30" s="17">
+        <f xml:space="preserve"> 1 + E30</f>
+        <v>44344</v>
+      </c>
+      <c r="G30" s="17">
+        <f xml:space="preserve"> 1 + F30</f>
+        <v>44345</v>
+      </c>
+      <c r="H30" s="17">
+        <f xml:space="preserve"> 1 + G30</f>
+        <v>44346</v>
+      </c>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24">
+        <f>SUM(J27:J30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
+        <f t="shared" si="3"/>
+        <v>44353</v>
+      </c>
+      <c r="B31" s="17">
+        <f t="shared" si="6"/>
+        <v>44347</v>
+      </c>
+      <c r="C31" s="17">
+        <f xml:space="preserve"> 1 + B31</f>
+        <v>44348</v>
+      </c>
+      <c r="D31" s="17">
+        <f xml:space="preserve"> 1 + C31</f>
+        <v>44349</v>
+      </c>
+      <c r="E31" s="17">
+        <f xml:space="preserve"> 1 + D31</f>
+        <v>44350</v>
+      </c>
+      <c r="F31" s="17">
+        <f xml:space="preserve"> 1 + E31</f>
+        <v>44351</v>
+      </c>
+      <c r="G31" s="17">
+        <f xml:space="preserve"> 1 + F31</f>
+        <v>44352</v>
+      </c>
+      <c r="H31" s="17">
+        <f xml:space="preserve"> 1 + G31</f>
+        <v>44353</v>
+      </c>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B32" s="17">
+        <f t="shared" si="6"/>
+        <v>44354</v>
+      </c>
+      <c r="C32" s="17">
+        <f xml:space="preserve"> 1 + B32</f>
+        <v>44355</v>
+      </c>
+      <c r="D32" s="17">
+        <f xml:space="preserve"> 1 + C32</f>
+        <v>44356</v>
+      </c>
+      <c r="E32" s="17">
+        <f xml:space="preserve"> 1 + D32</f>
+        <v>44357</v>
+      </c>
+      <c r="F32" s="17">
+        <f xml:space="preserve"> 1 + E32</f>
+        <v>44358</v>
+      </c>
+      <c r="G32" s="17">
+        <f xml:space="preserve"> 1 + F32</f>
+        <v>44359</v>
+      </c>
+      <c r="H32" s="17">
+        <f xml:space="preserve"> 1 + G32</f>
+        <v>44360</v>
+      </c>
+      <c r="J32" s="29"/>
+      <c r="K32" s="24"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B33" s="17">
+        <f t="shared" si="6"/>
+        <v>44361</v>
+      </c>
+      <c r="C33" s="17">
+        <f xml:space="preserve"> 1 + B33</f>
+        <v>44362</v>
+      </c>
+      <c r="D33" s="17">
+        <f xml:space="preserve"> 1 + C33</f>
+        <v>44363</v>
+      </c>
+      <c r="E33" s="17">
+        <f xml:space="preserve"> 1 + D33</f>
+        <v>44364</v>
+      </c>
+      <c r="F33" s="17">
+        <f xml:space="preserve"> 1 + E33</f>
+        <v>44365</v>
+      </c>
+      <c r="G33" s="17">
+        <f xml:space="preserve"> 1 + F33</f>
+        <v>44366</v>
+      </c>
+      <c r="H33" s="17">
+        <f xml:space="preserve"> 1 + G33</f>
+        <v>44367</v>
+      </c>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B34" s="17">
+        <f t="shared" si="6"/>
+        <v>44368</v>
+      </c>
+      <c r="C34" s="17">
+        <f xml:space="preserve"> 1 + B34</f>
+        <v>44369</v>
+      </c>
+      <c r="D34" s="17">
+        <f xml:space="preserve"> 1 + C34</f>
+        <v>44370</v>
+      </c>
+      <c r="E34" s="17">
+        <f xml:space="preserve"> 1 + D34</f>
+        <v>44371</v>
+      </c>
+      <c r="F34" s="17">
+        <f xml:space="preserve"> 1 + E34</f>
+        <v>44372</v>
+      </c>
+      <c r="G34" s="17">
+        <f xml:space="preserve"> 1 + F34</f>
+        <v>44373</v>
+      </c>
+      <c r="H34" s="17">
+        <f xml:space="preserve"> 1 + G34</f>
+        <v>44374</v>
+      </c>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24">
+        <f>SUM(J31:J34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
+        <f t="shared" si="3"/>
+        <v>44381</v>
+      </c>
+      <c r="B35" s="17">
+        <f t="shared" si="6"/>
+        <v>44375</v>
+      </c>
+      <c r="C35" s="17">
+        <f xml:space="preserve"> 1 + B35</f>
+        <v>44376</v>
+      </c>
+      <c r="D35" s="17">
+        <f xml:space="preserve"> 1 + C35</f>
+        <v>44377</v>
+      </c>
+      <c r="E35" s="17">
+        <f xml:space="preserve"> 1 + D35</f>
+        <v>44378</v>
+      </c>
+      <c r="F35" s="17">
+        <f xml:space="preserve"> 1 + E35</f>
+        <v>44379</v>
+      </c>
+      <c r="G35" s="17">
+        <f xml:space="preserve"> 1 + F35</f>
+        <v>44380</v>
+      </c>
+      <c r="H35" s="17">
+        <f xml:space="preserve"> 1 + G35</f>
+        <v>44381</v>
+      </c>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B36" s="17">
+        <f t="shared" si="6"/>
+        <v>44382</v>
+      </c>
+      <c r="C36" s="17">
+        <f xml:space="preserve"> 1 + B36</f>
+        <v>44383</v>
+      </c>
+      <c r="D36" s="17">
+        <f xml:space="preserve"> 1 + C36</f>
+        <v>44384</v>
+      </c>
+      <c r="E36" s="17">
+        <f xml:space="preserve"> 1 + D36</f>
+        <v>44385</v>
+      </c>
+      <c r="F36" s="17">
+        <f xml:space="preserve"> 1 + E36</f>
+        <v>44386</v>
+      </c>
+      <c r="G36" s="17">
+        <f xml:space="preserve"> 1 + F36</f>
+        <v>44387</v>
+      </c>
+      <c r="H36" s="17">
+        <f xml:space="preserve"> 1 + G36</f>
+        <v>44388</v>
+      </c>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B37" s="17">
+        <f xml:space="preserve"> 1 + $H36</f>
+        <v>44389</v>
+      </c>
+      <c r="C37" s="17">
+        <f xml:space="preserve"> 1 + B37</f>
+        <v>44390</v>
+      </c>
+      <c r="D37" s="17">
+        <f xml:space="preserve"> 1 + C37</f>
+        <v>44391</v>
+      </c>
+      <c r="E37" s="17">
+        <f xml:space="preserve"> 1 + D37</f>
+        <v>44392</v>
+      </c>
+      <c r="F37" s="17">
+        <f xml:space="preserve"> 1 + E37</f>
+        <v>44393</v>
+      </c>
+      <c r="G37" s="17">
+        <f xml:space="preserve"> 1 + F37</f>
+        <v>44394</v>
+      </c>
+      <c r="H37" s="17">
+        <f xml:space="preserve"> 1 + G37</f>
+        <v>44395</v>
+      </c>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B38" s="17">
+        <f t="shared" ref="B38:B39" si="7" xml:space="preserve"> 1 + $H37</f>
+        <v>44396</v>
+      </c>
+      <c r="C38" s="17">
+        <f xml:space="preserve"> 1 + B38</f>
+        <v>44397</v>
+      </c>
+      <c r="D38" s="17">
+        <f xml:space="preserve"> 1 + C38</f>
+        <v>44398</v>
+      </c>
+      <c r="E38" s="17">
+        <f xml:space="preserve"> 1 + D38</f>
+        <v>44399</v>
+      </c>
+      <c r="F38" s="17">
+        <f xml:space="preserve"> 1 + E38</f>
+        <v>44400</v>
+      </c>
+      <c r="G38" s="17">
+        <f xml:space="preserve"> 1 + F38</f>
+        <v>44401</v>
+      </c>
+      <c r="H38" s="17">
+        <f xml:space="preserve"> 1 + G38</f>
+        <v>44402</v>
+      </c>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
+        <f t="shared" si="3"/>
+        <v>44409</v>
+      </c>
+      <c r="B39" s="17">
+        <f t="shared" si="7"/>
+        <v>44403</v>
+      </c>
+      <c r="C39" s="17">
+        <f xml:space="preserve"> 1 + B39</f>
+        <v>44404</v>
+      </c>
+      <c r="D39" s="17">
+        <f xml:space="preserve"> 1 + C39</f>
+        <v>44405</v>
+      </c>
+      <c r="E39" s="17">
+        <f xml:space="preserve"> 1 + D39</f>
+        <v>44406</v>
+      </c>
+      <c r="F39" s="17">
+        <f xml:space="preserve"> 1 + E39</f>
+        <v>44407</v>
+      </c>
+      <c r="G39" s="17">
+        <f xml:space="preserve"> 1 + F39</f>
+        <v>44408</v>
+      </c>
+      <c r="H39" s="17">
+        <f xml:space="preserve"> 1 + G39</f>
+        <v>44409</v>
+      </c>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24">
+        <f>SUM(J35:J39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B40" s="17">
+        <f xml:space="preserve"> 1 + $H39</f>
+        <v>44410</v>
+      </c>
+      <c r="C40" s="17">
+        <f xml:space="preserve"> 1 + B40</f>
+        <v>44411</v>
+      </c>
+      <c r="D40" s="17">
+        <f xml:space="preserve"> 1 + C40</f>
+        <v>44412</v>
+      </c>
+      <c r="E40" s="17">
+        <f xml:space="preserve"> 1 + D40</f>
+        <v>44413</v>
+      </c>
+      <c r="F40" s="17">
+        <f xml:space="preserve"> 1 + E40</f>
+        <v>44414</v>
+      </c>
+      <c r="G40" s="17">
+        <f xml:space="preserve"> 1 + F40</f>
+        <v>44415</v>
+      </c>
+      <c r="H40" s="17">
+        <f xml:space="preserve"> 1 + G40</f>
+        <v>44416</v>
+      </c>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B41" s="17">
+        <f t="shared" ref="B41:B48" si="8" xml:space="preserve"> 1 + $H40</f>
+        <v>44417</v>
+      </c>
+      <c r="C41" s="17">
+        <f xml:space="preserve"> 1 + B41</f>
+        <v>44418</v>
+      </c>
+      <c r="D41" s="17">
+        <f xml:space="preserve"> 1 + C41</f>
+        <v>44419</v>
+      </c>
+      <c r="E41" s="17">
+        <f xml:space="preserve"> 1 + D41</f>
+        <v>44420</v>
+      </c>
+      <c r="F41" s="17">
+        <f xml:space="preserve"> 1 + E41</f>
+        <v>44421</v>
+      </c>
+      <c r="G41" s="17">
+        <f xml:space="preserve"> 1 + F41</f>
+        <v>44422</v>
+      </c>
+      <c r="H41" s="17">
+        <f xml:space="preserve"> 1 + G41</f>
+        <v>44423</v>
+      </c>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B42" s="17">
+        <f t="shared" si="8"/>
+        <v>44424</v>
+      </c>
+      <c r="C42" s="17">
+        <f xml:space="preserve"> 1 + B42</f>
+        <v>44425</v>
+      </c>
+      <c r="D42" s="17">
+        <f xml:space="preserve"> 1 + C42</f>
+        <v>44426</v>
+      </c>
+      <c r="E42" s="17">
+        <f xml:space="preserve"> 1 + D42</f>
+        <v>44427</v>
+      </c>
+      <c r="F42" s="17">
+        <f xml:space="preserve"> 1 + E42</f>
+        <v>44428</v>
+      </c>
+      <c r="G42" s="17">
+        <f xml:space="preserve"> 1 + F42</f>
+        <v>44429</v>
+      </c>
+      <c r="H42" s="17">
+        <f xml:space="preserve"> 1 + G42</f>
+        <v>44430</v>
+      </c>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B43" s="17">
+        <f t="shared" si="8"/>
+        <v>44431</v>
+      </c>
+      <c r="C43" s="17">
+        <f xml:space="preserve"> 1 + B43</f>
+        <v>44432</v>
+      </c>
+      <c r="D43" s="17">
+        <f xml:space="preserve"> 1 + C43</f>
+        <v>44433</v>
+      </c>
+      <c r="E43" s="17">
+        <f xml:space="preserve"> 1 + D43</f>
+        <v>44434</v>
+      </c>
+      <c r="F43" s="17">
+        <f xml:space="preserve"> 1 + E43</f>
+        <v>44435</v>
+      </c>
+      <c r="G43" s="17">
+        <f xml:space="preserve"> 1 + F43</f>
+        <v>44436</v>
+      </c>
+      <c r="H43" s="17">
+        <f xml:space="preserve"> 1 + G43</f>
+        <v>44437</v>
+      </c>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24">
+        <f>SUM(J40:J43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="15">
+        <f t="shared" si="3"/>
+        <v>44444</v>
+      </c>
+      <c r="B44" s="17">
+        <f t="shared" si="8"/>
+        <v>44438</v>
+      </c>
+      <c r="C44" s="17">
+        <f xml:space="preserve"> 1 + B44</f>
+        <v>44439</v>
+      </c>
+      <c r="D44" s="17">
+        <f xml:space="preserve"> 1 + C44</f>
+        <v>44440</v>
+      </c>
+      <c r="E44" s="17">
+        <f xml:space="preserve"> 1 + D44</f>
+        <v>44441</v>
+      </c>
+      <c r="F44" s="17">
+        <f xml:space="preserve"> 1 + E44</f>
+        <v>44442</v>
+      </c>
+      <c r="G44" s="17">
+        <f xml:space="preserve"> 1 + F44</f>
+        <v>44443</v>
+      </c>
+      <c r="H44" s="17">
+        <f xml:space="preserve"> 1 + G44</f>
+        <v>44444</v>
+      </c>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="str">
+        <f xml:space="preserve"> IF(OR( 1 = DAY($B45), 1 = DAY($C45), 1 = DAY($D45), 1 = DAY($E45), 1 = DAY($F45),  1 = DAY($G45),  1 = DAY($H45),   ), $H45, "")</f>
+        <v/>
+      </c>
+      <c r="B45" s="17">
+        <f t="shared" si="8"/>
+        <v>44445</v>
+      </c>
+      <c r="C45" s="17">
+        <f xml:space="preserve"> 1 + B45</f>
+        <v>44446</v>
+      </c>
+      <c r="D45" s="17">
+        <f xml:space="preserve"> 1 + C45</f>
+        <v>44447</v>
+      </c>
+      <c r="E45" s="17">
+        <f xml:space="preserve"> 1 + D45</f>
+        <v>44448</v>
+      </c>
+      <c r="F45" s="17">
+        <f xml:space="preserve"> 1 + E45</f>
+        <v>44449</v>
+      </c>
+      <c r="G45" s="17">
+        <f xml:space="preserve"> 1 + F45</f>
+        <v>44450</v>
+      </c>
+      <c r="H45" s="17">
+        <f xml:space="preserve"> 1 + G45</f>
+        <v>44451</v>
+      </c>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B46" s="17">
+        <f t="shared" si="8"/>
+        <v>44452</v>
+      </c>
+      <c r="C46" s="17">
+        <f xml:space="preserve"> 1 + B46</f>
+        <v>44453</v>
+      </c>
+      <c r="D46" s="17">
+        <f xml:space="preserve"> 1 + C46</f>
+        <v>44454</v>
+      </c>
+      <c r="E46" s="17">
+        <f xml:space="preserve"> 1 + D46</f>
+        <v>44455</v>
+      </c>
+      <c r="F46" s="17">
+        <f xml:space="preserve"> 1 + E46</f>
+        <v>44456</v>
+      </c>
+      <c r="G46" s="17">
+        <f xml:space="preserve"> 1 + F46</f>
+        <v>44457</v>
+      </c>
+      <c r="H46" s="17">
+        <f xml:space="preserve"> 1 + G46</f>
+        <v>44458</v>
+      </c>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B47" s="17">
+        <f t="shared" si="8"/>
+        <v>44459</v>
+      </c>
+      <c r="C47" s="17">
+        <f xml:space="preserve"> 1 + B47</f>
+        <v>44460</v>
+      </c>
+      <c r="D47" s="17">
+        <f xml:space="preserve"> 1 + C47</f>
+        <v>44461</v>
+      </c>
+      <c r="E47" s="17">
+        <f xml:space="preserve"> 1 + D47</f>
+        <v>44462</v>
+      </c>
+      <c r="F47" s="17">
+        <f xml:space="preserve"> 1 + E47</f>
+        <v>44463</v>
+      </c>
+      <c r="G47" s="17">
+        <f xml:space="preserve"> 1 + F47</f>
+        <v>44464</v>
+      </c>
+      <c r="H47" s="17">
+        <f xml:space="preserve"> 1 + G47</f>
+        <v>44465</v>
+      </c>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24">
+        <f>SUM(J44:J47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="15">
+        <f t="shared" si="3"/>
+        <v>44472</v>
+      </c>
+      <c r="B48" s="17">
+        <f t="shared" si="8"/>
+        <v>44466</v>
+      </c>
+      <c r="C48" s="17">
+        <f xml:space="preserve"> 1 + B48</f>
+        <v>44467</v>
+      </c>
+      <c r="D48" s="17">
+        <f xml:space="preserve"> 1 + C48</f>
+        <v>44468</v>
+      </c>
+      <c r="E48" s="17">
+        <f xml:space="preserve"> 1 + D48</f>
+        <v>44469</v>
+      </c>
+      <c r="F48" s="17">
+        <f xml:space="preserve"> 1 + E48</f>
+        <v>44470</v>
+      </c>
+      <c r="G48" s="17">
+        <f xml:space="preserve"> 1 + F48</f>
+        <v>44471</v>
+      </c>
+      <c r="H48" s="17">
+        <f xml:space="preserve"> 1 + G48</f>
+        <v>44472</v>
+      </c>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B49" s="17">
+        <f xml:space="preserve"> 1 + $H48</f>
+        <v>44473</v>
+      </c>
+      <c r="C49" s="17">
+        <f xml:space="preserve"> 1 + B49</f>
+        <v>44474</v>
+      </c>
+      <c r="D49" s="17">
+        <f xml:space="preserve"> 1 + C49</f>
+        <v>44475</v>
+      </c>
+      <c r="E49" s="17">
+        <f xml:space="preserve"> 1 + D49</f>
+        <v>44476</v>
+      </c>
+      <c r="F49" s="17">
+        <f xml:space="preserve"> 1 + E49</f>
+        <v>44477</v>
+      </c>
+      <c r="G49" s="17">
+        <f xml:space="preserve"> 1 + F49</f>
+        <v>44478</v>
+      </c>
+      <c r="H49" s="17">
+        <f xml:space="preserve"> 1 + G49</f>
+        <v>44479</v>
+      </c>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B50" s="17">
+        <f t="shared" ref="B50:B53" si="9" xml:space="preserve"> 1 + $H49</f>
+        <v>44480</v>
+      </c>
+      <c r="C50" s="17">
+        <f xml:space="preserve"> 1 + B50</f>
+        <v>44481</v>
+      </c>
+      <c r="D50" s="17">
+        <f xml:space="preserve"> 1 + C50</f>
+        <v>44482</v>
+      </c>
+      <c r="E50" s="17">
+        <f xml:space="preserve"> 1 + D50</f>
+        <v>44483</v>
+      </c>
+      <c r="F50" s="17">
+        <f xml:space="preserve"> 1 + E50</f>
+        <v>44484</v>
+      </c>
+      <c r="G50" s="17">
+        <f xml:space="preserve"> 1 + F50</f>
+        <v>44485</v>
+      </c>
+      <c r="H50" s="17">
+        <f xml:space="preserve"> 1 + G50</f>
+        <v>44486</v>
+      </c>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B51" s="17">
+        <f t="shared" si="9"/>
+        <v>44487</v>
+      </c>
+      <c r="C51" s="17">
+        <f xml:space="preserve"> 1 + B51</f>
+        <v>44488</v>
+      </c>
+      <c r="D51" s="17">
+        <f xml:space="preserve"> 1 + C51</f>
+        <v>44489</v>
+      </c>
+      <c r="E51" s="17">
+        <f xml:space="preserve"> 1 + D51</f>
+        <v>44490</v>
+      </c>
+      <c r="F51" s="17">
+        <f xml:space="preserve"> 1 + E51</f>
+        <v>44491</v>
+      </c>
+      <c r="G51" s="17">
+        <f xml:space="preserve"> 1 + F51</f>
+        <v>44492</v>
+      </c>
+      <c r="H51" s="17">
+        <f xml:space="preserve"> 1 + G51</f>
+        <v>44493</v>
+      </c>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B52" s="17">
+        <f t="shared" si="9"/>
+        <v>44494</v>
+      </c>
+      <c r="C52" s="17">
+        <f xml:space="preserve"> 1 + B52</f>
+        <v>44495</v>
+      </c>
+      <c r="D52" s="17">
+        <f xml:space="preserve"> 1 + C52</f>
+        <v>44496</v>
+      </c>
+      <c r="E52" s="17">
+        <f xml:space="preserve"> 1 + D52</f>
+        <v>44497</v>
+      </c>
+      <c r="F52" s="17">
+        <f xml:space="preserve"> 1 + E52</f>
+        <v>44498</v>
+      </c>
+      <c r="G52" s="17">
+        <f xml:space="preserve"> 1 + F52</f>
+        <v>44499</v>
+      </c>
+      <c r="H52" s="17">
+        <f xml:space="preserve"> 1 + G52</f>
+        <v>44500</v>
+      </c>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24">
+        <f>SUM(J48:J52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="15">
+        <f t="shared" si="3"/>
+        <v>44507</v>
+      </c>
+      <c r="B53" s="17">
+        <f t="shared" si="9"/>
+        <v>44501</v>
+      </c>
+      <c r="C53" s="17">
+        <f xml:space="preserve"> 1 + B53</f>
+        <v>44502</v>
+      </c>
+      <c r="D53" s="17">
+        <f xml:space="preserve"> 1 + C53</f>
+        <v>44503</v>
+      </c>
+      <c r="E53" s="17">
+        <f xml:space="preserve"> 1 + D53</f>
+        <v>44504</v>
+      </c>
+      <c r="F53" s="17">
+        <f xml:space="preserve"> 1 + E53</f>
+        <v>44505</v>
+      </c>
+      <c r="G53" s="17">
+        <f xml:space="preserve"> 1 + F53</f>
+        <v>44506</v>
+      </c>
+      <c r="H53" s="17">
+        <f xml:space="preserve"> 1 + G53</f>
+        <v>44507</v>
+      </c>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B54" s="17">
+        <f xml:space="preserve"> 1 + $H53</f>
+        <v>44508</v>
+      </c>
+      <c r="C54" s="17">
+        <f xml:space="preserve"> 1 + B54</f>
+        <v>44509</v>
+      </c>
+      <c r="D54" s="17">
+        <f xml:space="preserve"> 1 + C54</f>
+        <v>44510</v>
+      </c>
+      <c r="E54" s="17">
+        <f xml:space="preserve"> 1 + D54</f>
+        <v>44511</v>
+      </c>
+      <c r="F54" s="17">
+        <f xml:space="preserve"> 1 + E54</f>
+        <v>44512</v>
+      </c>
+      <c r="G54" s="17">
+        <f xml:space="preserve"> 1 + F54</f>
+        <v>44513</v>
+      </c>
+      <c r="H54" s="17">
+        <f xml:space="preserve"> 1 + G54</f>
+        <v>44514</v>
+      </c>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B55" s="17">
+        <f t="shared" ref="B55:B57" si="10" xml:space="preserve"> 1 + $H54</f>
+        <v>44515</v>
+      </c>
+      <c r="C55" s="17">
+        <f xml:space="preserve"> 1 + B55</f>
+        <v>44516</v>
+      </c>
+      <c r="D55" s="17">
+        <f xml:space="preserve"> 1 + C55</f>
+        <v>44517</v>
+      </c>
+      <c r="E55" s="17">
+        <f xml:space="preserve"> 1 + D55</f>
+        <v>44518</v>
+      </c>
+      <c r="F55" s="17">
+        <f xml:space="preserve"> 1 + E55</f>
+        <v>44519</v>
+      </c>
+      <c r="G55" s="17">
+        <f xml:space="preserve"> 1 + F55</f>
+        <v>44520</v>
+      </c>
+      <c r="H55" s="17">
+        <f xml:space="preserve"> 1 + G55</f>
+        <v>44521</v>
+      </c>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B56" s="17">
+        <f t="shared" si="10"/>
+        <v>44522</v>
+      </c>
+      <c r="C56" s="17">
+        <f xml:space="preserve"> 1 + B56</f>
+        <v>44523</v>
+      </c>
+      <c r="D56" s="17">
+        <f xml:space="preserve"> 1 + C56</f>
+        <v>44524</v>
+      </c>
+      <c r="E56" s="17">
+        <f xml:space="preserve"> 1 + D56</f>
+        <v>44525</v>
+      </c>
+      <c r="F56" s="17">
+        <f xml:space="preserve"> 1 + E56</f>
+        <v>44526</v>
+      </c>
+      <c r="G56" s="17">
+        <f xml:space="preserve"> 1 + F56</f>
+        <v>44527</v>
+      </c>
+      <c r="H56" s="17">
+        <f xml:space="preserve"> 1 + G56</f>
+        <v>44528</v>
+      </c>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24">
+        <f>SUM(J53:J56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="15">
+        <f t="shared" si="3"/>
+        <v>44535</v>
+      </c>
+      <c r="B57" s="17">
+        <f t="shared" si="10"/>
+        <v>44529</v>
+      </c>
+      <c r="C57" s="17">
+        <f xml:space="preserve"> 1 + B57</f>
+        <v>44530</v>
+      </c>
+      <c r="D57" s="17">
+        <f xml:space="preserve"> 1 + C57</f>
+        <v>44531</v>
+      </c>
+      <c r="E57" s="17">
+        <f xml:space="preserve"> 1 + D57</f>
+        <v>44532</v>
+      </c>
+      <c r="F57" s="17">
+        <f xml:space="preserve"> 1 + E57</f>
+        <v>44533</v>
+      </c>
+      <c r="G57" s="17">
+        <f xml:space="preserve"> 1 + F57</f>
+        <v>44534</v>
+      </c>
+      <c r="H57" s="17">
+        <f xml:space="preserve"> 1 + G57</f>
+        <v>44535</v>
+      </c>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B58" s="17">
+        <f xml:space="preserve"> 1 + $H57</f>
+        <v>44536</v>
+      </c>
+      <c r="C58" s="17">
+        <f xml:space="preserve"> 1 + B58</f>
+        <v>44537</v>
+      </c>
+      <c r="D58" s="17">
+        <f xml:space="preserve"> 1 + C58</f>
+        <v>44538</v>
+      </c>
+      <c r="E58" s="17">
+        <f xml:space="preserve"> 1 + D58</f>
+        <v>44539</v>
+      </c>
+      <c r="F58" s="17">
+        <f xml:space="preserve"> 1 + E58</f>
+        <v>44540</v>
+      </c>
+      <c r="G58" s="17">
+        <f xml:space="preserve"> 1 + F58</f>
+        <v>44541</v>
+      </c>
+      <c r="H58" s="17">
+        <f xml:space="preserve"> 1 + G58</f>
+        <v>44542</v>
+      </c>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B59" s="17">
+        <f t="shared" ref="B59:B60" si="11" xml:space="preserve"> 1 + $H58</f>
+        <v>44543</v>
+      </c>
+      <c r="C59" s="17">
+        <f xml:space="preserve"> 1 + B59</f>
+        <v>44544</v>
+      </c>
+      <c r="D59" s="17">
+        <f xml:space="preserve"> 1 + C59</f>
+        <v>44545</v>
+      </c>
+      <c r="E59" s="17">
+        <f xml:space="preserve"> 1 + D59</f>
+        <v>44546</v>
+      </c>
+      <c r="F59" s="17">
+        <f xml:space="preserve"> 1 + E59</f>
+        <v>44547</v>
+      </c>
+      <c r="G59" s="17">
+        <f xml:space="preserve"> 1 + F59</f>
+        <v>44548</v>
+      </c>
+      <c r="H59" s="17">
+        <f xml:space="preserve"> 1 + G59</f>
+        <v>44549</v>
+      </c>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B60" s="17">
+        <f t="shared" si="11"/>
+        <v>44550</v>
+      </c>
+      <c r="C60" s="17">
+        <f xml:space="preserve"> 1 + B60</f>
+        <v>44551</v>
+      </c>
+      <c r="D60" s="17">
+        <f xml:space="preserve"> 1 + C60</f>
+        <v>44552</v>
+      </c>
+      <c r="E60" s="17">
+        <f xml:space="preserve"> 1 + D60</f>
+        <v>44553</v>
+      </c>
+      <c r="F60" s="17">
+        <f xml:space="preserve"> 1 + E60</f>
+        <v>44554</v>
+      </c>
+      <c r="G60" s="17">
+        <f xml:space="preserve"> 1 + F60</f>
+        <v>44555</v>
+      </c>
+      <c r="H60" s="17">
+        <f xml:space="preserve"> 1 + G60</f>
+        <v>44556</v>
+      </c>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="15">
+        <f t="shared" si="3"/>
+        <v>44563</v>
+      </c>
+      <c r="B61" s="19">
+        <f xml:space="preserve"> 1 + $H60</f>
+        <v>44557</v>
+      </c>
+      <c r="C61" s="17">
+        <f xml:space="preserve"> 1 + B61</f>
+        <v>44558</v>
+      </c>
+      <c r="D61" s="17">
+        <f xml:space="preserve"> 1 + C61</f>
+        <v>44559</v>
+      </c>
+      <c r="E61" s="17">
+        <f xml:space="preserve"> 1 + D61</f>
+        <v>44560</v>
+      </c>
+      <c r="F61" s="17">
+        <f xml:space="preserve"> 1 + E61</f>
+        <v>44561</v>
+      </c>
+      <c r="G61" s="17">
+        <f xml:space="preserve"> 1 + F61</f>
+        <v>44562</v>
+      </c>
+      <c r="H61" s="17">
+        <f xml:space="preserve"> 1 + G61</f>
+        <v>44563</v>
       </c>
       <c r="J61" s="24"/>
       <c r="K61" s="24">
@@ -9590,24 +12246,11 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B9:H9 B4:B8 C4:C8 D4:H8 C10:C61 D10 E10:H10 D11:H61" calculatedColumn="1"/>
+    <ignoredError sqref="B9 B8:H8 B7:H7 B4:B6 C4:C5 C6:H6 D4:H5" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19440" windowHeight="8520" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19440" windowHeight="8520" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2017 automn &amp; winter" sheetId="1" r:id="rId1"/>
@@ -268,7 +268,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="139">
+  <dxfs count="137">
     <dxf>
       <numFmt numFmtId="165" formatCode="d"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -389,14 +389,14 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -556,6 +556,234 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF1EB99"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="gray0625">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i/>
@@ -1187,292 +1415,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF1EB99"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="6" tint="0.79998168889431442"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="6" tint="0.79998168889431442"/>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="8" tint="0.79998168889431442"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashDotDot">
-          <color theme="8"/>
-        </left>
-        <right style="dashDotDot">
-          <color theme="8"/>
-        </right>
-        <top style="dashDotDot">
-          <color theme="8"/>
-        </top>
-        <bottom style="dashDotDot">
-          <color theme="8"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="gray0625">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color theme="9"/>
-        </left>
-        <right style="dotted">
-          <color theme="9"/>
-        </right>
-        <top style="dotted">
-          <color theme="9"/>
-        </top>
-        <bottom style="dotted">
-          <color theme="9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -1666,46 +1608,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A2:G13" totalsRowShown="0" headerRowDxfId="122" dataDxfId="121">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A2:G13" totalsRowShown="0" headerRowDxfId="120" dataDxfId="119">
   <autoFilter ref="A2:G13"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Lundi" dataDxfId="120">
+    <tableColumn id="1" name="Lundi" dataDxfId="118">
       <calculatedColumnFormula xml:space="preserve"> 1 + G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Mardi" dataDxfId="119"/>
-    <tableColumn id="3" name="Mercredi" dataDxfId="118"/>
-    <tableColumn id="4" name="Jeudi" dataDxfId="117"/>
-    <tableColumn id="5" name="Vendredi" dataDxfId="116"/>
-    <tableColumn id="6" name="Samedi" dataDxfId="115"/>
-    <tableColumn id="7" name="Dimanche" dataDxfId="114"/>
+    <tableColumn id="2" name="Mardi" dataDxfId="117"/>
+    <tableColumn id="3" name="Mercredi" dataDxfId="116"/>
+    <tableColumn id="4" name="Jeudi" dataDxfId="115"/>
+    <tableColumn id="5" name="Vendredi" dataDxfId="114"/>
+    <tableColumn id="6" name="Samedi" dataDxfId="113"/>
+    <tableColumn id="7" name="Dimanche" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B3:H61" totalsRowShown="0" headerRowDxfId="96" dataDxfId="94" headerRowBorderDxfId="95" tableBorderDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B3:H61" totalsRowShown="0" headerRowDxfId="94" dataDxfId="92" headerRowBorderDxfId="93" tableBorderDxfId="91">
   <autoFilter ref="B3:H61"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Lundi" dataDxfId="92">
+    <tableColumn id="1" name="Lundi" dataDxfId="90">
       <calculatedColumnFormula xml:space="preserve"> 1 + $H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Mardi" dataDxfId="91">
+    <tableColumn id="2" name="Mardi" dataDxfId="89">
       <calculatedColumnFormula xml:space="preserve"> 1 + B4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Mercredi" dataDxfId="90">
+    <tableColumn id="3" name="Mercredi" dataDxfId="88">
       <calculatedColumnFormula xml:space="preserve"> 1 + C4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Jeudi" dataDxfId="89">
+    <tableColumn id="4" name="Jeudi" dataDxfId="87">
       <calculatedColumnFormula xml:space="preserve"> 1 + D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Vendredi" dataDxfId="88">
+    <tableColumn id="5" name="Vendredi" dataDxfId="86">
       <calculatedColumnFormula xml:space="preserve"> 1 + E4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Samedi" dataDxfId="87">
+    <tableColumn id="6" name="Samedi" dataDxfId="85">
       <calculatedColumnFormula xml:space="preserve"> 1 + F4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Dimanche" dataDxfId="86">
+    <tableColumn id="7" name="Dimanche" dataDxfId="84">
       <calculatedColumnFormula xml:space="preserve"> 1 + G4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1714,28 +1656,28 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau14" displayName="Tableau14" ref="B3:H61" totalsRowShown="0" headerRowDxfId="68" dataDxfId="66" headerRowBorderDxfId="67" tableBorderDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau14" displayName="Tableau14" ref="B3:H61" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="63">
   <autoFilter ref="B3:H61"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Lundi" dataDxfId="64">
+    <tableColumn id="1" name="Lundi" dataDxfId="62">
       <calculatedColumnFormula xml:space="preserve"> 1 + $H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Mardi" dataDxfId="63">
+    <tableColumn id="2" name="Mardi" dataDxfId="61">
       <calculatedColumnFormula xml:space="preserve"> 1 + B4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Mercredi" dataDxfId="62">
+    <tableColumn id="3" name="Mercredi" dataDxfId="60">
       <calculatedColumnFormula xml:space="preserve"> 1 + C4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Jeudi" dataDxfId="61">
+    <tableColumn id="4" name="Jeudi" dataDxfId="59">
       <calculatedColumnFormula xml:space="preserve"> 1 + D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Vendredi" dataDxfId="60">
+    <tableColumn id="5" name="Vendredi" dataDxfId="58">
       <calculatedColumnFormula xml:space="preserve"> 1 + E4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Samedi" dataDxfId="59">
+    <tableColumn id="6" name="Samedi" dataDxfId="57">
       <calculatedColumnFormula xml:space="preserve"> 1 + F4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Dimanche" dataDxfId="58">
+    <tableColumn id="7" name="Dimanche" dataDxfId="56">
       <calculatedColumnFormula xml:space="preserve"> 1 + G4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1744,28 +1686,28 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau145" displayName="Tableau145" ref="B3:H61" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau145" displayName="Tableau145" ref="B3:H61" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35">
   <autoFilter ref="B3:H61"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Lundi" dataDxfId="36">
+    <tableColumn id="1" name="Lundi" dataDxfId="34">
       <calculatedColumnFormula xml:space="preserve"> 1 + $H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Mardi" dataDxfId="35">
+    <tableColumn id="2" name="Mardi" dataDxfId="33">
       <calculatedColumnFormula xml:space="preserve"> 1 + B4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Mercredi" dataDxfId="34">
+    <tableColumn id="3" name="Mercredi" dataDxfId="32">
       <calculatedColumnFormula xml:space="preserve"> 1 + C4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Jeudi" dataDxfId="33">
+    <tableColumn id="4" name="Jeudi" dataDxfId="31">
       <calculatedColumnFormula xml:space="preserve"> 1 + D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Vendredi" dataDxfId="32">
+    <tableColumn id="5" name="Vendredi" dataDxfId="30">
       <calculatedColumnFormula xml:space="preserve"> 1 + E4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Samedi" dataDxfId="31">
+    <tableColumn id="6" name="Samedi" dataDxfId="29">
       <calculatedColumnFormula xml:space="preserve"> 1 + F4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Dimanche" dataDxfId="30">
+    <tableColumn id="7" name="Dimanche" dataDxfId="28">
       <calculatedColumnFormula xml:space="preserve"> 1 + G4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1774,7 +1716,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau1456" displayName="Tableau1456" ref="B3:H61" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau1456" displayName="Tableau1456" ref="B3:H61" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
   <autoFilter ref="B3:H61"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Lundi" dataDxfId="6">
@@ -2678,66 +2620,66 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>44159</v>
+        <v>44178</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection password="CF7C" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="138" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="17" operator="lessThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="137" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="16" operator="lessThan">
       <formula>$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="136" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="15" operator="lessThan">
       <formula>$H$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="135" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="14" operator="lessThan">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="134" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="13" operator="lessThan">
       <formula>$H$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="133" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="12" operator="lessThan">
       <formula>$H$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="132" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="11" operator="lessThan">
       <formula>$H$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="131" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="10" operator="lessThan">
       <formula>$H$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="130" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="9" operator="lessThan">
       <formula>$H$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="129" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="8" operator="lessThan">
       <formula>$H$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G13">
-    <cfRule type="timePeriod" dxfId="128" priority="6" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="126" priority="6" timePeriod="today">
       <formula>FLOOR(A3,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="127" priority="7" timePeriod="thisMonth">
+    <cfRule type="timePeriod" dxfId="125" priority="7" timePeriod="thisMonth">
       <formula>AND(MONTH(A3)=MONTH(TODAY()),YEAR(A3)=YEAR(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2756,18 +2698,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="126" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="124" priority="1" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="123" priority="2" operator="between">
       <formula>0.2</formula>
       <formula>0.6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="122" priority="3" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="4" operator="lessThan">
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5123,63 +5065,63 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:H61">
-    <cfRule type="timePeriod" dxfId="113" priority="18" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="111" priority="18" timePeriod="today">
       <formula>FLOOR(B4,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="112" priority="19" timePeriod="thisMonth">
+    <cfRule type="timePeriod" dxfId="110" priority="19" timePeriod="thisMonth">
       <formula>AND(MONTH(B4)=MONTH(TODAY()),YEAR(B4)=YEAR(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:K61">
-    <cfRule type="cellIs" dxfId="111" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="109" priority="13" operator="greaterThan">
       <formula>24.8800001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="108" priority="14" operator="between">
       <formula>18.66000001</formula>
       <formula>24.88</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="107" priority="15" operator="between">
       <formula>12.4400001</formula>
       <formula>18.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="106" priority="16" operator="between">
       <formula>6.220001</formula>
       <formula>12.44</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="105" priority="17" operator="between">
       <formula>0</formula>
       <formula>6.22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:K3">
-    <cfRule type="expression" dxfId="106" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="1" stopIfTrue="1">
       <formula>"$k$3 &gt;= 0,9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="2" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="3" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="5" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="6" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="7" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="8" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="9" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="10" stopIfTrue="1">
       <formula>$L$3 &lt; 0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7506,63 +7448,63 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:H61">
-    <cfRule type="timePeriod" dxfId="85" priority="16" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="83" priority="16" timePeriod="today">
       <formula>FLOOR(B4,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="84" priority="17" timePeriod="thisMonth">
+    <cfRule type="timePeriod" dxfId="82" priority="17" timePeriod="thisMonth">
       <formula>AND(MONTH(B4)=MONTH(TODAY()),YEAR(B4)=YEAR(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:K61">
-    <cfRule type="cellIs" dxfId="83" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="11" operator="greaterThan">
       <formula>24.8800001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="80" priority="12" operator="between">
       <formula>18.66000001</formula>
       <formula>24.88</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="79" priority="13" operator="between">
       <formula>12.4400001</formula>
       <formula>18.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="78" priority="14" operator="between">
       <formula>6.220001</formula>
       <formula>12.44</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="77" priority="15" operator="between">
       <formula>0</formula>
       <formula>6.22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:K3">
-    <cfRule type="expression" dxfId="78" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="1" stopIfTrue="1">
       <formula>"$k$3 &gt;= 0,9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="2" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="3" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="4" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="5" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="6" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="7" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="8" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="9" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="10" stopIfTrue="1">
       <formula>$L$3 &lt; 0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7580,11 +7522,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="3" topLeftCell="J43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J56" sqref="J56"/>
+      <selection pane="bottomRight" activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7637,20 +7579,20 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>717.19</v>
+        <v>770.16</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>1.1530385852090033</v>
+        <v>1.2381993569131833</v>
       </c>
       <c r="M3" s="29">
         <f xml:space="preserve"> $J$3 - $L$2</f>
-        <v>95.190000000000055</v>
+        <v>148.15999999999997</v>
       </c>
       <c r="N3" s="30">
         <f xml:space="preserve"> $M$3 / $L$2 * 1000</f>
-        <v>153.03858520900329</v>
+        <v>238.19935691318324</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -9718,10 +9660,13 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>44164</v>
       </c>
-      <c r="J56" s="24"/>
+      <c r="J56" s="24">
+        <f xml:space="preserve"> 7.87 + 11.03</f>
+        <v>18.899999999999999</v>
+      </c>
       <c r="K56" s="24">
         <f>SUM(J53:J56)</f>
-        <v>93.039999999999992</v>
+        <v>111.94</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -9757,7 +9702,9 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>44171</v>
       </c>
-      <c r="J57" s="24"/>
+      <c r="J57" s="24">
+        <v>14.15</v>
+      </c>
       <c r="K57" s="24"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -9793,7 +9740,10 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>44178</v>
       </c>
-      <c r="J58" s="24"/>
+      <c r="J58" s="24">
+        <f xml:space="preserve"> 8.35 + 11.57</f>
+        <v>19.920000000000002</v>
+      </c>
       <c r="K58" s="24"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -9904,68 +9854,68 @@
       <c r="J61" s="24"/>
       <c r="K61" s="24">
         <f>SUM(J57:J61)</f>
-        <v>0</v>
+        <v>34.07</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:H61">
-    <cfRule type="timePeriod" dxfId="57" priority="16" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="55" priority="16" timePeriod="today">
       <formula>FLOOR(B4,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="56" priority="17" timePeriod="thisMonth">
+    <cfRule type="timePeriod" dxfId="54" priority="17" timePeriod="thisMonth">
       <formula>AND(MONTH(B4)=MONTH(TODAY()),YEAR(B4)=YEAR(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:K61">
-    <cfRule type="cellIs" dxfId="55" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="11" operator="greaterThan">
       <formula>24.8800001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="52" priority="12" operator="between">
       <formula>18.66000001</formula>
       <formula>24.88</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="51" priority="13" operator="between">
       <formula>12.4400001</formula>
       <formula>18.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="50" priority="14" operator="between">
       <formula>6.220001</formula>
       <formula>12.44</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="49" priority="15" operator="between">
       <formula>0</formula>
       <formula>6.22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:K3">
-    <cfRule type="expression" dxfId="50" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="1" stopIfTrue="1">
       <formula>"$k$3 &gt;= 0,9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="2" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,9"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="3" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,8"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="4" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,7"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="5" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,6"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="6" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,5"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="7" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,4"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="8" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,3"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="9" stopIfTrue="1">
       <formula>"$k$3 &lt; 0,2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="10" stopIfTrue="1">
       <formula>$L$3 &lt; 0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9984,8 +9934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10246,27 +10196,27 @@
         <v>44193</v>
       </c>
       <c r="C9" s="17">
-        <f xml:space="preserve"> 1 + B9</f>
+        <f t="shared" ref="C9:H18" si="3" xml:space="preserve"> 1 + B9</f>
         <v>44194</v>
       </c>
       <c r="D9" s="17">
-        <f xml:space="preserve"> 1 + C9</f>
+        <f t="shared" si="3"/>
         <v>44195</v>
       </c>
       <c r="E9" s="17">
-        <f xml:space="preserve"> 1 + D9</f>
+        <f t="shared" si="3"/>
         <v>44196</v>
       </c>
       <c r="F9" s="17">
-        <f xml:space="preserve"> 1 + E9</f>
+        <f t="shared" si="3"/>
         <v>44197</v>
       </c>
       <c r="G9" s="17">
-        <f xml:space="preserve"> 1 + F9</f>
+        <f t="shared" si="3"/>
         <v>44198</v>
       </c>
       <c r="H9" s="17">
-        <f xml:space="preserve"> 1 + G9</f>
+        <f t="shared" si="3"/>
         <v>44199</v>
       </c>
       <c r="J9" s="24"/>
@@ -10275,7 +10225,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="str">
-        <f t="shared" ref="A10:A61" si="3" xml:space="preserve"> IF(OR( 1 = DAY($B10), 1 = DAY($C10), 1 = DAY($D10), 1 = DAY($E10), 1 = DAY($F10),  1 = DAY($G10),  1 = DAY($H10),   ), $H10, "")</f>
+        <f t="shared" ref="A10:A61" si="4" xml:space="preserve"> IF(OR( 1 = DAY($B10), 1 = DAY($C10), 1 = DAY($D10), 1 = DAY($E10), 1 = DAY($F10),  1 = DAY($G10),  1 = DAY($H10),   ), $H10, "")</f>
         <v/>
       </c>
       <c r="B10" s="17">
@@ -10283,27 +10233,27 @@
         <v>44200</v>
       </c>
       <c r="C10" s="17">
-        <f xml:space="preserve"> 1 + B10</f>
+        <f t="shared" si="3"/>
         <v>44201</v>
       </c>
       <c r="D10" s="17">
-        <f xml:space="preserve"> 1 + C10</f>
+        <f t="shared" si="3"/>
         <v>44202</v>
       </c>
       <c r="E10" s="17">
-        <f xml:space="preserve"> 1 + D10</f>
+        <f t="shared" si="3"/>
         <v>44203</v>
       </c>
       <c r="F10" s="17">
-        <f xml:space="preserve"> 1 + E10</f>
+        <f t="shared" si="3"/>
         <v>44204</v>
       </c>
       <c r="G10" s="17">
-        <f xml:space="preserve"> 1 + F10</f>
+        <f t="shared" si="3"/>
         <v>44205</v>
       </c>
       <c r="H10" s="17">
-        <f xml:space="preserve"> 1 + G10</f>
+        <f t="shared" si="3"/>
         <v>44206</v>
       </c>
       <c r="J10" s="24"/>
@@ -10313,35 +10263,35 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B11" s="17">
-        <f t="shared" ref="B11:B18" si="4" xml:space="preserve"> 1 + $H10</f>
+        <f t="shared" ref="B11:B18" si="5" xml:space="preserve"> 1 + $H10</f>
         <v>44207</v>
       </c>
       <c r="C11" s="17">
-        <f xml:space="preserve"> 1 + B11</f>
+        <f t="shared" si="3"/>
         <v>44208</v>
       </c>
       <c r="D11" s="17">
-        <f xml:space="preserve"> 1 + C11</f>
+        <f t="shared" si="3"/>
         <v>44209</v>
       </c>
       <c r="E11" s="17">
-        <f xml:space="preserve"> 1 + D11</f>
+        <f t="shared" si="3"/>
         <v>44210</v>
       </c>
       <c r="F11" s="17">
-        <f xml:space="preserve"> 1 + E11</f>
+        <f t="shared" si="3"/>
         <v>44211</v>
       </c>
       <c r="G11" s="17">
-        <f xml:space="preserve"> 1 + F11</f>
+        <f t="shared" si="3"/>
         <v>44212</v>
       </c>
       <c r="H11" s="17">
-        <f xml:space="preserve"> 1 + G11</f>
+        <f t="shared" si="3"/>
         <v>44213</v>
       </c>
       <c r="J11" s="24"/>
@@ -10349,35 +10299,35 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B12" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44214</v>
       </c>
       <c r="C12" s="17">
-        <f xml:space="preserve"> 1 + B12</f>
+        <f t="shared" si="3"/>
         <v>44215</v>
       </c>
       <c r="D12" s="17">
-        <f xml:space="preserve"> 1 + C12</f>
+        <f t="shared" si="3"/>
         <v>44216</v>
       </c>
       <c r="E12" s="17">
-        <f xml:space="preserve"> 1 + D12</f>
+        <f t="shared" si="3"/>
         <v>44217</v>
       </c>
       <c r="F12" s="17">
-        <f xml:space="preserve"> 1 + E12</f>
+        <f t="shared" si="3"/>
         <v>44218</v>
       </c>
       <c r="G12" s="17">
-        <f xml:space="preserve"> 1 + F12</f>
+        <f t="shared" si="3"/>
         <v>44219</v>
       </c>
       <c r="H12" s="17">
-        <f xml:space="preserve"> 1 + G12</f>
+        <f t="shared" si="3"/>
         <v>44220</v>
       </c>
       <c r="J12" s="24"/>
@@ -10385,35 +10335,35 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B13" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44221</v>
       </c>
       <c r="C13" s="17">
-        <f xml:space="preserve"> 1 + B13</f>
+        <f t="shared" si="3"/>
         <v>44222</v>
       </c>
       <c r="D13" s="17">
-        <f xml:space="preserve"> 1 + C13</f>
+        <f t="shared" si="3"/>
         <v>44223</v>
       </c>
       <c r="E13" s="17">
-        <f xml:space="preserve"> 1 + D13</f>
+        <f t="shared" si="3"/>
         <v>44224</v>
       </c>
       <c r="F13" s="17">
-        <f xml:space="preserve"> 1 + E13</f>
+        <f t="shared" si="3"/>
         <v>44225</v>
       </c>
       <c r="G13" s="17">
-        <f xml:space="preserve"> 1 + F13</f>
+        <f t="shared" si="3"/>
         <v>44226</v>
       </c>
       <c r="H13" s="17">
-        <f xml:space="preserve"> 1 + G13</f>
+        <f t="shared" si="3"/>
         <v>44227</v>
       </c>
       <c r="J13" s="24"/>
@@ -10424,35 +10374,35 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44234</v>
       </c>
       <c r="B14" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44228</v>
       </c>
       <c r="C14" s="17">
-        <f xml:space="preserve"> 1 + B14</f>
+        <f t="shared" si="3"/>
         <v>44229</v>
       </c>
       <c r="D14" s="17">
-        <f xml:space="preserve"> 1 + C14</f>
+        <f t="shared" si="3"/>
         <v>44230</v>
       </c>
       <c r="E14" s="17">
-        <f xml:space="preserve"> 1 + D14</f>
+        <f t="shared" si="3"/>
         <v>44231</v>
       </c>
       <c r="F14" s="17">
-        <f xml:space="preserve"> 1 + E14</f>
+        <f t="shared" si="3"/>
         <v>44232</v>
       </c>
       <c r="G14" s="17">
-        <f xml:space="preserve"> 1 + F14</f>
+        <f t="shared" si="3"/>
         <v>44233</v>
       </c>
       <c r="H14" s="17">
-        <f xml:space="preserve"> 1 + G14</f>
+        <f t="shared" si="3"/>
         <v>44234</v>
       </c>
       <c r="J14" s="24"/>
@@ -10460,35 +10410,35 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B15" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44235</v>
       </c>
       <c r="C15" s="17">
-        <f xml:space="preserve"> 1 + B15</f>
+        <f t="shared" si="3"/>
         <v>44236</v>
       </c>
       <c r="D15" s="17">
-        <f xml:space="preserve"> 1 + C15</f>
+        <f t="shared" si="3"/>
         <v>44237</v>
       </c>
       <c r="E15" s="17">
-        <f xml:space="preserve"> 1 + D15</f>
+        <f t="shared" si="3"/>
         <v>44238</v>
       </c>
       <c r="F15" s="17">
-        <f xml:space="preserve"> 1 + E15</f>
+        <f t="shared" si="3"/>
         <v>44239</v>
       </c>
       <c r="G15" s="17">
-        <f xml:space="preserve"> 1 + F15</f>
+        <f t="shared" si="3"/>
         <v>44240</v>
       </c>
       <c r="H15" s="17">
-        <f xml:space="preserve"> 1 + G15</f>
+        <f t="shared" si="3"/>
         <v>44241</v>
       </c>
       <c r="J15" s="24"/>
@@ -10496,35 +10446,35 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B16" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44242</v>
       </c>
       <c r="C16" s="17">
-        <f xml:space="preserve"> 1 + B16</f>
+        <f t="shared" si="3"/>
         <v>44243</v>
       </c>
       <c r="D16" s="17">
-        <f xml:space="preserve"> 1 + C16</f>
+        <f t="shared" si="3"/>
         <v>44244</v>
       </c>
       <c r="E16" s="17">
-        <f xml:space="preserve"> 1 + D16</f>
+        <f t="shared" si="3"/>
         <v>44245</v>
       </c>
       <c r="F16" s="17">
-        <f xml:space="preserve"> 1 + E16</f>
+        <f t="shared" si="3"/>
         <v>44246</v>
       </c>
       <c r="G16" s="17">
-        <f xml:space="preserve"> 1 + F16</f>
+        <f t="shared" si="3"/>
         <v>44247</v>
       </c>
       <c r="H16" s="17">
-        <f xml:space="preserve"> 1 + G16</f>
+        <f t="shared" si="3"/>
         <v>44248</v>
       </c>
       <c r="J16" s="24"/>
@@ -10532,35 +10482,35 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44249</v>
       </c>
       <c r="C17" s="17">
-        <f xml:space="preserve"> 1 + B17</f>
+        <f t="shared" si="3"/>
         <v>44250</v>
       </c>
       <c r="D17" s="17">
-        <f xml:space="preserve"> 1 + C17</f>
+        <f t="shared" si="3"/>
         <v>44251</v>
       </c>
       <c r="E17" s="17">
-        <f xml:space="preserve"> 1 + D17</f>
+        <f t="shared" si="3"/>
         <v>44252</v>
       </c>
       <c r="F17" s="17">
-        <f xml:space="preserve"> 1 + E17</f>
+        <f t="shared" si="3"/>
         <v>44253</v>
       </c>
       <c r="G17" s="17">
-        <f xml:space="preserve"> 1 + F17</f>
+        <f t="shared" si="3"/>
         <v>44254</v>
       </c>
       <c r="H17" s="17">
-        <f xml:space="preserve"> 1 + G17</f>
+        <f t="shared" si="3"/>
         <v>44255</v>
       </c>
       <c r="J17" s="24"/>
@@ -10571,35 +10521,35 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44262</v>
       </c>
       <c r="B18" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44256</v>
       </c>
       <c r="C18" s="17">
-        <f xml:space="preserve"> 1 + B18</f>
+        <f t="shared" si="3"/>
         <v>44257</v>
       </c>
       <c r="D18" s="17">
-        <f xml:space="preserve"> 1 + C18</f>
+        <f t="shared" si="3"/>
         <v>44258</v>
       </c>
       <c r="E18" s="17">
-        <f xml:space="preserve"> 1 + D18</f>
+        <f t="shared" si="3"/>
         <v>44259</v>
       </c>
       <c r="F18" s="17">
-        <f xml:space="preserve"> 1 + E18</f>
+        <f t="shared" si="3"/>
         <v>44260</v>
       </c>
       <c r="G18" s="17">
-        <f xml:space="preserve"> 1 + F18</f>
+        <f t="shared" si="3"/>
         <v>44261</v>
       </c>
       <c r="H18" s="17">
-        <f xml:space="preserve"> 1 + G18</f>
+        <f t="shared" si="3"/>
         <v>44262</v>
       </c>
       <c r="J18" s="24"/>
@@ -10607,7 +10557,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B19" s="17">
@@ -10615,27 +10565,27 @@
         <v>44263</v>
       </c>
       <c r="C19" s="17">
-        <f xml:space="preserve"> 1 + B19</f>
+        <f t="shared" ref="C19:H28" si="6" xml:space="preserve"> 1 + B19</f>
         <v>44264</v>
       </c>
       <c r="D19" s="17">
-        <f xml:space="preserve"> 1 + C19</f>
+        <f t="shared" si="6"/>
         <v>44265</v>
       </c>
       <c r="E19" s="17">
-        <f xml:space="preserve"> 1 + D19</f>
+        <f t="shared" si="6"/>
         <v>44266</v>
       </c>
       <c r="F19" s="17">
-        <f xml:space="preserve"> 1 + E19</f>
+        <f t="shared" si="6"/>
         <v>44267</v>
       </c>
       <c r="G19" s="17">
-        <f xml:space="preserve"> 1 + F19</f>
+        <f t="shared" si="6"/>
         <v>44268</v>
       </c>
       <c r="H19" s="17">
-        <f xml:space="preserve"> 1 + G19</f>
+        <f t="shared" si="6"/>
         <v>44269</v>
       </c>
       <c r="J19" s="24"/>
@@ -10643,35 +10593,35 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B20" s="17">
-        <f t="shared" ref="B20:B27" si="5" xml:space="preserve"> 1 + $H19</f>
+        <f t="shared" ref="B20:B27" si="7" xml:space="preserve"> 1 + $H19</f>
         <v>44270</v>
       </c>
       <c r="C20" s="17">
-        <f xml:space="preserve"> 1 + B20</f>
+        <f t="shared" si="6"/>
         <v>44271</v>
       </c>
       <c r="D20" s="17">
-        <f xml:space="preserve"> 1 + C20</f>
+        <f t="shared" si="6"/>
         <v>44272</v>
       </c>
       <c r="E20" s="17">
-        <f xml:space="preserve"> 1 + D20</f>
+        <f t="shared" si="6"/>
         <v>44273</v>
       </c>
       <c r="F20" s="17">
-        <f xml:space="preserve"> 1 + E20</f>
+        <f t="shared" si="6"/>
         <v>44274</v>
       </c>
       <c r="G20" s="17">
-        <f xml:space="preserve"> 1 + F20</f>
+        <f t="shared" si="6"/>
         <v>44275</v>
       </c>
       <c r="H20" s="17">
-        <f xml:space="preserve"> 1 + G20</f>
+        <f t="shared" si="6"/>
         <v>44276</v>
       </c>
       <c r="J20" s="24"/>
@@ -10679,35 +10629,35 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B21" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44277</v>
       </c>
       <c r="C21" s="17">
-        <f xml:space="preserve"> 1 + B21</f>
+        <f t="shared" si="6"/>
         <v>44278</v>
       </c>
       <c r="D21" s="17">
-        <f xml:space="preserve"> 1 + C21</f>
+        <f t="shared" si="6"/>
         <v>44279</v>
       </c>
       <c r="E21" s="17">
-        <f xml:space="preserve"> 1 + D21</f>
+        <f t="shared" si="6"/>
         <v>44280</v>
       </c>
       <c r="F21" s="17">
-        <f xml:space="preserve"> 1 + E21</f>
+        <f t="shared" si="6"/>
         <v>44281</v>
       </c>
       <c r="G21" s="17">
-        <f xml:space="preserve"> 1 + F21</f>
+        <f t="shared" si="6"/>
         <v>44282</v>
       </c>
       <c r="H21" s="17">
-        <f xml:space="preserve"> 1 + G21</f>
+        <f t="shared" si="6"/>
         <v>44283</v>
       </c>
       <c r="J21" s="24"/>
@@ -10718,35 +10668,35 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44290</v>
       </c>
       <c r="B22" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44284</v>
       </c>
       <c r="C22" s="17">
-        <f xml:space="preserve"> 1 + B22</f>
+        <f t="shared" si="6"/>
         <v>44285</v>
       </c>
       <c r="D22" s="17">
-        <f xml:space="preserve"> 1 + C22</f>
+        <f t="shared" si="6"/>
         <v>44286</v>
       </c>
       <c r="E22" s="17">
-        <f xml:space="preserve"> 1 + D22</f>
+        <f t="shared" si="6"/>
         <v>44287</v>
       </c>
       <c r="F22" s="17">
-        <f xml:space="preserve"> 1 + E22</f>
+        <f t="shared" si="6"/>
         <v>44288</v>
       </c>
       <c r="G22" s="17">
-        <f xml:space="preserve"> 1 + F22</f>
+        <f t="shared" si="6"/>
         <v>44289</v>
       </c>
       <c r="H22" s="17">
-        <f xml:space="preserve"> 1 + G22</f>
+        <f t="shared" si="6"/>
         <v>44290</v>
       </c>
       <c r="J22" s="24"/>
@@ -10754,35 +10704,35 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B23" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44291</v>
       </c>
       <c r="C23" s="17">
-        <f xml:space="preserve"> 1 + B23</f>
+        <f t="shared" si="6"/>
         <v>44292</v>
       </c>
       <c r="D23" s="17">
-        <f xml:space="preserve"> 1 + C23</f>
+        <f t="shared" si="6"/>
         <v>44293</v>
       </c>
       <c r="E23" s="17">
-        <f xml:space="preserve"> 1 + D23</f>
+        <f t="shared" si="6"/>
         <v>44294</v>
       </c>
       <c r="F23" s="17">
-        <f xml:space="preserve"> 1 + E23</f>
+        <f t="shared" si="6"/>
         <v>44295</v>
       </c>
       <c r="G23" s="17">
-        <f xml:space="preserve"> 1 + F23</f>
+        <f t="shared" si="6"/>
         <v>44296</v>
       </c>
       <c r="H23" s="17">
-        <f xml:space="preserve"> 1 + G23</f>
+        <f t="shared" si="6"/>
         <v>44297</v>
       </c>
       <c r="J23" s="24"/>
@@ -10790,35 +10740,35 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B24" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44298</v>
       </c>
       <c r="C24" s="17">
-        <f xml:space="preserve"> 1 + B24</f>
+        <f t="shared" si="6"/>
         <v>44299</v>
       </c>
       <c r="D24" s="17">
-        <f xml:space="preserve"> 1 + C24</f>
+        <f t="shared" si="6"/>
         <v>44300</v>
       </c>
       <c r="E24" s="17">
-        <f xml:space="preserve"> 1 + D24</f>
+        <f t="shared" si="6"/>
         <v>44301</v>
       </c>
       <c r="F24" s="17">
-        <f xml:space="preserve"> 1 + E24</f>
+        <f t="shared" si="6"/>
         <v>44302</v>
       </c>
       <c r="G24" s="17">
-        <f xml:space="preserve"> 1 + F24</f>
+        <f t="shared" si="6"/>
         <v>44303</v>
       </c>
       <c r="H24" s="17">
-        <f xml:space="preserve"> 1 + G24</f>
+        <f t="shared" si="6"/>
         <v>44304</v>
       </c>
       <c r="J24" s="24"/>
@@ -10826,35 +10776,35 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B25" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44305</v>
       </c>
       <c r="C25" s="17">
-        <f xml:space="preserve"> 1 + B25</f>
+        <f t="shared" si="6"/>
         <v>44306</v>
       </c>
       <c r="D25" s="17">
-        <f xml:space="preserve"> 1 + C25</f>
+        <f t="shared" si="6"/>
         <v>44307</v>
       </c>
       <c r="E25" s="17">
-        <f xml:space="preserve"> 1 + D25</f>
+        <f t="shared" si="6"/>
         <v>44308</v>
       </c>
       <c r="F25" s="17">
-        <f xml:space="preserve"> 1 + E25</f>
+        <f t="shared" si="6"/>
         <v>44309</v>
       </c>
       <c r="G25" s="17">
-        <f xml:space="preserve"> 1 + F25</f>
+        <f t="shared" si="6"/>
         <v>44310</v>
       </c>
       <c r="H25" s="17">
-        <f xml:space="preserve"> 1 + G25</f>
+        <f t="shared" si="6"/>
         <v>44311</v>
       </c>
       <c r="J25" s="24"/>
@@ -10862,35 +10812,35 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44318</v>
       </c>
       <c r="B26" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44312</v>
       </c>
       <c r="C26" s="17">
-        <f xml:space="preserve"> 1 + B26</f>
+        <f t="shared" si="6"/>
         <v>44313</v>
       </c>
       <c r="D26" s="17">
-        <f xml:space="preserve"> 1 + C26</f>
+        <f t="shared" si="6"/>
         <v>44314</v>
       </c>
       <c r="E26" s="17">
-        <f xml:space="preserve"> 1 + D26</f>
+        <f t="shared" si="6"/>
         <v>44315</v>
       </c>
       <c r="F26" s="17">
-        <f xml:space="preserve"> 1 + E26</f>
+        <f t="shared" si="6"/>
         <v>44316</v>
       </c>
       <c r="G26" s="17">
-        <f xml:space="preserve"> 1 + F26</f>
+        <f t="shared" si="6"/>
         <v>44317</v>
       </c>
       <c r="H26" s="17">
-        <f xml:space="preserve"> 1 + G26</f>
+        <f t="shared" si="6"/>
         <v>44318</v>
       </c>
       <c r="J26" s="24"/>
@@ -10901,35 +10851,35 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B27" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44319</v>
       </c>
       <c r="C27" s="17">
-        <f xml:space="preserve"> 1 + B27</f>
+        <f t="shared" si="6"/>
         <v>44320</v>
       </c>
       <c r="D27" s="17">
-        <f xml:space="preserve"> 1 + C27</f>
+        <f t="shared" si="6"/>
         <v>44321</v>
       </c>
       <c r="E27" s="17">
-        <f xml:space="preserve"> 1 + D27</f>
+        <f t="shared" si="6"/>
         <v>44322</v>
       </c>
       <c r="F27" s="17">
-        <f xml:space="preserve"> 1 + E27</f>
+        <f t="shared" si="6"/>
         <v>44323</v>
       </c>
       <c r="G27" s="17">
-        <f xml:space="preserve"> 1 + F27</f>
+        <f t="shared" si="6"/>
         <v>44324</v>
       </c>
       <c r="H27" s="17">
-        <f xml:space="preserve"> 1 + G27</f>
+        <f t="shared" si="6"/>
         <v>44325</v>
       </c>
       <c r="J27" s="24"/>
@@ -10937,7 +10887,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B28" s="17">
@@ -10945,27 +10895,27 @@
         <v>44326</v>
       </c>
       <c r="C28" s="17">
-        <f xml:space="preserve"> 1 + B28</f>
+        <f t="shared" si="6"/>
         <v>44327</v>
       </c>
       <c r="D28" s="17">
-        <f xml:space="preserve"> 1 + C28</f>
+        <f t="shared" si="6"/>
         <v>44328</v>
       </c>
       <c r="E28" s="17">
-        <f xml:space="preserve"> 1 + D28</f>
+        <f t="shared" si="6"/>
         <v>44329</v>
       </c>
       <c r="F28" s="17">
-        <f xml:space="preserve"> 1 + E28</f>
+        <f t="shared" si="6"/>
         <v>44330</v>
       </c>
       <c r="G28" s="17">
-        <f xml:space="preserve"> 1 + F28</f>
+        <f t="shared" si="6"/>
         <v>44331</v>
       </c>
       <c r="H28" s="17">
-        <f xml:space="preserve"> 1 + G28</f>
+        <f t="shared" si="6"/>
         <v>44332</v>
       </c>
       <c r="J28" s="24"/>
@@ -10973,35 +10923,35 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B29" s="17">
-        <f t="shared" ref="B29:B36" si="6" xml:space="preserve"> 1 + $H28</f>
+        <f t="shared" ref="B29:B36" si="8" xml:space="preserve"> 1 + $H28</f>
         <v>44333</v>
       </c>
       <c r="C29" s="17">
-        <f xml:space="preserve"> 1 + B29</f>
+        <f t="shared" ref="C29:H38" si="9" xml:space="preserve"> 1 + B29</f>
         <v>44334</v>
       </c>
       <c r="D29" s="17">
-        <f xml:space="preserve"> 1 + C29</f>
+        <f t="shared" si="9"/>
         <v>44335</v>
       </c>
       <c r="E29" s="17">
-        <f xml:space="preserve"> 1 + D29</f>
+        <f t="shared" si="9"/>
         <v>44336</v>
       </c>
       <c r="F29" s="17">
-        <f xml:space="preserve"> 1 + E29</f>
+        <f t="shared" si="9"/>
         <v>44337</v>
       </c>
       <c r="G29" s="17">
-        <f xml:space="preserve"> 1 + F29</f>
+        <f t="shared" si="9"/>
         <v>44338</v>
       </c>
       <c r="H29" s="17">
-        <f xml:space="preserve"> 1 + G29</f>
+        <f t="shared" si="9"/>
         <v>44339</v>
       </c>
       <c r="J29" s="24"/>
@@ -11013,31 +10963,31 @@
         <v/>
       </c>
       <c r="B30" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44340</v>
       </c>
       <c r="C30" s="17">
-        <f xml:space="preserve"> 1 + B30</f>
+        <f t="shared" si="9"/>
         <v>44341</v>
       </c>
       <c r="D30" s="17">
-        <f xml:space="preserve"> 1 + C30</f>
+        <f t="shared" si="9"/>
         <v>44342</v>
       </c>
       <c r="E30" s="17">
-        <f xml:space="preserve"> 1 + D30</f>
+        <f t="shared" si="9"/>
         <v>44343</v>
       </c>
       <c r="F30" s="17">
-        <f xml:space="preserve"> 1 + E30</f>
+        <f t="shared" si="9"/>
         <v>44344</v>
       </c>
       <c r="G30" s="17">
-        <f xml:space="preserve"> 1 + F30</f>
+        <f t="shared" si="9"/>
         <v>44345</v>
       </c>
       <c r="H30" s="17">
-        <f xml:space="preserve"> 1 + G30</f>
+        <f t="shared" si="9"/>
         <v>44346</v>
       </c>
       <c r="J30" s="24"/>
@@ -11048,35 +10998,35 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44353</v>
       </c>
       <c r="B31" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44347</v>
       </c>
       <c r="C31" s="17">
-        <f xml:space="preserve"> 1 + B31</f>
+        <f t="shared" si="9"/>
         <v>44348</v>
       </c>
       <c r="D31" s="17">
-        <f xml:space="preserve"> 1 + C31</f>
+        <f t="shared" si="9"/>
         <v>44349</v>
       </c>
       <c r="E31" s="17">
-        <f xml:space="preserve"> 1 + D31</f>
+        <f t="shared" si="9"/>
         <v>44350</v>
       </c>
       <c r="F31" s="17">
-        <f xml:space="preserve"> 1 + E31</f>
+        <f t="shared" si="9"/>
         <v>44351</v>
       </c>
       <c r="G31" s="17">
-        <f xml:space="preserve"> 1 + F31</f>
+        <f t="shared" si="9"/>
         <v>44352</v>
       </c>
       <c r="H31" s="17">
-        <f xml:space="preserve"> 1 + G31</f>
+        <f t="shared" si="9"/>
         <v>44353</v>
       </c>
       <c r="J31" s="24"/>
@@ -11084,35 +11034,35 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B32" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44354</v>
       </c>
       <c r="C32" s="17">
-        <f xml:space="preserve"> 1 + B32</f>
+        <f t="shared" si="9"/>
         <v>44355</v>
       </c>
       <c r="D32" s="17">
-        <f xml:space="preserve"> 1 + C32</f>
+        <f t="shared" si="9"/>
         <v>44356</v>
       </c>
       <c r="E32" s="17">
-        <f xml:space="preserve"> 1 + D32</f>
+        <f t="shared" si="9"/>
         <v>44357</v>
       </c>
       <c r="F32" s="17">
-        <f xml:space="preserve"> 1 + E32</f>
+        <f t="shared" si="9"/>
         <v>44358</v>
       </c>
       <c r="G32" s="17">
-        <f xml:space="preserve"> 1 + F32</f>
+        <f t="shared" si="9"/>
         <v>44359</v>
       </c>
       <c r="H32" s="17">
-        <f xml:space="preserve"> 1 + G32</f>
+        <f t="shared" si="9"/>
         <v>44360</v>
       </c>
       <c r="J32" s="29"/>
@@ -11120,35 +11070,35 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B33" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44361</v>
       </c>
       <c r="C33" s="17">
-        <f xml:space="preserve"> 1 + B33</f>
+        <f t="shared" si="9"/>
         <v>44362</v>
       </c>
       <c r="D33" s="17">
-        <f xml:space="preserve"> 1 + C33</f>
+        <f t="shared" si="9"/>
         <v>44363</v>
       </c>
       <c r="E33" s="17">
-        <f xml:space="preserve"> 1 + D33</f>
+        <f t="shared" si="9"/>
         <v>44364</v>
       </c>
       <c r="F33" s="17">
-        <f xml:space="preserve"> 1 + E33</f>
+        <f t="shared" si="9"/>
         <v>44365</v>
       </c>
       <c r="G33" s="17">
-        <f xml:space="preserve"> 1 + F33</f>
+        <f t="shared" si="9"/>
         <v>44366</v>
       </c>
       <c r="H33" s="17">
-        <f xml:space="preserve"> 1 + G33</f>
+        <f t="shared" si="9"/>
         <v>44367</v>
       </c>
       <c r="J33" s="24"/>
@@ -11156,35 +11106,35 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B34" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44368</v>
       </c>
       <c r="C34" s="17">
-        <f xml:space="preserve"> 1 + B34</f>
+        <f t="shared" si="9"/>
         <v>44369</v>
       </c>
       <c r="D34" s="17">
-        <f xml:space="preserve"> 1 + C34</f>
+        <f t="shared" si="9"/>
         <v>44370</v>
       </c>
       <c r="E34" s="17">
-        <f xml:space="preserve"> 1 + D34</f>
+        <f t="shared" si="9"/>
         <v>44371</v>
       </c>
       <c r="F34" s="17">
-        <f xml:space="preserve"> 1 + E34</f>
+        <f t="shared" si="9"/>
         <v>44372</v>
       </c>
       <c r="G34" s="17">
-        <f xml:space="preserve"> 1 + F34</f>
+        <f t="shared" si="9"/>
         <v>44373</v>
       </c>
       <c r="H34" s="17">
-        <f xml:space="preserve"> 1 + G34</f>
+        <f t="shared" si="9"/>
         <v>44374</v>
       </c>
       <c r="J34" s="24"/>
@@ -11195,35 +11145,35 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44381</v>
       </c>
       <c r="B35" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44375</v>
       </c>
       <c r="C35" s="17">
-        <f xml:space="preserve"> 1 + B35</f>
+        <f t="shared" si="9"/>
         <v>44376</v>
       </c>
       <c r="D35" s="17">
-        <f xml:space="preserve"> 1 + C35</f>
+        <f t="shared" si="9"/>
         <v>44377</v>
       </c>
       <c r="E35" s="17">
-        <f xml:space="preserve"> 1 + D35</f>
+        <f t="shared" si="9"/>
         <v>44378</v>
       </c>
       <c r="F35" s="17">
-        <f xml:space="preserve"> 1 + E35</f>
+        <f t="shared" si="9"/>
         <v>44379</v>
       </c>
       <c r="G35" s="17">
-        <f xml:space="preserve"> 1 + F35</f>
+        <f t="shared" si="9"/>
         <v>44380</v>
       </c>
       <c r="H35" s="17">
-        <f xml:space="preserve"> 1 + G35</f>
+        <f t="shared" si="9"/>
         <v>44381</v>
       </c>
       <c r="J35" s="24"/>
@@ -11231,35 +11181,35 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B36" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44382</v>
       </c>
       <c r="C36" s="17">
-        <f xml:space="preserve"> 1 + B36</f>
+        <f t="shared" si="9"/>
         <v>44383</v>
       </c>
       <c r="D36" s="17">
-        <f xml:space="preserve"> 1 + C36</f>
+        <f t="shared" si="9"/>
         <v>44384</v>
       </c>
       <c r="E36" s="17">
-        <f xml:space="preserve"> 1 + D36</f>
+        <f t="shared" si="9"/>
         <v>44385</v>
       </c>
       <c r="F36" s="17">
-        <f xml:space="preserve"> 1 + E36</f>
+        <f t="shared" si="9"/>
         <v>44386</v>
       </c>
       <c r="G36" s="17">
-        <f xml:space="preserve"> 1 + F36</f>
+        <f t="shared" si="9"/>
         <v>44387</v>
       </c>
       <c r="H36" s="17">
-        <f xml:space="preserve"> 1 + G36</f>
+        <f t="shared" si="9"/>
         <v>44388</v>
       </c>
       <c r="J36" s="24"/>
@@ -11267,7 +11217,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B37" s="17">
@@ -11275,27 +11225,27 @@
         <v>44389</v>
       </c>
       <c r="C37" s="17">
-        <f xml:space="preserve"> 1 + B37</f>
+        <f t="shared" si="9"/>
         <v>44390</v>
       </c>
       <c r="D37" s="17">
-        <f xml:space="preserve"> 1 + C37</f>
+        <f t="shared" si="9"/>
         <v>44391</v>
       </c>
       <c r="E37" s="17">
-        <f xml:space="preserve"> 1 + D37</f>
+        <f t="shared" si="9"/>
         <v>44392</v>
       </c>
       <c r="F37" s="17">
-        <f xml:space="preserve"> 1 + E37</f>
+        <f t="shared" si="9"/>
         <v>44393</v>
       </c>
       <c r="G37" s="17">
-        <f xml:space="preserve"> 1 + F37</f>
+        <f t="shared" si="9"/>
         <v>44394</v>
       </c>
       <c r="H37" s="17">
-        <f xml:space="preserve"> 1 + G37</f>
+        <f t="shared" si="9"/>
         <v>44395</v>
       </c>
       <c r="J37" s="24"/>
@@ -11303,35 +11253,35 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B38" s="17">
-        <f t="shared" ref="B38:B39" si="7" xml:space="preserve"> 1 + $H37</f>
+        <f t="shared" ref="B38:B39" si="10" xml:space="preserve"> 1 + $H37</f>
         <v>44396</v>
       </c>
       <c r="C38" s="17">
-        <f xml:space="preserve"> 1 + B38</f>
+        <f t="shared" si="9"/>
         <v>44397</v>
       </c>
       <c r="D38" s="17">
-        <f xml:space="preserve"> 1 + C38</f>
+        <f t="shared" si="9"/>
         <v>44398</v>
       </c>
       <c r="E38" s="17">
-        <f xml:space="preserve"> 1 + D38</f>
+        <f t="shared" si="9"/>
         <v>44399</v>
       </c>
       <c r="F38" s="17">
-        <f xml:space="preserve"> 1 + E38</f>
+        <f t="shared" si="9"/>
         <v>44400</v>
       </c>
       <c r="G38" s="17">
-        <f xml:space="preserve"> 1 + F38</f>
+        <f t="shared" si="9"/>
         <v>44401</v>
       </c>
       <c r="H38" s="17">
-        <f xml:space="preserve"> 1 + G38</f>
+        <f t="shared" si="9"/>
         <v>44402</v>
       </c>
       <c r="J38" s="24"/>
@@ -11339,35 +11289,35 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44409</v>
       </c>
       <c r="B39" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>44403</v>
       </c>
       <c r="C39" s="17">
-        <f xml:space="preserve"> 1 + B39</f>
+        <f t="shared" ref="C39:H48" si="11" xml:space="preserve"> 1 + B39</f>
         <v>44404</v>
       </c>
       <c r="D39" s="17">
-        <f xml:space="preserve"> 1 + C39</f>
+        <f t="shared" si="11"/>
         <v>44405</v>
       </c>
       <c r="E39" s="17">
-        <f xml:space="preserve"> 1 + D39</f>
+        <f t="shared" si="11"/>
         <v>44406</v>
       </c>
       <c r="F39" s="17">
-        <f xml:space="preserve"> 1 + E39</f>
+        <f t="shared" si="11"/>
         <v>44407</v>
       </c>
       <c r="G39" s="17">
-        <f xml:space="preserve"> 1 + F39</f>
+        <f t="shared" si="11"/>
         <v>44408</v>
       </c>
       <c r="H39" s="17">
-        <f xml:space="preserve"> 1 + G39</f>
+        <f t="shared" si="11"/>
         <v>44409</v>
       </c>
       <c r="J39" s="24"/>
@@ -11378,7 +11328,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B40" s="17">
@@ -11386,27 +11336,27 @@
         <v>44410</v>
       </c>
       <c r="C40" s="17">
-        <f xml:space="preserve"> 1 + B40</f>
+        <f t="shared" si="11"/>
         <v>44411</v>
       </c>
       <c r="D40" s="17">
-        <f xml:space="preserve"> 1 + C40</f>
+        <f t="shared" si="11"/>
         <v>44412</v>
       </c>
       <c r="E40" s="17">
-        <f xml:space="preserve"> 1 + D40</f>
+        <f t="shared" si="11"/>
         <v>44413</v>
       </c>
       <c r="F40" s="17">
-        <f xml:space="preserve"> 1 + E40</f>
+        <f t="shared" si="11"/>
         <v>44414</v>
       </c>
       <c r="G40" s="17">
-        <f xml:space="preserve"> 1 + F40</f>
+        <f t="shared" si="11"/>
         <v>44415</v>
       </c>
       <c r="H40" s="17">
-        <f xml:space="preserve"> 1 + G40</f>
+        <f t="shared" si="11"/>
         <v>44416</v>
       </c>
       <c r="J40" s="24"/>
@@ -11414,35 +11364,35 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B41" s="17">
-        <f t="shared" ref="B41:B48" si="8" xml:space="preserve"> 1 + $H40</f>
+        <f t="shared" ref="B41:B48" si="12" xml:space="preserve"> 1 + $H40</f>
         <v>44417</v>
       </c>
       <c r="C41" s="17">
-        <f xml:space="preserve"> 1 + B41</f>
+        <f t="shared" si="11"/>
         <v>44418</v>
       </c>
       <c r="D41" s="17">
-        <f xml:space="preserve"> 1 + C41</f>
+        <f t="shared" si="11"/>
         <v>44419</v>
       </c>
       <c r="E41" s="17">
-        <f xml:space="preserve"> 1 + D41</f>
+        <f t="shared" si="11"/>
         <v>44420</v>
       </c>
       <c r="F41" s="17">
-        <f xml:space="preserve"> 1 + E41</f>
+        <f t="shared" si="11"/>
         <v>44421</v>
       </c>
       <c r="G41" s="17">
-        <f xml:space="preserve"> 1 + F41</f>
+        <f t="shared" si="11"/>
         <v>44422</v>
       </c>
       <c r="H41" s="17">
-        <f xml:space="preserve"> 1 + G41</f>
+        <f t="shared" si="11"/>
         <v>44423</v>
       </c>
       <c r="J41" s="24"/>
@@ -11450,35 +11400,35 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B42" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>44424</v>
       </c>
       <c r="C42" s="17">
-        <f xml:space="preserve"> 1 + B42</f>
+        <f t="shared" si="11"/>
         <v>44425</v>
       </c>
       <c r="D42" s="17">
-        <f xml:space="preserve"> 1 + C42</f>
+        <f t="shared" si="11"/>
         <v>44426</v>
       </c>
       <c r="E42" s="17">
-        <f xml:space="preserve"> 1 + D42</f>
+        <f t="shared" si="11"/>
         <v>44427</v>
       </c>
       <c r="F42" s="17">
-        <f xml:space="preserve"> 1 + E42</f>
+        <f t="shared" si="11"/>
         <v>44428</v>
       </c>
       <c r="G42" s="17">
-        <f xml:space="preserve"> 1 + F42</f>
+        <f t="shared" si="11"/>
         <v>44429</v>
       </c>
       <c r="H42" s="17">
-        <f xml:space="preserve"> 1 + G42</f>
+        <f t="shared" si="11"/>
         <v>44430</v>
       </c>
       <c r="J42" s="24"/>
@@ -11486,35 +11436,35 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B43" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>44431</v>
       </c>
       <c r="C43" s="17">
-        <f xml:space="preserve"> 1 + B43</f>
+        <f t="shared" si="11"/>
         <v>44432</v>
       </c>
       <c r="D43" s="17">
-        <f xml:space="preserve"> 1 + C43</f>
+        <f t="shared" si="11"/>
         <v>44433</v>
       </c>
       <c r="E43" s="17">
-        <f xml:space="preserve"> 1 + D43</f>
+        <f t="shared" si="11"/>
         <v>44434</v>
       </c>
       <c r="F43" s="17">
-        <f xml:space="preserve"> 1 + E43</f>
+        <f t="shared" si="11"/>
         <v>44435</v>
       </c>
       <c r="G43" s="17">
-        <f xml:space="preserve"> 1 + F43</f>
+        <f t="shared" si="11"/>
         <v>44436</v>
       </c>
       <c r="H43" s="17">
-        <f xml:space="preserve"> 1 + G43</f>
+        <f t="shared" si="11"/>
         <v>44437</v>
       </c>
       <c r="J43" s="24"/>
@@ -11525,35 +11475,35 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44444</v>
       </c>
       <c r="B44" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>44438</v>
       </c>
       <c r="C44" s="17">
-        <f xml:space="preserve"> 1 + B44</f>
+        <f t="shared" si="11"/>
         <v>44439</v>
       </c>
       <c r="D44" s="17">
-        <f xml:space="preserve"> 1 + C44</f>
+        <f t="shared" si="11"/>
         <v>44440</v>
       </c>
       <c r="E44" s="17">
-        <f xml:space="preserve"> 1 + D44</f>
+        <f t="shared" si="11"/>
         <v>44441</v>
       </c>
       <c r="F44" s="17">
-        <f xml:space="preserve"> 1 + E44</f>
+        <f t="shared" si="11"/>
         <v>44442</v>
       </c>
       <c r="G44" s="17">
-        <f xml:space="preserve"> 1 + F44</f>
+        <f t="shared" si="11"/>
         <v>44443</v>
       </c>
       <c r="H44" s="17">
-        <f xml:space="preserve"> 1 + G44</f>
+        <f t="shared" si="11"/>
         <v>44444</v>
       </c>
       <c r="J44" s="24"/>
@@ -11565,31 +11515,31 @@
         <v/>
       </c>
       <c r="B45" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>44445</v>
       </c>
       <c r="C45" s="17">
-        <f xml:space="preserve"> 1 + B45</f>
+        <f t="shared" si="11"/>
         <v>44446</v>
       </c>
       <c r="D45" s="17">
-        <f xml:space="preserve"> 1 + C45</f>
+        <f t="shared" si="11"/>
         <v>44447</v>
       </c>
       <c r="E45" s="17">
-        <f xml:space="preserve"> 1 + D45</f>
+        <f t="shared" si="11"/>
         <v>44448</v>
       </c>
       <c r="F45" s="17">
-        <f xml:space="preserve"> 1 + E45</f>
+        <f t="shared" si="11"/>
         <v>44449</v>
       </c>
       <c r="G45" s="17">
-        <f xml:space="preserve"> 1 + F45</f>
+        <f t="shared" si="11"/>
         <v>44450</v>
       </c>
       <c r="H45" s="17">
-        <f xml:space="preserve"> 1 + G45</f>
+        <f t="shared" si="11"/>
         <v>44451</v>
       </c>
       <c r="J45" s="24"/>
@@ -11597,35 +11547,35 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B46" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>44452</v>
       </c>
       <c r="C46" s="17">
-        <f xml:space="preserve"> 1 + B46</f>
+        <f t="shared" si="11"/>
         <v>44453</v>
       </c>
       <c r="D46" s="17">
-        <f xml:space="preserve"> 1 + C46</f>
+        <f t="shared" si="11"/>
         <v>44454</v>
       </c>
       <c r="E46" s="17">
-        <f xml:space="preserve"> 1 + D46</f>
+        <f t="shared" si="11"/>
         <v>44455</v>
       </c>
       <c r="F46" s="17">
-        <f xml:space="preserve"> 1 + E46</f>
+        <f t="shared" si="11"/>
         <v>44456</v>
       </c>
       <c r="G46" s="17">
-        <f xml:space="preserve"> 1 + F46</f>
+        <f t="shared" si="11"/>
         <v>44457</v>
       </c>
       <c r="H46" s="17">
-        <f xml:space="preserve"> 1 + G46</f>
+        <f t="shared" si="11"/>
         <v>44458</v>
       </c>
       <c r="J46" s="24"/>
@@ -11633,35 +11583,35 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B47" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>44459</v>
       </c>
       <c r="C47" s="17">
-        <f xml:space="preserve"> 1 + B47</f>
+        <f t="shared" si="11"/>
         <v>44460</v>
       </c>
       <c r="D47" s="17">
-        <f xml:space="preserve"> 1 + C47</f>
+        <f t="shared" si="11"/>
         <v>44461</v>
       </c>
       <c r="E47" s="17">
-        <f xml:space="preserve"> 1 + D47</f>
+        <f t="shared" si="11"/>
         <v>44462</v>
       </c>
       <c r="F47" s="17">
-        <f xml:space="preserve"> 1 + E47</f>
+        <f t="shared" si="11"/>
         <v>44463</v>
       </c>
       <c r="G47" s="17">
-        <f xml:space="preserve"> 1 + F47</f>
+        <f t="shared" si="11"/>
         <v>44464</v>
       </c>
       <c r="H47" s="17">
-        <f xml:space="preserve"> 1 + G47</f>
+        <f t="shared" si="11"/>
         <v>44465</v>
       </c>
       <c r="J47" s="24"/>
@@ -11672,35 +11622,35 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44472</v>
       </c>
       <c r="B48" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>44466</v>
       </c>
       <c r="C48" s="17">
-        <f xml:space="preserve"> 1 + B48</f>
+        <f t="shared" si="11"/>
         <v>44467</v>
       </c>
       <c r="D48" s="17">
-        <f xml:space="preserve"> 1 + C48</f>
+        <f t="shared" si="11"/>
         <v>44468</v>
       </c>
       <c r="E48" s="17">
-        <f xml:space="preserve"> 1 + D48</f>
+        <f t="shared" si="11"/>
         <v>44469</v>
       </c>
       <c r="F48" s="17">
-        <f xml:space="preserve"> 1 + E48</f>
+        <f t="shared" si="11"/>
         <v>44470</v>
       </c>
       <c r="G48" s="17">
-        <f xml:space="preserve"> 1 + F48</f>
+        <f t="shared" si="11"/>
         <v>44471</v>
       </c>
       <c r="H48" s="17">
-        <f xml:space="preserve"> 1 + G48</f>
+        <f t="shared" si="11"/>
         <v>44472</v>
       </c>
       <c r="J48" s="24"/>
@@ -11708,7 +11658,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B49" s="17">
@@ -11716,27 +11666,27 @@
         <v>44473</v>
       </c>
       <c r="C49" s="17">
-        <f xml:space="preserve"> 1 + B49</f>
+        <f t="shared" ref="C49:H58" si="13" xml:space="preserve"> 1 + B49</f>
         <v>44474</v>
       </c>
       <c r="D49" s="17">
-        <f xml:space="preserve"> 1 + C49</f>
+        <f t="shared" si="13"/>
         <v>44475</v>
       </c>
       <c r="E49" s="17">
-        <f xml:space="preserve"> 1 + D49</f>
+        <f t="shared" si="13"/>
         <v>44476</v>
       </c>
       <c r="F49" s="17">
-        <f xml:space="preserve"> 1 + E49</f>
+        <f t="shared" si="13"/>
         <v>44477</v>
       </c>
       <c r="G49" s="17">
-        <f xml:space="preserve"> 1 + F49</f>
+        <f t="shared" si="13"/>
         <v>44478</v>
       </c>
       <c r="H49" s="17">
-        <f xml:space="preserve"> 1 + G49</f>
+        <f t="shared" si="13"/>
         <v>44479</v>
       </c>
       <c r="J49" s="24"/>
@@ -11744,35 +11694,35 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B50" s="17">
-        <f t="shared" ref="B50:B53" si="9" xml:space="preserve"> 1 + $H49</f>
+        <f t="shared" ref="B50:B53" si="14" xml:space="preserve"> 1 + $H49</f>
         <v>44480</v>
       </c>
       <c r="C50" s="17">
-        <f xml:space="preserve"> 1 + B50</f>
+        <f t="shared" si="13"/>
         <v>44481</v>
       </c>
       <c r="D50" s="17">
-        <f xml:space="preserve"> 1 + C50</f>
+        <f t="shared" si="13"/>
         <v>44482</v>
       </c>
       <c r="E50" s="17">
-        <f xml:space="preserve"> 1 + D50</f>
+        <f t="shared" si="13"/>
         <v>44483</v>
       </c>
       <c r="F50" s="17">
-        <f xml:space="preserve"> 1 + E50</f>
+        <f t="shared" si="13"/>
         <v>44484</v>
       </c>
       <c r="G50" s="17">
-        <f xml:space="preserve"> 1 + F50</f>
+        <f t="shared" si="13"/>
         <v>44485</v>
       </c>
       <c r="H50" s="17">
-        <f xml:space="preserve"> 1 + G50</f>
+        <f t="shared" si="13"/>
         <v>44486</v>
       </c>
       <c r="J50" s="24"/>
@@ -11780,35 +11730,35 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B51" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>44487</v>
       </c>
       <c r="C51" s="17">
-        <f xml:space="preserve"> 1 + B51</f>
+        <f t="shared" si="13"/>
         <v>44488</v>
       </c>
       <c r="D51" s="17">
-        <f xml:space="preserve"> 1 + C51</f>
+        <f t="shared" si="13"/>
         <v>44489</v>
       </c>
       <c r="E51" s="17">
-        <f xml:space="preserve"> 1 + D51</f>
+        <f t="shared" si="13"/>
         <v>44490</v>
       </c>
       <c r="F51" s="17">
-        <f xml:space="preserve"> 1 + E51</f>
+        <f t="shared" si="13"/>
         <v>44491</v>
       </c>
       <c r="G51" s="17">
-        <f xml:space="preserve"> 1 + F51</f>
+        <f t="shared" si="13"/>
         <v>44492</v>
       </c>
       <c r="H51" s="17">
-        <f xml:space="preserve"> 1 + G51</f>
+        <f t="shared" si="13"/>
         <v>44493</v>
       </c>
       <c r="J51" s="24"/>
@@ -11816,35 +11766,35 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B52" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>44494</v>
       </c>
       <c r="C52" s="17">
-        <f xml:space="preserve"> 1 + B52</f>
+        <f t="shared" si="13"/>
         <v>44495</v>
       </c>
       <c r="D52" s="17">
-        <f xml:space="preserve"> 1 + C52</f>
+        <f t="shared" si="13"/>
         <v>44496</v>
       </c>
       <c r="E52" s="17">
-        <f xml:space="preserve"> 1 + D52</f>
+        <f t="shared" si="13"/>
         <v>44497</v>
       </c>
       <c r="F52" s="17">
-        <f xml:space="preserve"> 1 + E52</f>
+        <f t="shared" si="13"/>
         <v>44498</v>
       </c>
       <c r="G52" s="17">
-        <f xml:space="preserve"> 1 + F52</f>
+        <f t="shared" si="13"/>
         <v>44499</v>
       </c>
       <c r="H52" s="17">
-        <f xml:space="preserve"> 1 + G52</f>
+        <f t="shared" si="13"/>
         <v>44500</v>
       </c>
       <c r="J52" s="24"/>
@@ -11855,35 +11805,35 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44507</v>
       </c>
       <c r="B53" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>44501</v>
       </c>
       <c r="C53" s="17">
-        <f xml:space="preserve"> 1 + B53</f>
+        <f t="shared" si="13"/>
         <v>44502</v>
       </c>
       <c r="D53" s="17">
-        <f xml:space="preserve"> 1 + C53</f>
+        <f t="shared" si="13"/>
         <v>44503</v>
       </c>
       <c r="E53" s="17">
-        <f xml:space="preserve"> 1 + D53</f>
+        <f t="shared" si="13"/>
         <v>44504</v>
       </c>
       <c r="F53" s="17">
-        <f xml:space="preserve"> 1 + E53</f>
+        <f t="shared" si="13"/>
         <v>44505</v>
       </c>
       <c r="G53" s="17">
-        <f xml:space="preserve"> 1 + F53</f>
+        <f t="shared" si="13"/>
         <v>44506</v>
       </c>
       <c r="H53" s="17">
-        <f xml:space="preserve"> 1 + G53</f>
+        <f t="shared" si="13"/>
         <v>44507</v>
       </c>
       <c r="J53" s="24"/>
@@ -11891,7 +11841,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B54" s="17">
@@ -11899,27 +11849,27 @@
         <v>44508</v>
       </c>
       <c r="C54" s="17">
-        <f xml:space="preserve"> 1 + B54</f>
+        <f t="shared" si="13"/>
         <v>44509</v>
       </c>
       <c r="D54" s="17">
-        <f xml:space="preserve"> 1 + C54</f>
+        <f t="shared" si="13"/>
         <v>44510</v>
       </c>
       <c r="E54" s="17">
-        <f xml:space="preserve"> 1 + D54</f>
+        <f t="shared" si="13"/>
         <v>44511</v>
       </c>
       <c r="F54" s="17">
-        <f xml:space="preserve"> 1 + E54</f>
+        <f t="shared" si="13"/>
         <v>44512</v>
       </c>
       <c r="G54" s="17">
-        <f xml:space="preserve"> 1 + F54</f>
+        <f t="shared" si="13"/>
         <v>44513</v>
       </c>
       <c r="H54" s="17">
-        <f xml:space="preserve"> 1 + G54</f>
+        <f t="shared" si="13"/>
         <v>44514</v>
       </c>
       <c r="J54" s="24"/>
@@ -11927,35 +11877,35 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B55" s="17">
-        <f t="shared" ref="B55:B57" si="10" xml:space="preserve"> 1 + $H54</f>
+        <f t="shared" ref="B55:B57" si="15" xml:space="preserve"> 1 + $H54</f>
         <v>44515</v>
       </c>
       <c r="C55" s="17">
-        <f xml:space="preserve"> 1 + B55</f>
+        <f t="shared" si="13"/>
         <v>44516</v>
       </c>
       <c r="D55" s="17">
-        <f xml:space="preserve"> 1 + C55</f>
+        <f t="shared" si="13"/>
         <v>44517</v>
       </c>
       <c r="E55" s="17">
-        <f xml:space="preserve"> 1 + D55</f>
+        <f t="shared" si="13"/>
         <v>44518</v>
       </c>
       <c r="F55" s="17">
-        <f xml:space="preserve"> 1 + E55</f>
+        <f t="shared" si="13"/>
         <v>44519</v>
       </c>
       <c r="G55" s="17">
-        <f xml:space="preserve"> 1 + F55</f>
+        <f t="shared" si="13"/>
         <v>44520</v>
       </c>
       <c r="H55" s="17">
-        <f xml:space="preserve"> 1 + G55</f>
+        <f t="shared" si="13"/>
         <v>44521</v>
       </c>
       <c r="J55" s="24"/>
@@ -11963,35 +11913,35 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B56" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>44522</v>
       </c>
       <c r="C56" s="17">
-        <f xml:space="preserve"> 1 + B56</f>
+        <f t="shared" si="13"/>
         <v>44523</v>
       </c>
       <c r="D56" s="17">
-        <f xml:space="preserve"> 1 + C56</f>
+        <f t="shared" si="13"/>
         <v>44524</v>
       </c>
       <c r="E56" s="17">
-        <f xml:space="preserve"> 1 + D56</f>
+        <f t="shared" si="13"/>
         <v>44525</v>
       </c>
       <c r="F56" s="17">
-        <f xml:space="preserve"> 1 + E56</f>
+        <f t="shared" si="13"/>
         <v>44526</v>
       </c>
       <c r="G56" s="17">
-        <f xml:space="preserve"> 1 + F56</f>
+        <f t="shared" si="13"/>
         <v>44527</v>
       </c>
       <c r="H56" s="17">
-        <f xml:space="preserve"> 1 + G56</f>
+        <f t="shared" si="13"/>
         <v>44528</v>
       </c>
       <c r="J56" s="24"/>
@@ -12002,35 +11952,35 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44535</v>
       </c>
       <c r="B57" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>44529</v>
       </c>
       <c r="C57" s="17">
-        <f xml:space="preserve"> 1 + B57</f>
+        <f t="shared" si="13"/>
         <v>44530</v>
       </c>
       <c r="D57" s="17">
-        <f xml:space="preserve"> 1 + C57</f>
+        <f t="shared" si="13"/>
         <v>44531</v>
       </c>
       <c r="E57" s="17">
-        <f xml:space="preserve"> 1 + D57</f>
+        <f t="shared" si="13"/>
         <v>44532</v>
       </c>
       <c r="F57" s="17">
-        <f xml:space="preserve"> 1 + E57</f>
+        <f t="shared" si="13"/>
         <v>44533</v>
       </c>
       <c r="G57" s="17">
-        <f xml:space="preserve"> 1 + F57</f>
+        <f t="shared" si="13"/>
         <v>44534</v>
       </c>
       <c r="H57" s="17">
-        <f xml:space="preserve"> 1 + G57</f>
+        <f t="shared" si="13"/>
         <v>44535</v>
       </c>
       <c r="J57" s="24"/>
@@ -12038,7 +11988,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B58" s="17">
@@ -12046,27 +11996,27 @@
         <v>44536</v>
       </c>
       <c r="C58" s="17">
-        <f xml:space="preserve"> 1 + B58</f>
+        <f t="shared" si="13"/>
         <v>44537</v>
       </c>
       <c r="D58" s="17">
-        <f xml:space="preserve"> 1 + C58</f>
+        <f t="shared" si="13"/>
         <v>44538</v>
       </c>
       <c r="E58" s="17">
-        <f xml:space="preserve"> 1 + D58</f>
+        <f t="shared" si="13"/>
         <v>44539</v>
       </c>
       <c r="F58" s="17">
-        <f xml:space="preserve"> 1 + E58</f>
+        <f t="shared" si="13"/>
         <v>44540</v>
       </c>
       <c r="G58" s="17">
-        <f xml:space="preserve"> 1 + F58</f>
+        <f t="shared" si="13"/>
         <v>44541</v>
       </c>
       <c r="H58" s="17">
-        <f xml:space="preserve"> 1 + G58</f>
+        <f t="shared" si="13"/>
         <v>44542</v>
       </c>
       <c r="J58" s="24"/>
@@ -12074,35 +12024,35 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B59" s="17">
-        <f t="shared" ref="B59:B60" si="11" xml:space="preserve"> 1 + $H58</f>
+        <f t="shared" ref="B59:B60" si="16" xml:space="preserve"> 1 + $H58</f>
         <v>44543</v>
       </c>
       <c r="C59" s="17">
-        <f xml:space="preserve"> 1 + B59</f>
+        <f t="shared" ref="C59:H68" si="17" xml:space="preserve"> 1 + B59</f>
         <v>44544</v>
       </c>
       <c r="D59" s="17">
-        <f xml:space="preserve"> 1 + C59</f>
+        <f t="shared" si="17"/>
         <v>44545</v>
       </c>
       <c r="E59" s="17">
-        <f xml:space="preserve"> 1 + D59</f>
+        <f t="shared" si="17"/>
         <v>44546</v>
       </c>
       <c r="F59" s="17">
-        <f xml:space="preserve"> 1 + E59</f>
+        <f t="shared" si="17"/>
         <v>44547</v>
       </c>
       <c r="G59" s="17">
-        <f xml:space="preserve"> 1 + F59</f>
+        <f t="shared" si="17"/>
         <v>44548</v>
       </c>
       <c r="H59" s="17">
-        <f xml:space="preserve"> 1 + G59</f>
+        <f t="shared" si="17"/>
         <v>44549</v>
       </c>
       <c r="J59" s="24"/>
@@ -12110,35 +12060,35 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B60" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>44550</v>
       </c>
       <c r="C60" s="17">
-        <f xml:space="preserve"> 1 + B60</f>
+        <f t="shared" si="17"/>
         <v>44551</v>
       </c>
       <c r="D60" s="17">
-        <f xml:space="preserve"> 1 + C60</f>
+        <f t="shared" si="17"/>
         <v>44552</v>
       </c>
       <c r="E60" s="17">
-        <f xml:space="preserve"> 1 + D60</f>
+        <f t="shared" si="17"/>
         <v>44553</v>
       </c>
       <c r="F60" s="17">
-        <f xml:space="preserve"> 1 + E60</f>
+        <f t="shared" si="17"/>
         <v>44554</v>
       </c>
       <c r="G60" s="17">
-        <f xml:space="preserve"> 1 + F60</f>
+        <f t="shared" si="17"/>
         <v>44555</v>
       </c>
       <c r="H60" s="17">
-        <f xml:space="preserve"> 1 + G60</f>
+        <f t="shared" si="17"/>
         <v>44556</v>
       </c>
       <c r="J60" s="24"/>
@@ -12146,7 +12096,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44563</v>
       </c>
       <c r="B61" s="19">
@@ -12154,27 +12104,27 @@
         <v>44557</v>
       </c>
       <c r="C61" s="17">
-        <f xml:space="preserve"> 1 + B61</f>
+        <f t="shared" si="17"/>
         <v>44558</v>
       </c>
       <c r="D61" s="17">
-        <f xml:space="preserve"> 1 + C61</f>
+        <f t="shared" si="17"/>
         <v>44559</v>
       </c>
       <c r="E61" s="17">
-        <f xml:space="preserve"> 1 + D61</f>
+        <f t="shared" si="17"/>
         <v>44560</v>
       </c>
       <c r="F61" s="17">
-        <f xml:space="preserve"> 1 + E61</f>
+        <f t="shared" si="17"/>
         <v>44561</v>
       </c>
       <c r="G61" s="17">
-        <f xml:space="preserve"> 1 + F61</f>
+        <f t="shared" si="17"/>
         <v>44562</v>
       </c>
       <c r="H61" s="17">
-        <f xml:space="preserve"> 1 + G61</f>
+        <f t="shared" si="17"/>
         <v>44563</v>
       </c>
       <c r="J61" s="24"/>

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -2620,7 +2620,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>44178</v>
+        <v>44193</v>
       </c>
     </row>
   </sheetData>
@@ -7526,7 +7526,7 @@
       <pane xSplit="8" ySplit="3" topLeftCell="J43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J58" sqref="J58"/>
+      <selection pane="bottomRight" activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7579,20 +7579,20 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>770.16</v>
+        <v>812.57999999999993</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>1.2381993569131833</v>
+        <v>1.3063987138263664</v>
       </c>
       <c r="M3" s="29">
         <f xml:space="preserve"> $J$3 - $L$2</f>
-        <v>148.15999999999997</v>
+        <v>190.57999999999993</v>
       </c>
       <c r="N3" s="30">
         <f xml:space="preserve"> $M$3 / $L$2 * 1000</f>
-        <v>238.19935691318324</v>
+        <v>306.39871382636647</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -9779,7 +9779,10 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>44185</v>
       </c>
-      <c r="J59" s="24"/>
+      <c r="J59" s="24">
+        <f>6.32 + 13.85</f>
+        <v>20.170000000000002</v>
+      </c>
       <c r="K59" s="24"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -9815,7 +9818,10 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>44192</v>
       </c>
-      <c r="J60" s="24"/>
+      <c r="J60" s="24">
+        <f>13.53 + 7.76 + 0.96</f>
+        <v>22.25</v>
+      </c>
       <c r="K60" s="24"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -9854,7 +9860,7 @@
       <c r="J61" s="24"/>
       <c r="K61" s="24">
         <f>SUM(J57:J61)</f>
-        <v>34.07</v>
+        <v>76.490000000000009</v>
       </c>
     </row>
   </sheetData>
@@ -12032,7 +12038,7 @@
         <v>44543</v>
       </c>
       <c r="C59" s="17">
-        <f t="shared" ref="C59:H68" si="17" xml:space="preserve"> 1 + B59</f>
+        <f t="shared" ref="C59:H61" si="17" xml:space="preserve"> 1 + B59</f>
         <v>44544</v>
       </c>
       <c r="D59" s="17">

--- a/Src/622 miles/Objectif 622 miles par an.xlsx
+++ b/Src/622 miles/Objectif 622 miles par an.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19440" windowHeight="8520" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19440" windowHeight="8520" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2017 automn &amp; winter" sheetId="1" r:id="rId1"/>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="I18" s="13">
         <f ca="1">TODAY()</f>
-        <v>44193</v>
+        <v>44198</v>
       </c>
     </row>
   </sheetData>
@@ -7522,11 +7522,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="J43" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="8" ySplit="3" topLeftCell="J51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J60" sqref="J60"/>
+      <selection pane="bottomRight" activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7579,20 +7579,20 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>812.57999999999993</v>
+        <v>820.25999999999988</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>1.3063987138263664</v>
+        <v>1.3187459807073953</v>
       </c>
       <c r="M3" s="29">
         <f xml:space="preserve"> $J$3 - $L$2</f>
-        <v>190.57999999999993</v>
+        <v>198.25999999999988</v>
       </c>
       <c r="N3" s="30">
         <f xml:space="preserve"> $M$3 / $L$2 * 1000</f>
-        <v>306.39871382636647</v>
+        <v>318.74598070739529</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -9857,10 +9857,12 @@
         <f xml:space="preserve"> Tableau145[[#This Row],[Samedi]] + 1</f>
         <v>44199</v>
       </c>
-      <c r="J61" s="24"/>
+      <c r="J61" s="24">
+        <v>7.68</v>
+      </c>
       <c r="K61" s="24">
         <f>SUM(J57:J61)</f>
-        <v>76.490000000000009</v>
+        <v>84.170000000000016</v>
       </c>
     </row>
   </sheetData>
@@ -9940,8 +9942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9994,20 +9996,20 @@
       </c>
       <c r="J3" s="25">
         <f>SUM($J$4:$J$61)</f>
-        <v>0</v>
+        <v>7.89</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="27">
         <f xml:space="preserve"> J3 / 622</f>
-        <v>0</v>
+        <v>1.2684887459807073E-2</v>
       </c>
       <c r="M3" s="29">
         <f xml:space="preserve"> $J$3 - $L$2</f>
-        <v>-622</v>
+        <v>-614.11</v>
       </c>
       <c r="N3" s="30">
         <f xml:space="preserve"> $M$3 / $L$2 * 1000</f>
-        <v>-1000</v>
+        <v>-987.31511254019301</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -10225,7 +10227,9 @@
         <f t="shared" si="3"/>
         <v>44199</v>
       </c>
-      <c r="J9" s="24"/>
+      <c r="J9" s="24">
+        <v>7.89</v>
+      </c>
       <c r="K9" s="24"/>
       <c r="N9" s="20"/>
     </row>
@@ -10375,7 +10379,7 @@
       <c r="J13" s="24"/>
       <c r="K13" s="24">
         <f>SUM(J9:J13)</f>
-        <v>0</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
